--- a/webscrapping school/msaces/racius_links_output.xlsx
+++ b/webscrapping school/msaces/racius_links_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>Link</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>NIF</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -500,6 +505,11 @@
           <t>https://www.racius.com/alexandra-paula-lopes-dos-santos-sociedade-unipessoal-lda/</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>513926356</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -531,6 +541,11 @@
           <t>https://www.racius.com/paulo-alexandre-cruz-marques-lda/</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>505853493</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -562,97 +577,9 @@
           <t>https://www.racius.com/alexandre-almeida-tecnologias-de-informacao-unipessoal-lda/</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>745889</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025.05.13</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>PT MARCOS ALEXANDRE TEMUDO</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>35</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>(531)  24.17.5 ; 27.1.5</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/vexillum-lda/</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>745889</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025.05.13</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>PT MARCOS ALEXANDRE TEMUDO</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>35</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>(531)  24.17.5 ; 27.1.5</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/antonio-batista-marques-filho-lda/</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>745889</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025.05.13</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>PT MARCOS ALEXANDRE TEMUDO</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>35</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>(531)  24.17.5 ; 27.1.5</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/leal-carvalho-servicos-de-contabilidade-lda/</t>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>513929118</t>
         </is>
       </c>
     </row>

--- a/webscrapping school/msaces/racius_links_output.xlsx
+++ b/webscrapping school/msaces/racius_links_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>NIF</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Morada</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -510,6 +515,11 @@
           <t>513926356</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Avenida Capitão António Gomes da Rocha, Nº 14, 5º A, Monte Abraão 2745-246 Queluz</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -546,6 +556,11 @@
           <t>505853493</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Avenida dos Combatentes, Freiria 2040-344 Rio Maior</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -580,6 +595,134 @@
       <c r="H4" t="inlineStr">
         <is>
           <t>513929118</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Avenida do Brasil, Nº 145, 5º A, São Marcos 2735-675 Agualva-Cacém</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>745889</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025.05.13</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PT MARCOS ALEXANDRE TEMUDO</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>35</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(531)  24.17.5 ; 27.1.5</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/vexillum-lda/</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>509717217</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Estrada de S. Marcos - Edifício Elospark II, Comércio N.º 6, Nº 33, São Marcos 2735-521 Agualva-Cacém</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>745889</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025.05.13</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PT MARCOS ALEXANDRE TEMUDO</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>35</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(531)  24.17.5 ; 27.1.5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/antonio-batista-marques-filho-lda/</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>505746689</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Rua Alexandre Lucena e Vale, 71-A 3500-072 Viseu</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>745889</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025.05.13</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PT MARCOS ALEXANDRE TEMUDO</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>35</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(531)  24.17.5 ; 27.1.5</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/leal-carvalho-servicos-de-contabilidade-lda/</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>503967025</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>R Alexandre Herculano 65 3130-219 Soure</t>
         </is>
       </c>
     </row>

--- a/webscrapping school/msaces/racius_links_output.xlsx
+++ b/webscrapping school/msaces/racius_links_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Rua Cidade de Córdova, 2A 2610-038 Amadora</t>
+          <t>Rua Cidade de Córdova, 2A</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Rua da Ermida, N.º 64 4465-126 S. Mamede de Infesta</t>
+          <t>Rua da Ermida, N.º 64</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Rua Ana de Castro Osório, Nº 2 C 1500-023 Lisboa</t>
+          <t>Rua Ana de Castro Osório, Nº 2 C</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Rua António Bessa Leite, 1468, Loja 11, Porto 4150-077 Porto</t>
+          <t>Rua António Bessa Leite, 1468, Loja 11, Porto</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Rua da Reserva Botânica, Número 11, Garagem 4, Rinchoa 2635-460 Rio de Mouro</t>
+          <t>Rua da Reserva Botânica, Número 11, Garagem 4, Rinchoa</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Rua Gago Coutinho e Sacadura Cabral, Nº 21/21A/21B 2955-210 Pinhal Novo</t>
+          <t>Rua Gago Coutinho e Sacadura Cabral, Nº 21/21A/21B</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Rua das Passarias, Nº 251 4445-171 Alfena</t>
+          <t>Rua das Passarias, Nº 251</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Rua Manuel Teixeira Gomes, Nº. 22, 1º., Dtº. 2790-103 Carnaxide</t>
+          <t>Rua Manuel Teixeira Gomes, Nº. 22, 1º., Dtº.</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3959,1689 +3959,6 @@
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>747680</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2025.06.11</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>FIEIS AOS TACHOS, LDA</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>25</v>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>(531)  27.5.13</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/fieis-aos-tachos-lda/</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>516856197</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Travessa dos Mastros, Nº 25 1200-337 Lisboa</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>1200-337</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>06/2025</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>06/2035</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>2025-06-30</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>123456798</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>12354</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>747681</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2025.06.11</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>MOBSTER LDA</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>35</v>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>(531)  27.5.10 ; 27.5.17</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>747682</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2025.06.11</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>CRISTIANO DAVID CAMACHO RODRIGUES ABREU</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>35</v>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>(531)  27.99.3</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>747683</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2025.06.11</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>MOBSTER LDA</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>35</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>BOLETIM DA PROPRIEDADE INDUSTRIAL N.º 2025/06/30</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>747684</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2025.06.11</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>LUCIA MARIA PINHEIRO DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>41</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>MNA</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>747687</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2025.06.11</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>MYMETRO - CONSULTING, TRAINING</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>41</v>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>747685</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2025.06.11</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>MYMETRO - CONSULTING, TRAINING</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>41</v>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>(531)  26.1.5 ; 26.99.6</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>747696</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2025.06.11</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>PAULO ROBERTO GARRIDO MACEDO</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>5</v>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>747686</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2025.06.11</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>MYMETRO - CONSULTING, TRAINING</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>35</v>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>747834</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2025.05.26</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>NEVES FERREIRA, ROCHA ALVES &amp;</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>41</v>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>(531)  27.5.1</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>58103</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2025.05.07</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>HELDER MADEIRA LIMA AFONSO</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>58208</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2025.06.09</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>MÁRIO RUI VELHIO MODESTO</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>E OUTRAS ATIVIDADES RECREATIVAS</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>58205</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2025.06.09</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>ELECTRO PORTELA &amp; COSTA LDA.</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>(531)  2.3.8 ; 26.13.1 ; 29.1.13</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>58209</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2025.06.10</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>FREDBRAND COMUNICAÇÃO, UNIPESSOAL, LDA. LOG</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>70210 - RELAÇÕES PÚBLICAS E COMUNICAÇÃO; 58140 -</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>58213</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2025.06.11</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>MYMETRO - CONSULTING, TRAINING LOG &amp; METROLOGY LDA</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>58210</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2025.06.10</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>VITRINDUSTRIA UNIPESSOAL, LDA</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>(531)  3.7.10 ; 3.7.16</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>58212</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2025.06.11</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>SIMAS OEIRAS E AMADORA</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>(531)  26.1.5 ; 26.99.6</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>58214</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2025.06.11</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>MYMETRO - CONSULTING, TRAINING LOG &amp; METROLOGY LDA</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>LOG</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>58215</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2025.06.11</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>MYMETRO - CONSULTING, TRAINING LOG &amp; METROLOGY LDA</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>(531)  26.1.5 ; 26.99.6</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/webscrapping school/msaces/racius_links_output.xlsx
+++ b/webscrapping school/msaces/racius_links_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2610-038</t>
+          <t>2610-038 Amadora</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>4465-126</t>
+          <t>4465-126 S</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1500-023</t>
+          <t>1500-023 Lisboa</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>4150-077</t>
+          <t>4150-077 Porto</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2342,7 +2342,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2635-460</t>
+          <t>2635-460 Rio de Mouro</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2955-210</t>
+          <t>2955-210 Pinhal Novo</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>4445-171</t>
+          <t>4445-171 Alfena</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2790-103</t>
+          <t>2790-103 Carnaxide</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3959,6 +3959,1689 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>747680</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025.06.11</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>FIEIS AOS TACHOS, LDA</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>25</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>(531)  27.5.13</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/fieis-aos-tachos-lda/</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>516856197</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Travessa dos Mastros, Nº 25</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>1200-337 Lisboa</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>06/2025</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>06/2035</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>123456798</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>12354</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>747681</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025.06.11</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MOBSTER LDA</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>35</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>(531)  27.5.10 ; 27.5.17</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>747682</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025.06.11</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CRISTIANO DAVID CAMACHO RODRIGUES ABREU</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>35</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>(531)  27.99.3</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>747683</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025.06.11</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>MOBSTER LDA</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>35</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>BOLETIM DA PROPRIEDADE INDUSTRIAL N.º 2025/06/30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>747684</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025.06.11</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>LUCIA MARIA PINHEIRO DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>41</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>MNA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>747687</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025.06.11</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MYMETRO - CONSULTING, TRAINING</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>41</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>747685</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025.06.11</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>MYMETRO - CONSULTING, TRAINING</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>41</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>(531)  26.1.5 ; 26.99.6</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>747696</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025.06.11</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO GARRIDO MACEDO</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>747686</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025.06.11</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>MYMETRO - CONSULTING, TRAINING</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>35</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>747834</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025.05.26</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NEVES FERREIRA, ROCHA ALVES &amp;</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>41</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>(531)  27.5.1</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>58103</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025.05.07</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>HELDER MADEIRA LIMA AFONSO</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>58208</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025.06.09</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>MÁRIO RUI VELHIO MODESTO</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>E OUTRAS ATIVIDADES RECREATIVAS</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>58205</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025.06.09</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ELECTRO PORTELA &amp; COSTA LDA.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>(531)  2.3.8 ; 26.13.1 ; 29.1.13</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>58209</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025.06.10</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>FREDBRAND COMUNICAÇÃO, UNIPESSOAL, LDA. LOG</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>70210 - RELAÇÕES PÚBLICAS E COMUNICAÇÃO; 58140 -</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>58213</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025.06.11</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>MYMETRO - CONSULTING, TRAINING LOG &amp; METROLOGY LDA</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>58210</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025.06.10</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>VITRINDUSTRIA UNIPESSOAL, LDA</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>(531)  3.7.10 ; 3.7.16</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>58212</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025.06.11</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>SIMAS OEIRAS E AMADORA</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>(531)  26.1.5 ; 26.99.6</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>58214</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025.06.11</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>MYMETRO - CONSULTING, TRAINING LOG &amp; METROLOGY LDA</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>LOG</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58215</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025.06.11</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>MYMETRO - CONSULTING, TRAINING LOG &amp; METROLOGY LDA</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>(531)  26.1.5 ; 26.99.6</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/webscrapping school/msaces/racius_links_output.xlsx
+++ b/webscrapping school/msaces/racius_links_output.xlsx
@@ -1117,17 +1117,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>06/2025</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>06/2035</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1191,22 +1191,22 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>4465-126 S</t>
+          <t>4465-126 S. Mamede de Infesta</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>06/2025</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>06/2035</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1730,17 +1730,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>06/2025</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>06/2035</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -2264,17 +2264,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>06/2025</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>06/2035</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -2347,17 +2347,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>06/2025</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>06/2035</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -2430,17 +2430,17 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>06/2025</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>06/2035</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -2604,17 +2604,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>06/2025</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>06/2035</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -2774,17 +2774,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>06/2025</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>06/2035</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -3832,17 +3832,17 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>06/2025</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>06/2035</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -4006,17 +4006,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>06/2025</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>06/2035</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="N41" t="n">

--- a/webscrapping school/msaces/racius_links_output.xlsx
+++ b/webscrapping school/msaces/racius_links_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,7 +543,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nome  do  requerente,  nacionalidade,  profissão, RL — Despachos proferidos por sentença alterando morada. despacho anterior.</t>
+          <t>Nome do requerente, nacionalidade, profissão, morada.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -622,115 +622,111 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>746283</t>
+          <t>746235</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025.05.19</t>
+          <t>2025.05.16</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>VASCO SÉRGIO CORREIA FREITAS</t>
+          <t>LETICIA SUHER MARTINS DIGITAL &amp; CREATIVE UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(531)  7.1.24 ; 26.4.22</t>
+          <t>[IMAGE: images/540_1.jpeg]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/leticia-suher-martins-digital-creative-unipessoal-lda/</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>515837750</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Lagoas Park, Edificio 7, Piso 1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2740-244 Oeiras</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456789</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12345</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>747572</t>
+          <t>746933</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025.06.10</t>
+          <t>2025.05.29</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EMBRACE PASSION LDA</t>
+          <t>SOFHIA HELENA BORGES COUTO PT EXCELSIOR NAIL COMPANY, UNIPESSOAL LDA.</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(531) 27.5.22</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>Not Found</t>
@@ -800,26 +796,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>747561</t>
+          <t>746978</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025.06.09</t>
+          <t>2025.05.29</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HUGO ROCHA SANTOS MADEIRA</t>
+          <t>HENRIQUE JOSÉ DINIS ALVO DA SILVA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(531)  2.1.20</t>
+          <t>[IMAGE: images/540_2.jpeg]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -891,28 +887,28 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>747573</t>
+          <t>747069</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025.06.10</t>
+          <t>2025.05.30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ASSOCIAÇÃO SOCIO-CULTURAL DE</t>
+          <t>FRANCISCO JAVIER FERNANDEZ ULFE</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>41</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ROTA DOS MOINHOS DE</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(531) 7.1.11 ; 14.5.2</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>Not Found</t>
@@ -982,26 +978,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>747577</t>
+          <t>747113</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MINOR HOTELS EUROPE &amp; AMERICAS,</t>
+          <t>NUNO MIGUEL LIMA CASTEL-BRANCO DA SILVA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(531)  27.5.10</t>
+          <t>[IMAGE: images/540_3.jpeg]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1073,46 +1069,46 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>747580</t>
+          <t>747149</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.05.31</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ó CAPITAL, LDA</t>
+          <t>MODELO IMPARCIAL UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>36</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SURE</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(531) 25.5.94</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.racius.com/o-capital-lda/</t>
+          <t>https://www.racius.com/modelo-imparcial-unipessoal-lda/</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>510576931</t>
+          <t>517961512</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Rua Cidade de Córdova, 2A</t>
+          <t>Rua Cimo de Vila, Nº 1926, En 327</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2610-038 Amadora</t>
+          <t>3880-743 São João de Ovar</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1127,7 +1123,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1144,207 +1140,211 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>123456789</t>
+          <t>123456790</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>12346</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>747578</t>
+          <t>747164</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>WISE PIRATES, S.A</t>
+          <t>CRISTINA FERNANDA QUEVEDO</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(531) 27.5.4</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.racius.com/wise-pirates-s-a/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>514631902</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Rua da Ermida, N.º 64</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>4465-126 S. Mamede de Infesta</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>07/2025</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>07/2035</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>123456790</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>12346</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>747581</t>
+          <t>747166</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.02</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HOMELOVERS - THE TRENDY REAL</t>
+          <t>JANELA MAJESTOSA - LDA</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>QUINTA DOS NOVAIS DE CIMA</t>
+          <t>CELEBRITY VILLAS</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/janela-majestosa-lda/</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>518417611</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Urbanização Boca do Rio, Lote 6, Nº 101, Mexilhoeira da Carregação, Estombar</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>8400-113 Estombar</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456791</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12347</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>747597</t>
+          <t>747220</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025.06.09</t>
+          <t>2025.06.02</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GESTITOUR, LDA.</t>
+          <t>CARLOS MAMAD</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TERRANOVA</t>
+          <t>NETCARRO.PT</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1417,315 +1417,295 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>747598</t>
+          <t>747380</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025.06.09</t>
+          <t>2025.06.03</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GESTITOUR, LDA.</t>
+          <t>NOY &amp; LEITE, LDA</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>33</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>LUCIVALIS</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+        <v>44</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(531) 27.5.1</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/noy-leite-lda/</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>518639843</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Antonio Jose de Almeida, Nº 8 - R/C A</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2685-894 Sacavém</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456792</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12348</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>747605</t>
+          <t>747589</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025.06.10</t>
+          <t>2025.06.09</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>VIEIRA &amp; GORDO, LDA.</t>
+          <t>HOTI-HOTÉIS, SGPS, S.A.</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>(531)  2.9.1 ; 7.1.24 ; 29.1.1</t>
+          <t>(531) 7.3.2 ; 19.9.2 ; 26.11.9 ; 26.11.12</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/hoti-hoteis-sgps-s-a/</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>504762982</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Avenida Dom João II, Lote 1.16.02 B</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>1990-083 Lisboa</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456793</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12349</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>747596</t>
+          <t>747642</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025.06.09</t>
+          <t>2025.06.11</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GESTITOUR, LDA.</t>
+          <t>UNLIMITEDCARE - SERVIÇOS DE SAÚDE E ASSISTÊNCIA, S.A.</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>[IMAGE: images/540_4.jpeg]</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/unlimitedcare-servicos-de-saude-e-assistencia-s-a/</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>510367615</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Av. Marechal Craveiro Lopes, Nº 6 e 6 A</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>1700-284 Lisboa</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456794</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12350</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>747607</t>
+          <t>747700</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025.06.10</t>
+          <t>2025.06.11</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SENSATEZ HÍBRIDA, LDA</t>
+          <t>FRANCISCO JOSÉ GONÇALVES - IMOBILIÁRIA, UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>35</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>IC CLUB</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+        <v>36</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>(531) 27.5.1</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.racius.com/sensatez-hibrida-lda/</t>
+          <t>https://www.racius.com/francisco-jose-goncalves-imobiliaria-unipessoal-lda/</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>518696669</t>
+          <t>518625591</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Rua Ana de Castro Osório, Nº 2 C</t>
+          <t>Rua José Júlio Vieira Ramos, Nº 191</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1500-023 Lisboa</t>
+          <t>4750-180 Barcelos</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1740,7 +1720,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -1757,37 +1737,37 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>123456791</t>
+          <t>123456795</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>12347</t>
+          <t>12351</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>747609</t>
+          <t>747701</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025.06.10</t>
+          <t>2025.06.11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SECRET POTENTIAL, LDA.</t>
+          <t>OLINALDO DE SOUSA OLIVEIRA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ANIKI-BÓBÓ</t>
+          <t>E INDUSTRIAL N.º 2025/07/02</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1860,26 +1840,26 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>747613</t>
+          <t>747704</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025.06.10</t>
+          <t>2025.06.11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DOPAMINA ADV - OUTDOOR,</t>
+          <t>DANIELE DO CARMO NEDUZIAK</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>(531)  24.17.24 ; 27.1.4 ; 27.5.4 ; 27.5.10</t>
+          <t>(531) 25.5.94</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1951,7 +1931,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>747618</t>
+          <t>747706</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1961,102 +1941,98 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CARLOS MANUEL SOARES NUNES</t>
+          <t>PORTOCOMERCIAL- SOCIEDADE DE COMERCIALIZAÇÃO, LICENCIAMENTO E SPONSORIZAÇÃO, SA</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>[IMAGE: images/540_5.jpeg]</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/portocomercial-sociedade-de-comercializacao-licenciamento-e-sponsorizacao-s-a/</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>503709794</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Estádio do Dragão, Via Futebol Clube do Porto, Entrada Nascente, Piso 3</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>4350-415 Porto</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456796</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12352</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>747610</t>
+          <t>747725</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025.06.10</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GIOVANNA BIANCHI NEGHERBON</t>
+          <t>SÓNIA CARINA CALEIRO VARGUES CARAPINHA</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>LAS ROSAS</t>
+          <t>DOCE CHUPETA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -2129,137 +2105,129 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>747612</t>
+          <t>747727</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025.06.10</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CARÁTER INTEMPORAL UNIPESSOAL</t>
+          <t>MANHÃ BALSÂMICA PRODUÇÃO E VENDA DE VINHO UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>35</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>TRILHOS &amp; CAMINHADAS</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>(531) 27.5.1</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/manha-balsamica-producao-e-venda-de-vinho-unipessoal-lda/</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>517730235</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Vicente Gomes, Nº 1 São Lourenço de Mamporcão</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>7100-669 São Lourenço de Mamporcão</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456797</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12353</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>747619</t>
+          <t>747728</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CLARÃO NÓMADA - LDA</t>
+          <t>ALG EVENTOS, LDA.</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>(531)  26.11.12 ; 27.5.10</t>
+          <t>(531) 26.15.5</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://www.racius.com/clarao-nomada-lda/</t>
+          <t>https://www.racius.com/alg-eventos-lda/</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>518781518</t>
+          <t>513097511</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Rua António Bessa Leite, 1468, Loja 11, Porto</t>
+          <t>Rua de Portugal, Nº. 87</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>4150-077 Porto</t>
+          <t>8100-554 Loulé</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2274,7 +2242,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -2291,58 +2259,58 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>123456792</t>
+          <t>123456798</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>12348</t>
+          <t>12354</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>747623</t>
+          <t>747729</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>VICTORYDIAGRAM, LDA</t>
+          <t>TOWA PHARMACEUTICAL, S.A.</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>42</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>(531)  5.3.15 ; 15.1.13</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>CARBOZEN</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://www.racius.com/victorydiagram-lda/</t>
+          <t>https://www.racius.com/towa-pharmaceutical-s-a/</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>514799641</t>
+          <t>506698599</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Rua da Reserva Botânica, Número 11, Garagem 4, Rinchoa</t>
+          <t>Avenida do Forte, Nº 3, Edificio Suécia IV, Piso 0, Escritório 0.0.4</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2635-460 Rio de Mouro</t>
+          <t>2794-093 Carnaxide</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2357,7 +2325,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -2374,58 +2342,58 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>123456793</t>
+          <t>123456799</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>12349</t>
+          <t>12355</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>747624</t>
+          <t>747730</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>JKRP CONSULTING, LDA</t>
+          <t>ETHIACK, LDA.</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>(531)  26.2.7 ; 27.5.10</t>
+          <t>[IMAGE: images/540_6.jpeg]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://www.racius.com/jkrp-consulting-lda/</t>
+          <t>https://www.racius.com/ethiack-lda/</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>518559874</t>
+          <t>516856146</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Rua Gago Coutinho e Sacadura Cabral, Nº 21/21A/21B</t>
+          <t>Rua Rua Pedro Nunes, Instituto Pedro Nunes, S/N</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2955-210 Pinhal Novo</t>
+          <t>3030-199 Coimbra</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2440,7 +2408,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -2457,562 +2425,554 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>123456794</t>
+          <t>123456800</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>12350</t>
+          <t>12356</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>747622</t>
+          <t>747731</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HELOÍSA HELENA DE FREITAS</t>
+          <t>ALG EVENTOS, LDA.</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>BOLETIM DA PROPRIEDADE INDUSTRIAL N.º 2025/06/30</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>(531) 26.15.5</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/alg-eventos-lda/</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>513097511</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua de Portugal, Nº. 87</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>8100-554 Loulé</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456801</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12357</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>747625</t>
+          <t>747733</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NORJOPALL, LDA</t>
+          <t>ARMANDO BORGES DA SILVA</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>35</v>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>(531)  7.15.5 ; 27.5.10</t>
-        </is>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>COUÇO</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://www.racius.com/norjopall-lda/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>514360992</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Rua das Passarias, Nº 251</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>4445-171 Alfena</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>07/2025</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>07/2035</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>123456795</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>12351</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>747629</t>
+          <t>747734</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>VERA LUCIA DOS SANTOS MOTA</t>
+          <t>ESPORÃO, S. A.</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>35</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ESPORÃO NÓMADA</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/esporao-s-a/</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>500116377</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Herdade do Esporão</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>7200-999 Reguengos de Monsaraz</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456802</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12358</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>747627</t>
+          <t>747736</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ANJOS CUIDADORES - APOIO DOMICILIÁRIO, LDA</t>
+          <t>MARA SORAIA LOPES PINHEIRO E INDUSTRIAL</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>(511)  44  SERVIÇOS</t>
+          <t>FITMARA</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://www.racius.com/anjos-cuidadores-apoio-domiciliario-lda/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>516924265</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Rua Manuel Teixeira Gomes, Nº. 22, 1º., Dtº.</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2790-103 Carnaxide</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>07/2025</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>07/2035</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>123456796</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>12352</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>747628</t>
+          <t>747737</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LUÍS ANTÓNIO MONTEIRO DE ALMEIDA</t>
+          <t>CRISTIANO RESENDE UNIPESSOAL LIMITADA</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>43</v>
-      </c>
-      <c r="E28" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ABOUT HAIR</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/cristiano-resende-unipessoal-limitada/</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>518383733</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Professor Doutor Egas Moniz, Nº. 293</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>3860-078 Avanca</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456803</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12359</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>747632</t>
+          <t>747739</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CARLOS MIGUEL RAMOS BERNARDES</t>
+          <t>AZEVEDO, PINTO &amp; SILVA, LIMITADA</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>ESCOLAS DE CONDUÇÃO</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/azevedo-pinto-silva-limitada/</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>500888914</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Padre António, 81, 1º Dtº</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>4470-136 Maia</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456804</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12360</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>747633</t>
+          <t>747742</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>IGOR SKITSKO</t>
+          <t>ROMAN AHMED</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>35</v>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>(531)  7.1.24 ; 26.4.5 ; 26.4.16 ; 29.1.2</t>
-        </is>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>BOLETIM DA PROPRIEDADE</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
           <t>Not Found</t>
@@ -3082,199 +3042,183 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>747634</t>
+          <t>747743</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MENNIZ - ARQUITETURA, DESIGN E</t>
+          <t>AMEZTOY &amp; ALMEIDA, LDA</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>(531)  27.5.1</t>
+          <t>[IMAGE: images/540_7.jpeg]</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/ameztoy-almeida-lda/</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>513712542</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Caminho do Curral Teles</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>5150-636 Vila Nova de Foz Côa</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456805</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12361</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>747635</t>
+          <t>747744</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CABREIRA SOLUTIONS, UNIPESSOAL</t>
+          <t>ANTONIO MANUEL SANTOS BRITO</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MNA</t>
+          <t>BRITO RACING</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/santos-brito-construcoes-unipessoal-lda/</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>517099705</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Francisco Manuel de Melo, Lote 17, R/C Esq</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2780-242 Oeiras</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456806</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12362</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>747636</t>
+          <t>747745</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>IVIN, LDA.</t>
+          <t>XARÃO - COMPANHIA PORTUGUESA LICORES, LDA.</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -3282,101 +3226,93 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>VINHAS TORTUOSAS</t>
+          <t>BALIHAY</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/xarao-companhia-portuguesa-de-licores-lda/</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>506895092</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua das Minas, Nº.386</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>4440-008 Campo Vlg</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456807</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12363</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>747637</t>
+          <t>747747</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CARMI MEDICAL CONCEPT LDA</t>
+          <t>CARLOS DANIEL PINTO CAMPOBASSO</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>44</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>MNA</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
+        <v>28</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>(531) 1.13.2</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
           <t>Not Found</t>
@@ -3446,210 +3382,194 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>747643</t>
+          <t>747748</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Y PING CHOW</t>
+          <t>ASM ACCOUNTING, LDA</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>41</v>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>(531)  2.1.29 ; 6.1.4</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NOBLEFINANCE</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/asm-accounting-lda/</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>518798984</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Edifício Diogo Cão, Doca de Alcântara Norte</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>1350-352 Lisboa</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456808</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12364</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>747670</t>
+          <t>747749</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025.06.10</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RENATO SILVA BRAZ</t>
+          <t>DOÇURÀCHUVA LDA</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>33</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>VINHOS  DE  MESA;</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>[IMAGE: images/540_8.jpeg]</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/docurachuva-lda/</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>518525813</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Praça da Nossa Sra. da Conceição, Lote 4, Loja 1</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>5000-436 Vila Real</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456809</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12365</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>747678</t>
+          <t>747751</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>IMODILOMI, LDA.</t>
+          <t>DAVID DE SOUSA PASCOAL</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>9</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>MNA</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>[IMAGE: images/540_9.jpeg]</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr">
         <is>
           <t>Not Found</t>
@@ -3719,28 +3639,28 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>747674</t>
+          <t>747752</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025.06.10</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>LOBO &amp; DRUMOND, UNIPESSOAL, LDA</t>
+          <t>RICARDO JOSÉ FERREIRA SOARES</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>43</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>RECANTO DOS PALADARES</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>(531) 24.17.25 ; 27.3.15 ; 27.5.1 ; 29.1.4</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
           <t>Not Found</t>
@@ -3810,198 +3730,220 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>747677</t>
+          <t>747753</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+          <t>2025.06.12</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>JOÃO MANUEL GREGÓRIO BATISTA</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>25</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>E INDUSTRIAL N.º 2025/07/02</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://www.racius.com/marcas/nan/</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>07/2025</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>07/2035</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>123456797</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>12353</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>747679</t>
+          <t>747754</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>VENUE - GESTÃO DE ESPAÇOS E</t>
+          <t>JUICY PARTICLE LDA</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>(531)  26.11.12 ; 27.5.1</t>
+          <t>[IMAGE: images/540_10.jpeg]</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/juicy-particle-lda/</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>518723780</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Largo da Cascata, Nº 2</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>7960-228 Vidigueira</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456810</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12366</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>747680</t>
+          <t>747755</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>FIEIS AOS TACHOS, LDA</t>
+          <t>TIAGO BARBOSA COSTA</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>25</v>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>(531)  27.5.13</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>E INDUSTRIAL N.º 2025/07/02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://www.racius.com/fieis-aos-tachos-lda/</t>
+          <t>https://www.racius.com/tiago-barbosa-lda/</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>516856197</t>
+          <t>516235133</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Travessa dos Mastros, Nº 25</t>
+          <t>Rua Senhora da Saúde, 197</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>1200-337 Lisboa</t>
+          <t>4905-657 Vila de Punhe</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -4016,7 +3958,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -4033,38 +3975,38 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>123456798</t>
+          <t>123456811</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>12354</t>
+          <t>12367</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>747681</t>
+          <t>747756</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MOBSTER LDA</t>
+          <t>ALLYSSON XAVIER RICI</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>(531)  27.5.10 ; 27.5.17</t>
+          <t>[IMAGE: images/540_11.jpeg]</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -4136,17 +4078,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>747682</t>
+          <t>747757</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CRISTIANO DAVID CAMACHO RODRIGUES ABREU</t>
+          <t>SHL PORTUGAL - PEOPLE SOLUTIONS, SISTEMAS PARA AVALIAÇÃO E DESENVOLVIMENTO DE RECURSOS HUMANOS LDA</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -4155,191 +4097,175 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>(531)  27.99.3</t>
+          <t>(531) 27.3.15 ; 27.5.1</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/shl-portugal-people-solutions-sistemas-para-avaliacao-e-desenvolvimento-de-recursos-humanos-lda/</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>500849064</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Avenida da República, N.º 90 - Galeria, Sala 3 Lisboa</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>1600-206 Lisboa</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456812</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12368</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>747683</t>
+          <t>747758</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MOBSTER LDA</t>
+          <t>ZITA FERREIRA, UNIPESSOAL, LDA</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>35</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>BOLETIM DA PROPRIEDADE INDUSTRIAL N.º 2025/06/30</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
+        <v>37</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>(531) 1.15.21 ; 5.3.14 ; 19.1.4 ; 27.3.15 ; 27.5.10 ; 29.1.99</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/zita-ferreira-unipessoal-lda/</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>515221554</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua das Musas, N.º 318, 1.º, Sala 10</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>4000-352 Porto</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456813</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12369</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>747684</t>
+          <t>747759</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>LUCIA MARIA PINHEIRO DOS SANTOS</t>
+          <t>RICARDO JORGE VICENTE TALIXA</t>
         </is>
       </c>
       <c r="D45" t="n">
         <v>41</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>MNA</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>[IMAGE: images/540_12.jpeg]</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr">
         <is>
           <t>Not Found</t>
@@ -4409,24 +4335,28 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>747687</t>
+          <t>747760</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MYMETRO - CONSULTING, TRAINING</t>
+          <t>GUILHERME FILIPE MADEIRA DE JESUS</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>(531) 26.1.18</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
           <t>Not Found</t>
@@ -4496,26 +4426,26 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>747685</t>
+          <t>747761</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MYMETRO - CONSULTING, TRAINING</t>
+          <t>ANA PATRÍCIA FREITAS DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>(531)  26.1.5 ; 26.99.6</t>
+          <t>(531) 18.5.3 ; 26.11.13</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -4587,24 +4517,28 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>747696</t>
+          <t>747764</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PAULO ROBERTO GARRIDO MACEDO</t>
+          <t>ANA CATARINA SOUSA MACHADO PT JOANA CATARINA TORRES RIBEIRO</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>(531) 27.5.9 ; 27.5.10 ; 27.5.11 ; 27.5.13</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
           <t>Not Found</t>
@@ -4674,23 +4608,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>747686</t>
+          <t>747765</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MYMETRO - CONSULTING, TRAINING</t>
+          <t>SUSANA CARINA SILVA CUNHA</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>35</v>
-      </c>
-      <c r="E49" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>BOLETIM DA PROPRIEDADE</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
@@ -4761,26 +4699,26 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>747834</t>
+          <t>747766</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025.05.26</t>
+          <t>2025.06.13</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NEVES FERREIRA, ROCHA ALVES &amp;</t>
+          <t>ROCK N DOLL CAFFE UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>(531)  27.5.1</t>
+          <t>[IMAGE: images/540_13.jpeg]</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -4852,108 +4790,108 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>58103</t>
+          <t>747767</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025.05.07</t>
+          <t>2025.06.13</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>HELDER MADEIRA LIMA AFONSO</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+          <t>LACTIVIVA LDA</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>29</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>AVÓ QUEIJEIRA</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/lactiviva-lda/</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>518430081</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Mira Montes, Nº 1, Casal Novo</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2640-426 Mafra</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456814</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12370</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>58208</t>
+          <t>747768</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025.06.09</t>
+          <t>2025.06.13</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MÁRIO RUI VELHIO MODESTO</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>LUÍS SEABRA VINHOS, LDA.</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>33</v>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>E OUTRAS ATIVIDADES RECREATIVAS</t>
+          <t>DELITO</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -5026,112 +4964,108 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>58205</t>
+          <t>747769</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025.06.09</t>
+          <t>2025.06.13</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ELECTRO PORTELA &amp; COSTA LDA.</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>CAUSAS CERTEIRAS - INTERMEDIÁRIOS DE CREDITO, LDA.</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>35</v>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>(531)  2.3.8 ; 26.13.1 ; 29.1.13</t>
+          <t>(531) 26.1.3 ; 26.1.18 ; 27.99.1 ; 29.1.3 ; 29.1.98</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/causas-certeiras-intermediarios-de-credito-lda/</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>518089258</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Artur Garibaldi, Nº 5, R/C Dto</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>4715-162 Braga</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456815</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12371</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>58209</t>
+          <t>747770</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025.06.10</t>
+          <t>2025.06.13</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>FREDBRAND COMUNICAÇÃO, UNIPESSOAL, LDA. LOG</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>ALEXANDRE MIGUEL DA SILVA BARROS RODRIGUES</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>14</v>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>70210 - RELAÇÕES PÚBLICAS E COMUNICAÇÃO; 58140 -</t>
+          <t>ROWZIES</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -5204,109 +5138,109 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>58213</t>
+          <t>747771</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.13</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MYMETRO - CONSULTING, TRAINING LOG &amp; METROLOGY LDA</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>ANTONIO COSTA ALMEIDA LDA</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>37</v>
+      </c>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>[IMAGE: images/540_14.jpeg]</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/antonio-costa-almeida-lda/</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>501424695</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua do Padrão Vermelho, Nº 243</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>4430-870 Vila Nova de Gaia</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456816</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12372</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>58210</t>
+          <t>747772</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025.06.10</t>
+          <t>2025.06.13</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>VITRINDUSTRIA UNIPESSOAL, LDA</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>MAYCON TRAINOTI DE JESUS</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>35</v>
+      </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>(531)  3.7.10 ; 3.7.16</t>
+          <t>(531) 27.5.10</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -5378,202 +5312,192 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>58212</t>
+          <t>747773</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.13</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SIMAS OEIRAS E AMADORA</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+          <t>TIAGO DIAS</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>35</v>
+      </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>(531)  26.1.5 ; 26.99.6</t>
+          <t>(531) 26.3.1 ; 26.11.7 ; 26.11.8</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/tiago-dias-transportes-unipessoal-lda/</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>502454342</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua do Fojo, Nº 1</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>3860-265 Avanca</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456817</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12373</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>58214</t>
+          <t>747774</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.13</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MYMETRO - CONSULTING, TRAINING LOG &amp; METROLOGY LDA</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>LOG</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
+          <t>QUANTUVAL, CONSULTORIA A PROJECTOS E EMPREENDIMENTOS, UNIPESSOAL, LDA</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>37</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>(531) 13.1.6</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/quantuval-consultoria-a-projectos-e-empreendimentos-unipessoal-lda/</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>508337097</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Antero de Quental, 115</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>4440-530 Valongo</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456818</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12374</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>58215</t>
+          <t>747775</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.13</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MYMETRO - CONSULTING, TRAINING LOG &amp; METROLOGY LDA</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>GABRIEL PILLA ALBERTI</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>37</v>
+      </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>(531)  26.1.5 ; 26.99.6</t>
+          <t>(531) 7.1.24</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -5639,6 +5563,935 @@
       <c r="S59" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>747781</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025.06.13</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>GABRIEL PILLA ALBERTI</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>42</v>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>[IMAGE: images/540_15.jpeg]</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>747837</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025.06.12</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>JOSÉ CARLOS MONTEIRO SIMÕES</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>6</v>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>(531) 26.1.6 ; 26.2.7 ; 26.3.4 ; 26.4.9 ; 29.1.13</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/jose-carlos-monteiro-clinics-sociedade-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>517680971</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Via Lidador da Igreja, 210 - Sala 5</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>4470-411 Vila Nova da Telha</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>123456819</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>12375</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>747838</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2025.06.12</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>RUI FERNANDO CORREIA PINHEIRO</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>32</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>(531) 27.5.17 ; 29.1.7 ; 29.1.97</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/pinheiro-goncalves-correia-lda/</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>500831149</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Rua D. João IV, N.º 707</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>4000-303 Porto</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>123456820</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>12376</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>747839</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2025.06.13</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>HAMEL &amp; ROBERTS PROPERTIES, LDA</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>36</v>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>(531) 25.1.25</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/hamel-roberts-properties-lda/</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>518687554</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Rua Amália Rodrigues, 1</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>8005-518 Faro</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>123456821</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>12377</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>747903</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2025.06.12</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>FILIPE MARTINS CASTANHEIRA VALE FERNANDES</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>33</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>SAVOR THE MIND'S</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>747911</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025.06.13</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>JULIANA DE SOUZA MENDES DAMACENO</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>35</v>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>[IMAGE: images/540_16.jpeg]</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>747978</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025.06.12</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>WEDOTECH - COMPANHIA DE IDEIAS E TECNOLOGIAS LDA</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>29</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>OUR OCEAN</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/wedotech-companhia-de-ideias-e-de-tecnologias-lda/</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>507466942</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Rua São Nicolau, N.º10, 3º Traseiras</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>4050-561 Porto</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>123456822</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>12378</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>58204</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2025.06.09</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>EASYLIVING 351, LDA</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>[IMAGE: images/540_17.jpeg]</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/easyliving-351-lda/</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>518366413</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Rua Padre Giesteira, N.º 225, Loja 4</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>4740-283 Esposende</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>123456823</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>12379</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>58219</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2025.06.12</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>FABIO DANIEL TEIXEIRA MOREIRA</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>E INDUSTRIAL N.º 2025/07/02</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>58220</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2025.06.12</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>SHL PORTUGAL - PEOPLE SOLUTIONS, SISTEMAS PARA AVALIAÇÃO E DESENVOLVIMENTO DE RECURSOS HUMANOS LDA</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>(531) 27.3.15 ; 27.5.1</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/shl-portugal-people-solutions-sistemas-para-avaliacao-e-desenvolvimento-de-recursos-humanos-lda/</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>500849064</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Avenida da República, N.º 90 - Galeria, Sala 3 Lisboa</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>1600-206 Lisboa</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>123456824</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>12380</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>58222</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2025.06.13</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>MANUEL DE OLIVEIRA CORTEZ</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>[IMAGE: images/540_18.jpeg]</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/manuel-de-oliveira-lda-3/</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>500511657</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>123456825</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>12381</t>
         </is>
       </c>
     </row>

--- a/webscrapping school/msaces/racius_links_output.xlsx
+++ b/webscrapping school/msaces/racius_links_output.xlsx
@@ -4897,67 +4897,59 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/luis-seabra-vinhos-lda/</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>510774156</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua da Reboleira, Nº 19, 3º Traseiras</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>4050-492 Porto</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456815</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12371</t>
         </is>
       </c>
     </row>
@@ -5035,12 +5027,12 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>123456815</t>
+          <t>123456816</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>12371</t>
+          <t>12372</t>
         </is>
       </c>
     </row>
@@ -5209,12 +5201,12 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>123456816</t>
+          <t>123456817</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>12372</t>
+          <t>12373</t>
         </is>
       </c>
     </row>
@@ -5383,12 +5375,12 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>123456817</t>
+          <t>123456818</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>12373</t>
+          <t>12374</t>
         </is>
       </c>
     </row>
@@ -5466,12 +5458,12 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>123456818</t>
+          <t>123456819</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>12374</t>
+          <t>12375</t>
         </is>
       </c>
     </row>
@@ -5731,12 +5723,12 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>123456819</t>
+          <t>123456820</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>12375</t>
+          <t>12376</t>
         </is>
       </c>
     </row>
@@ -5814,12 +5806,12 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>123456820</t>
+          <t>123456821</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>12376</t>
+          <t>12377</t>
         </is>
       </c>
     </row>
@@ -5897,12 +5889,12 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>123456821</t>
+          <t>123456822</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>12377</t>
+          <t>12378</t>
         </is>
       </c>
     </row>
@@ -6162,12 +6154,12 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>123456822</t>
+          <t>123456823</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>12378</t>
+          <t>12379</t>
         </is>
       </c>
     </row>
@@ -6243,12 +6235,12 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>123456823</t>
+          <t>123456824</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>12379</t>
+          <t>12380</t>
         </is>
       </c>
     </row>
@@ -6413,12 +6405,12 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>123456824</t>
+          <t>123456825</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>12380</t>
+          <t>12381</t>
         </is>
       </c>
     </row>
@@ -6486,12 +6478,12 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>123456825</t>
+          <t>123456826</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>12381</t>
+          <t>12382</t>
         </is>
       </c>
     </row>

--- a/webscrapping school/msaces/racius_links_output.xlsx
+++ b/webscrapping school/msaces/racius_links_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:R107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4975,6 +4975,4456 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Número</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Nome do requerente, nacionalidade, profissão, morada.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Reprodução do sinal.</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>747644</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025.06.11</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>TRILHOS FESTIVOS, LDA</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>28</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>747688</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025.06.11</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>ANTONIO DOS SANTOS SOUSA, LDA</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/antonio-dos-santos-sousa-lda/</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>505590000</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Lugar de Gândara</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>4505-570 Pigeiros</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>123456842</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>12398</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>747798</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025.06.13</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>PORTILHO &amp; VIEIRA LDA</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>39</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>DOURO FRAGANCE</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/portilho-vieira-lda/</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>501408878</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Rua da Igreja de Ramalde, Nº 158/164 - R/C</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>4100-280 Porto</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>123456843</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>12399</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>747806</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025.06.14</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>MARCO FILIPE FERREIRA DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>6</v>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>747808</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025.06.14</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PEDRO MIGUEL COSTA MARTINS RODRIGUES</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>9</v>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>747810</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025.06.14</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>JOSÉ PAULO ESCOVAL DA CRUZ</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>30</v>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>747812</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2025.06.14</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ASSOCIAÇÃO NOVA CULTURA DE MONTARGIL</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>18</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/associacao-nova-cultura-de-montargil/</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>508586720</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Portalegre - Ponte de Sor</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>123456844</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>12400</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>747813</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2025.06.14</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>SILVA SALGADO, COMÉRCIO DE VINHOS LDA</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>32</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>LA BANDIDA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/silva-salgado-comercio-de-vinhos-lda/</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>505360608</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Rua da Palmeira, N.º 82</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>3060-213 Cantanhede</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>123456845</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>12401</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>747815</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2025.06.14</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>JOÃO BERNARDO BISPO GOMES ES ANA INÊS GUERGOSSO MEIRELES</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>20</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>LIMBO ATELIER</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>747816</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025.06.14</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>SANDRA MARINA DE MATOS CRUZ MORGADO</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>30</v>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>747817</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025.06.14</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>BRUNO RAFAEL LEITE MOITA</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>35</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>FM AUTO - COMÉRCIO AUTOMÓVEL</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>747818</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2025.06.14</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>SOARES &amp; DAIA LDA</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>41</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>BLACK INSPIRATION TALKS</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/soares-daia-lda/</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>510441092</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Rua Cidade da Beira, Lote 503, 1º Dtº</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>1170-113 Lisboa</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>123456846</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>12402</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>747819</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2025.06.14</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>ASSOCIAÇÃO ESPAÇO PORTAL</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>9</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>JORNADA CONSCIENTE</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/associacao-espaco-portal/</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>514147717</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Porto - Maia</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>123456847</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>12403</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>747820</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2025.06.14</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>JOÃO GONÇALO SEABRA CONTENTE PT JOANA SARDINHA RODRIGUES ALVES</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>9</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>747822</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2025.06.15</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>METEORIKIDEA - CONSULTORIA &amp; INVESTIMENTOS, LDA</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>35</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>FIDEXIS</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/meteorikidea-consultoria-investimentos-lda/</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>509356141</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Rua Nossa Senhora Santana, Nº 54, Sobral do Parelhão</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2540-467 Carvalhal Bbr</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>123456848</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>12404</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>747824</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2025.06.15</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>ELEGÂNCIA SOLENE LDA</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>3</v>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/elegancia-solene-lda/</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>517938847</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Avenida António Augusto de Aguiar, Nº 24, 6º Esq.</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>1050-206 Lisboa</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>123456849</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>12405</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>747825</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2025.06.15</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>RUI DUARTE BOTELHO MOREIRA BRAGA</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>16</v>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>747826</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2025.06.15</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>GLORIOUS ILLUSIONS LDA</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>25</v>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/glorious-illusions-lda/</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>515904619</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Rua das Fábricas, Nº 42</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>4750-361 Campo</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>123456850</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>12406</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>747827</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2025.06.15</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ACHIEV2GOAL, UNIPESSOAL, LDA</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>35</v>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/achiev2goal-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>518458245</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Azinhaga das Galhardas, N.º 17, Bloco C, 6.º A</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>1600-097 Lisboa</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>123456851</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>12407</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>747831</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2025.06.16</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>LOUIS DELIUS GMBH &amp; CO. KG</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>8</v>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>747846</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2025.06.14</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>JOÃO RAIMUNDO GONÇALVES - J.R.GONÇALVES - REPARAÇÃO E VENDA DE ELECTRODOMÉSTICOS, UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>37</v>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/joao-raimundo-goncalves-j-r-goncalves-reparacao-e-venda-de-electrodomesticos-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>518832856</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Praceta Maria Clementina Borges de Sá, Lote 2, 3º Esq.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>8005-547 Faro</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>123456852</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>12408</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>747847</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2025.06.14</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>HCN - SERVIÇOS DE CONSULTORIA E COMUNICAÇÃO, LDA</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>41</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>VINAGRE COM ELAS</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/hcn-servicos-de-consultoria-e-comunicacao-lda/</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>517017288</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Rua Diogo Cão, N.º 12, 3.º Esq.º</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>1300-181 Lisboa</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>123456853</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>12409</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>747848</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2025.06.14</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>ARMANDO BORGES DA SILVA</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>33</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>CYDALVA</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>747850</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2025.06.14</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>ARMANDO BORGES DA SILVA</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>33</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>LUNTRA</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>747851</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2025.06.14</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>ARMANDO BORGES DA SILVA</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>33</v>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>747852</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2025.06.14</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ARMANDO BORGES DA SILVA</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>33</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>VELAH</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>747853</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2025.06.14</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ARMANDO BORGES DA SILVA</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>33</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>FAYNA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>747854</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2025.06.14</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>ARMANDO BORGES DA SILVA</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>33</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>VYNTRA</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>747855</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2025.06.15</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>RUI JORGE DA ROCHA SANTOS</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>33</v>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>747856</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2025.06.15</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>NUNO FILIPE GUTERRES CASTANHO BIGA DE ALMEIDA</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>37</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>LEXBUILD CONSULTING</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>747857</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2025.06.15</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>CATARINA ISABEL DA SILVA VALENTE</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>9</v>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>747858</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2025.06.15</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ANA SOFIA NUNES FERREIRA</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>41</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>SKILLWISE</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/ana-sofia-nunes-sociedade-unipessoal-limitada/</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>508527090</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Rua Sobrão de Cima, N 170</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>4595-279 Paços de Ferreira</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>123456854</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>12410</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>747859</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2025.06.15</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ORLANDO &amp; ARAÚJOS, S.A.</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>7</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>AQUADELTA</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/orlando-araujos-s-a/</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>500874182</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>R da Primavera-Baguim do Monte</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>4435-786 Baguim do Monte</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>123456855</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>12411</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>747861</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2025.06.15</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>VITOR HUGO BALDINI</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>43</v>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/vitor-hugo-corticas-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>508266300</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Rua Central dos Valos, N 768, 4</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>4505-257 Fiães Vfr</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>123456856</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>12412</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>747862</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2025.06.15</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>BIGADVANTAGE - CONSULTORES DE GESTÃO LDA.</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>9</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>SIMULADOR SU</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/bigadvantage-consultores-de-gestao-lda/</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>509346170</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Instituto Pedro Nunes, Rua Pedro Nunes</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>3030-199 Coimbra</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>123456857</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>12413</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>747863</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2025.06.15</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>FRANCISCO SIMÕES RODRIGUES RIBEIRO DE MENESES PT FRANCISCO ANDRÉ ÉVORA</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>25</v>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>747864</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2025.06.16</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>RAMIREZ CARVALHO, LDA</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>29</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>TRANCAS</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/ramirez-carvalho-lda/</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>518533514</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Rua Teodoro Gonçalves, 29</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2150-272 Golegã</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>123456858</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>12414</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>747865</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2025.06.16</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO GARRIDO MACEDO</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>5</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>MAGMASA</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>747866</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2025.06.16</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>JOSÉ PAULO CALVINHO BRAZ AFONSO</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>36</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>747867</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2025.06.16</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>ANTÓNIO MANUEL ALVES FERREIRA</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>9</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>747868</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2025.06.16</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>PAULO JORGE DA SILVA LEITE</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>35</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>POS1000</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/paulo-jorge-da-silva-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>509750540</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Estrada Regional 28-C</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>9930-456 Lajes do Pico</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>123456859</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>12415</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>747869</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2025.06.16</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>IMPRILAR, LDA</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>36</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>CARVALHAIS VILLAGE</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/imprilar-lda/</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>506961109</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Edifício Armazéns do Calhabé, Estrada Nacional Nº1, Quinta da Balseira - Banhos Secos</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>3040-227 Coimbra</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>123456860</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>12416</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>747871</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2025.06.16</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>NELSON MIGUEL DA CONCEIÇÃO NEVES</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>39</v>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>747915</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2025.06.14</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>MARIA DE FÁTIMA CARVALHO MARQUES</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>30</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>NATHA COFFEE</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/maria-de-fatima-moveis-de-ocasiao-sociedade-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>506289770</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Av. Marquês de Pombal, N 2, Loja Direita</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>2590-041 Sobral de Monte Agraço</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>123456861</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>12417</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>747916</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2025.06.15</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ANA RITA BALDINI LAU FOO</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>41</v>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>747917</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2025.06.15</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>NINFAS E FAUNOS LDA</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>3</v>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/ninfas-e-faunos-lda/</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>507501195</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Rua de S. Marcos, Nº. 8, Lugar da Estrada</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>2525-477 Atouguia da Baleia</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>123456862</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>12418</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>747918</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2025.06.15</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>DONIZETTI DE LIMA JUNIOR</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>39</v>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/j-baptista-de-lima-junior-herdeiros-lda-em-liquidacao/</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>500143641</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Rua Agostinho Landolt, Nº 89</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>4490-457 Póvoa de Varzim</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>123456863</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>12419</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>747919</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2025.06.15</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>FERNANDES RICCIOPPO - IMOBILIÁRIA E DECORAÇÃO, UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>41</v>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/fernandes-riccioppo-imobiliaria-e-decoracao-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>515832960</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Rua Conde Alto de Mearim, 1133, 5º, Sala 55</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>4450-036 Matosinhos</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>123456864</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>12420</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>747920</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2025.06.15</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>SOCIEDADE AGRICOLA QUINTA DO SALGUEIRÓ LDA</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>33</v>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>747990</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2025.06.15</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>HÉLDER ALEXANDRE RAMOS ROSA</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>43</v>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>747991</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2025.06.16</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>REGRAS FANTÁSTICAS LDA</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>42</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>BILIBOT</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/regras-fantasticas-lda/</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>508684161</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Rua Dr. Gomes Leal 3 A</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>2560-331 Torres Vedras</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>123456865</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>12421</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>58224</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2025.06.13</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>FILIPE MANUEL COELHO PEREIRA</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/webscrapping school/msaces/racius_links_output.xlsx
+++ b/webscrapping school/msaces/racius_links_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R107"/>
+  <dimension ref="A1:R109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9425,6 +9425,180 @@
         </is>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Número</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Nome do requerente, nacionalidade, profissão, morada.</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Reprodução do sinal.</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>747644</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2025.06.11</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>TRILHOS FESTIVOS, LDA</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>28</v>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/webscrapping school/msaces/racius_links_output.xlsx
+++ b/webscrapping school/msaces/racius_links_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,543 +616,543 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>747644</t>
+          <t>745313</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.05.02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TRILHOS FESTIVOS, LDA</t>
+          <t>O MÁRIO - RESTAURANTE REGIONAL, LDA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>28</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>42</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>RESTAURANTE O MÁRIO - ARROZ DE CARQUEJA PANELA NO FORNO</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/o-mario-restaurante-regional-lda/</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>506683532</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Cruzamento de Alcaria</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>6230-024 Alcaria Fnd</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456789</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12345</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>747688</t>
+          <t>746770</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.05.26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ANTONIO DOS SANTOS SOUSA, LDA</t>
+          <t>FLÁVIO AUGUSTO BARROS GILBERTI</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ORGULHO LUSITANO</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.racius.com/antonio-dos-santos-sousa-lda/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>505590000</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Lugar de Gândara</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4505-570 Pigeiros</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>07/2025</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>07/2035</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>123456789</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>747798</t>
+          <t>747870</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025.06.13</t>
+          <t>2025.06.16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PORTILHO &amp; VIEIRA LDA</t>
+          <t>PEDRO DA CUNHA MATOS FRAGA VIEGAS NAL DE MARCAS idos ade Industrial, a seguir se publicam os pedidos de registo de a contar-se o prazo de dois meses para a apresentação de ncessão dos mesmos, em conformidade com o artigo 17.º do</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>39</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>DOURO FRAGANCE</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.racius.com/portilho-vieira-lda/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>501408878</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Rua da Igreja de Ramalde, Nº 158/164 - R/C</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>4100-280 Porto</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>07/2025</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>07/2035</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>123456790</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>12346</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>747806</t>
+          <t>747880</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MARCO FILIPE FERREIRA DE OLIVEIRA</t>
+          <t>DIOGO MANUEL FERNANDES ALVES</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>TRACK WEAPON DEVELOPMENT</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/diogo-manuel-fernandes-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>510402895</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Encosta do Sol, Lote 22, Bloco 1, Fração e 17 1º Centro</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>4755-492 Barcelos</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456790</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12346</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>747808</t>
+          <t>748108</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.18</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PEDRO MIGUEL COSTA MARTINS RODRIGUES</t>
+          <t>NEW BEGGINING BY FOMACA LDA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/new-beggining-by-fomaca-lda/</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>518804178</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Avenida Teixeira de Pascoaes, Número 933</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>4600-632 Amarante</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456791</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12347</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>747810</t>
+          <t>748139</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>JOSÉ PAULO ESCOVAL DA CRUZ</t>
+          <t>TERRAÇO PRUDENTE - LDA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>30</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5050PT</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/terraco-prudente-lda/</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>517800225</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua da Lameira, Nº 9, Canelas, Peso da Régua</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>5050-425 Canelas</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456792</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12348</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>747812</t>
+          <t>748141</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ASSOCIAÇÃO NOVA CULTURA DE MONTARGIL</t>
+          <t>RBC MOREFORLESS, LDA</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.racius.com/associacao-nova-cultura-de-montargil/</t>
+          <t>https://www.racius.com/rbc-moreforless-lda/</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>508586720</t>
+          <t>515304999</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Portalegre - Ponte de Sor</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>Praça Paulo Vidal Nº 6</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>4715-246 Braga</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>07/2025</t>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -1182,119 +1182,127 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>123456791</t>
+          <t>123456793</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>12347</t>
+          <t>12349</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>747813</t>
+          <t>748146</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.20</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SILVA SALGADO, COMÉRCIO DE VINHOS LDA</t>
+          <t>PAPANDO MOSCAS S.A., DE C.V.</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>LA BANDIDA</t>
+          <t>PAPANDO MOSCAS</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.racius.com/silva-salgado-comercio-de-vinhos-lda/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>505360608</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Rua da Palmeira, N.º 82</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3060-213 Cantanhede</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>07/2025</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>07/2035</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>123456792</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>12348</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>747815</t>
+          <t>748151</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>JOÃO BERNARDO BISPO GOMES ES ANA INÊS GUERGOSSO MEIRELES</t>
+          <t>ORDEM DOS CONTABILISTAS CERTIFICADOS</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>LIMBO ATELIER</t>
+          <t>AFECC- ACADEMIA DE FORMAÇÃO EXECUTIVA DOS CONTABILISTAS CERTIFICADOS :</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1366,113 +1374,105 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>747816</t>
+          <t>748152</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.20</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SANDRA MARINA DE MATOS CRUZ MORGADO</t>
+          <t>QUANTUNFUTURE, UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>VENDADEEMPRESAS.PT</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/quantunfuture-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>517844192</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua José Maria Carvalho, Lote 103, Reguengos de Monsaraz</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>7200-410 Reguengos de Monsaraz</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456794</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12350</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>747817</t>
+          <t>748153</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BRUNO RAFAEL LEITE MOITA</t>
+          <t>JORGE ANDRÉ PATÉ COELHO</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>35</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>FM AUTO - COMÉRCIO AUTOMÓVEL</t>
-        </is>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>Not Found</t>
@@ -1542,45 +1542,41 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>747818</t>
+          <t>748154</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SOARES &amp; DAIA LDA</t>
+          <t>OPINIÃO CONSTANTE, LDA</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>41</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>BLACK INSPIRATION TALKS</t>
-        </is>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.racius.com/soares-daia-lda/</t>
+          <t>https://www.racius.com/opiniao-constante-lda/</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>510441092</t>
+          <t>509484026</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Rua Cidade da Beira, Lote 503, 1º Dtº</t>
+          <t>Rua Padre Mário Martins, Lote 11 - 2 Dt</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1170-113 Lisboa</t>
+          <t>2350-559 Torres Novas</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1595,7 +1591,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -1612,52 +1608,52 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>123456793</t>
+          <t>123456795</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>12349</t>
+          <t>12351</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>747819</t>
+          <t>748156</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ASSOCIAÇÃO ESPAÇO PORTAL</t>
+          <t>ASSOCIAÇÃO INSTITUTO ARVOREDO</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>JORNADA CONSCIENTE</t>
+          <t>ARVOREDO</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.racius.com/associacao-espaco-portal/</t>
+          <t>https://www.racius.com/associacao-instituto-arvoredo/</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>514147717</t>
+          <t>518533433</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Porto - Maia</t>
+          <t>Porto - Porto</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1673,7 +1669,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="M15" t="n">
@@ -1690,33 +1686,33 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>123456794</t>
+          <t>123456796</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>12350</t>
+          <t>12352</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>747820</t>
+          <t>748159</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>JOÃO GONÇALO SEABRA CONTENTE PT JOANA SARDINHA RODRIGUES ALVES</t>
+          <t>NEUZA BIANCA PEREIRA NEVES PT LEANDRO MIGUEL PEREIRA DA SILVA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
@@ -1788,123 +1784,131 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>747822</t>
+          <t>748160</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025.06.15</t>
+          <t>2025.06.20</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>METEORIKIDEA - CONSULTORIA &amp; INVESTIMENTOS, LDA</t>
+          <t>JOSÉ JOAQUIM SILVA DE SOUSA</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>35</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>FIDEXIS</t>
-        </is>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.racius.com/meteorikidea-consultoria-investimentos-lda/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>509356141</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Rua Nossa Senhora Santana, Nº 54, Sobral do Parelhão</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2540-467 Carvalhal Bbr</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>07/2025</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>07/2035</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>123456795</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>12351</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>747824</t>
+          <t>748161</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025.06.15</t>
+          <t>2025.06.20</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ELEGÂNCIA SOLENE LDA</t>
+          <t>SALVATERRA &amp; FREITAS, LDA</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
+        <v>37</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>OLIMPOS</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.racius.com/elegancia-solene-lda/</t>
+          <t>https://www.racius.com/salvaterra-freitas-lda/</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>517938847</t>
+          <t>518813983</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Avenida António Augusto de Aguiar, Nº 24, 6º Esq.</t>
+          <t>Rua de São José, Nº 9, 1º Esquerdo</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1050-206 Lisboa</t>
+          <t>2620-077 Póvoa de Santo Adrião</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1919,7 +1923,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -1936,139 +1940,131 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>123456796</t>
+          <t>123456797</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>12352</t>
+          <t>12353</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>747825</t>
+          <t>748162</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025.06.15</t>
+          <t>2025.06.20</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RUI DUARTE BOTELHO MOREIRA BRAGA</t>
+          <t>SLIMOB, UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/slimob-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>518223710</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Romano Esteves, N.º 77, Cobre</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2750-576 Cascais</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456798</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12354</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>747826</t>
+          <t>748166</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025.06.15</t>
+          <t>2025.06.20</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GLORIOUS ILLUSIONS LDA</t>
+          <t>TUSA DE VIVER, LDA</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.racius.com/glorious-illusions-lda/</t>
+          <t>https://www.racius.com/tusa-de-viver-lda/</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>515904619</t>
+          <t>516184350</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Rua das Fábricas, Nº 42</t>
+          <t>Rua Luz Soriano, Nº 71</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>4750-361 Campo</t>
+          <t>1200-246 Lisboa</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2083,7 +2079,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="M20" t="n">
@@ -2100,53 +2096,53 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>123456797</t>
+          <t>123456799</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>12353</t>
+          <t>12355</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>747827</t>
+          <t>748167</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025.06.15</t>
+          <t>2025.06.20</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ACHIEV2GOAL, UNIPESSOAL, LDA</t>
+          <t>MARCO NICOLAU FERRÁS DE MOURA</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.racius.com/achiev2goal-unipessoal-lda/</t>
+          <t>https://www.racius.com/marco-nicolau-ferras-de-moura-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>518458245</t>
+          <t>516448285</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Azinhaga das Galhardas, N.º 17, Bloco C, 6.º A</t>
+          <t>Largo da Feira, 38 Marco de Canaveses</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1600-097 Lisboa</t>
+          <t>4630-215 Marco de Canaveses</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2161,7 +2157,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="M21" t="n">
@@ -2178,33 +2174,33 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>123456798</t>
+          <t>123456800</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>12354</t>
+          <t>12356</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>747831</t>
+          <t>748168</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025.06.16</t>
+          <t>2025.06.20</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LOUIS DELIUS GMBH &amp; CO. KG</t>
+          <t>YAMILA ADRIANA SILVA YASIN</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
@@ -2276,41 +2272,41 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>747846</t>
+          <t>748170</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.21</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>JOÃO RAIMUNDO GONÇALVES - J.R.GONÇALVES - REPARAÇÃO E VENDA DE ELECTRODOMÉSTICOS, UNIPESSOAL LDA</t>
+          <t>JORGE SILVA XAVIER - ENGENHARIA LDA</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.racius.com/joao-raimundo-goncalves-j-r-goncalves-reparacao-e-venda-de-electrodomesticos-unipessoal-lda/</t>
+          <t>https://www.racius.com/jorge-silva-xavier-engenharia-lda/</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>518832856</t>
+          <t>515340723</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Praceta Maria Clementina Borges de Sá, Lote 2, 3º Esq.</t>
+          <t>Rua Parque Industrial, Nº.73</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>8005-547 Faro</t>
+          <t>4720-023 Amares</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2325,7 +2321,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="M23" t="n">
@@ -2342,57 +2338,53 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>123456799</t>
+          <t>123456801</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>12355</t>
+          <t>12357</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>747847</t>
+          <t>748171</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.21</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HCN - SERVIÇOS DE CONSULTORIA E COMUNICAÇÃO, LDA</t>
+          <t>JORGE SILVA XAVIER - ENGENHARIA LDA</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>41</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>VINAGRE COM ELAS</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.racius.com/hcn-servicos-de-consultoria-e-comunicacao-lda/</t>
+          <t>https://www.racius.com/jorge-silva-xavier-engenharia-lda/</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>517017288</t>
+          <t>515340723</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rua Diogo Cão, N.º 12, 3.º Esq.º</t>
+          <t>Rua Parque Industrial, Nº.73</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1300-181 Lisboa</t>
+          <t>4720-023 Amares</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2407,7 +2399,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="M24" t="n">
@@ -2424,483 +2416,435 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>123456800</t>
+          <t>123456802</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>12356</t>
+          <t>12358</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>747848</t>
+          <t>748172</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.21</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ARMANDO BORGES DA SILVA</t>
+          <t>DESTINO EXCITANTE LDA</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CYDALVA</t>
+          <t>OHANA MADEIRA SS</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/destino-excitante-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>509796664</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Dr. João Abel de Freitas, N.º 17, Casas Próximas</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>9225-050 Porto da Cruz</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456803</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12359</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>747849</t>
+          <t>748174</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.21</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ARMANDO BORGES DA SILVA</t>
+          <t>SOLVIX LIVING,UNIPESSOAL,LDA</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>33</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>VALENTIA</t>
-        </is>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/solvix-living-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>517793806</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua de S. Pedro, Lote 9, 2.º B</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>8500-448 Portimão</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456804</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12360</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>747850</t>
+          <t>748175</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.21</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ARMANDO BORGES DA SILVA</t>
+          <t>SC ALFA UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>33</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>LUNTRA</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/sc-alfa-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>518094820</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Estrada Nacional 125 , Nº 38, Fonte de Boliqueime</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>8100-069 Boliqueime</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456805</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12361</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>747851</t>
+          <t>748178</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.21</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ARMANDO BORGES DA SILVA</t>
+          <t>QUANTUNFUTURE, UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>33</v>
-      </c>
-      <c r="E28" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>HC CONSULTING GROUP</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/quantunfuture-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>517844192</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua José Maria Carvalho, Lote 103, Reguengos de Monsaraz</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>7200-410 Reguengos de Monsaraz</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456806</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12362</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>747852</t>
+          <t>748179</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.21</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ARMANDO BORGES DA SILVA</t>
+          <t>ARLINDO AUTO LDA</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>33</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>VELAH</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/arlindo-auto-lda/</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>509230083</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Estrada Nacional, Número 17.1</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>3230-072 Penela</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456807</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12363</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>747853</t>
+          <t>748181</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.21</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ARMANDO BORGES DA SILVA</t>
+          <t>ALEXANDRA ISABEL PEREIRA GUERREIRO</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FAYNA</t>
+          <t>COUDELARIA DOS BORDADOS</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2972,27 +2916,23 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>747854</t>
+          <t>748183</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.21</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ARMANDO BORGES DA SILVA</t>
+          <t>ANDRÉ FILIPE FERREIRA MIRA PT FLÁVIA ALEXANDRA ANDRADE RODRIGUES MIRA</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>33</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>VYNTRA</t>
-        </is>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
           <t>Not Found</t>
@@ -3062,21 +3002,21 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>747855</t>
+          <t>748184</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025.06.15</t>
+          <t>2025.06.21</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>RUI JORGE DA ROCHA SANTOS</t>
+          <t>MADRESON BERG CLEITON ALBINO DE LIMA</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
@@ -3148,25 +3088,25 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>747856</t>
+          <t>748185</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025.06.15</t>
+          <t>2025.06.22</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NUNO FILIPE GUTERRES CASTANHO BIGA DE ALMEIDA</t>
+          <t>ANDRESSA G H PIRES</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>LEXBUILD CONSULTING</t>
+          <t>OLHA ELAS</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3238,103 +3178,95 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>747857</t>
+          <t>748186</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025.06.15</t>
+          <t>2025.06.22</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CATARINA ISABEL DA SILVA VALENTE</t>
+          <t>JANE GOMES FIGUEIREDO</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/figueiredo-gomes-ribeiro-lda/</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>500115745</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>R dos Chãos 104</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>4710-230 Braga</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456808</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12364</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>747858</t>
+          <t>748190</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025.06.15</t>
+          <t>2025.06.22</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ANA SOFIA NUNES FERREIRA</t>
+          <t>MARIA MADALENA RUIVO DA SILVA</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -3342,109 +3274,117 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SKILLWISE</t>
+          <t>RADIESTESIA CONSCIENTE</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.racius.com/ana-sofia-nunes-sociedade-unipessoal-limitada/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>508527090</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Rua Sobrão de Cima, N 170</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>4595-279 Paços de Ferreira</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>07/2025</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>07/2035</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>123456801</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>12357</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>747859</t>
+          <t>748192</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025.06.15</t>
+          <t>2025.06.22</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ORLANDO &amp; ARAÚJOS, S.A.</t>
+          <t>NAVIFORM - CONSULTORIA E FORMAÇÃO, UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>AQUADELTA</t>
+          <t>NÍVEL 1 PROFISSIONAL</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.racius.com/orlando-araujos-s-a/</t>
+          <t>https://www.racius.com/naviform-consultoria-e-formacao-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>500874182</t>
+          <t>518242080</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>R da Primavera-Baguim do Monte</t>
+          <t>Rua de Santana, Nº 212, 1º Esqº, Vila Nova de Gaia</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>4435-786 Baguim do Monte</t>
+          <t>4430-521 Vila Nova de Gaia</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3459,7 +3399,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="M36" t="n">
@@ -3476,53 +3416,53 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>123456802</t>
+          <t>123456809</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>12358</t>
+          <t>12365</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>747861</t>
+          <t>748194</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025.06.15</t>
+          <t>2025.06.20</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>VITOR HUGO BALDINI</t>
+          <t>MADEIRA SKYPARK ADVENTURE - ACTIVIDADES TURÍSTICAS, LDA.</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.racius.com/vitor-hugo-corticas-unipessoal-lda/</t>
+          <t>https://www.racius.com/madeira-skypark-adventure-atividades-turisticas-lda/</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>508266300</t>
+          <t>516057030</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Rua Central dos Valos, N 768, 4</t>
+          <t>Galerias São Lourenço, Calçada São Lourenço, Nº3, 1º A</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>4505-257 Fiães Vfr</t>
+          <t>9000-061 Funchal</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3537,7 +3477,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="M37" t="n">
@@ -3554,57 +3494,53 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>123456803</t>
+          <t>123456810</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>12359</t>
+          <t>12366</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>747862</t>
+          <t>748195</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025.06.15</t>
+          <t>2025.06.20</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BIGADVANTAGE - CONSULTORES DE GESTÃO LDA.</t>
+          <t>MADEIRA SKYPARK ADVENTURE - ACTIVIDADES TURÍSTICAS, LDA.</t>
         </is>
       </c>
       <c r="D38" t="n">
         <v>9</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>SIMULADOR SU</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.racius.com/bigadvantage-consultores-de-gestao-lda/</t>
+          <t>https://www.racius.com/madeira-skypark-adventure-atividades-turisticas-lda/</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>509346170</t>
+          <t>516057030</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Instituto Pedro Nunes, Rua Pedro Nunes</t>
+          <t>Galerias São Lourenço, Calçada São Lourenço, Nº3, 1º A</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>3030-199 Coimbra</t>
+          <t>9000-061 Funchal</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3619,7 +3555,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="M38" t="n">
@@ -3636,143 +3572,131 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>123456804</t>
+          <t>123456811</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>12360</t>
+          <t>12367</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>747863</t>
+          <t>748196</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025.06.15</t>
+          <t>2025.06.20</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>FRANCISCO SIMÕES RODRIGUES RIBEIRO DE MENESES PT FRANCISCO ANDRÉ ÉVORA</t>
+          <t>MADEIRA SKYPARK ADVENTURE - ACTIVIDADES TURÍSTICAS, LDA.</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/madeira-skypark-adventure-atividades-turisticas-lda/</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>516057030</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Galerias São Lourenço, Calçada São Lourenço, Nº3, 1º A</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>9000-061 Funchal</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456812</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12368</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>747864</t>
+          <t>748197</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025.06.16</t>
+          <t>2025.06.20</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>RAMIREZ CARVALHO, LDA</t>
+          <t>MADEIRA SKYPARK ADVENTURE - ACTIVIDADES TURÍSTICAS, LDA.</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>29</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>TRANCAS</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.racius.com/ramirez-carvalho-lda/</t>
+          <t>https://www.racius.com/madeira-skypark-adventure-atividades-turisticas-lda/</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>518533514</t>
+          <t>516057030</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Rua Teodoro Gonçalves, 29</t>
+          <t>Galerias São Lourenço, Calçada São Lourenço, Nº3, 1º A</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2150-272 Golegã</t>
+          <t>9000-061 Funchal</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3787,7 +3711,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="M40" t="n">
@@ -3804,123 +3728,111 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>123456805</t>
+          <t>123456813</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>12361</t>
+          <t>12369</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>747865</t>
+          <t>748198</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025.06.16</t>
+          <t>2025.06.20</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PAULO ROBERTO GARRIDO MACEDO</t>
+          <t>MADEIRA SKYPARK ADVENTURE ¿ ACTIVIDADES TURÍSTICAS, LDA.</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>5</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>MAGMASA</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/madeira-skypark-adventure-atividades-turisticas-lda/</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>516057030</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Galerias São Lourenço, Calçada São Lourenço, Nº3, 1º A</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>9000-061 Funchal</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456814</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12370</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>747866</t>
+          <t>748199</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025.06.16</t>
+          <t>2025.06.23</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>JOSÉ PAULO CALVINHO BRAZ AFONSO</t>
+          <t>PRODEMARQUES INTERNATIONAL</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
@@ -3992,21 +3904,21 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>747867</t>
+          <t>748200</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025.06.16</t>
+          <t>2025.06.23</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ANTÓNIO MANUEL ALVES FERREIRA</t>
+          <t>PRODEMARQUES INTERNATIONAL</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
@@ -4078,47 +3990,35 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>747868</t>
+          <t>748202</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025.06.16</t>
+          <t>2025.06.23</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PAULO JORGE DA SILVA LEITE</t>
+          <t>DISTRIBUCIONES FROIZ, S.A.</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>35</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>POS1000</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.racius.com/paulo-jorge-da-silva-unipessoal-lda/</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>509750540</t>
-        </is>
-      </c>
+          <t>https://www.racius.com/distribuciones-froiz-s-a/</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Estrada Regional 28-C</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>9930-456 Lajes do Pico</t>
-        </is>
-      </c>
+          <t>Poyo, Playa de Lourido, N 40, Pontevedra</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
           <t>07/2025</t>
@@ -4131,7 +4031,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="M44" t="n">
@@ -4148,59 +4048,47 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>123456806</t>
+          <t>123456815</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>12362</t>
+          <t>12371</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>747869</t>
+          <t>748203</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025.06.16</t>
+          <t>2025.06.23</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>IMPRILAR, LDA</t>
+          <t>DISTRIBUCIONES FROIZ, S.A.</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>36</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>CARVALHAIS VILLAGE</t>
-        </is>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.racius.com/imprilar-lda/</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>506961109</t>
-        </is>
-      </c>
+          <t>https://www.racius.com/distribuciones-froiz-s-a/</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Edifício Armazéns do Calhabé, Estrada Nacional Nº1, Quinta da Balseira - Banhos Secos</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>3040-227 Coimbra</t>
-        </is>
-      </c>
+          <t>Poyo, Playa de Lourido, N 40, Pontevedra</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
           <t>07/2025</t>
@@ -4213,7 +4101,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="M45" t="n">
@@ -4230,29 +4118,29 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>123456807</t>
+          <t>123456816</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>12363</t>
+          <t>12372</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>747871</t>
+          <t>748204</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025.06.16</t>
+          <t>2025.06.23</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NELSON MIGUEL DA CONCEIÇÃO NEVES</t>
+          <t>ROLVASY LLC</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -4328,455 +4216,467 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>747915</t>
+          <t>748208</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.20</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MARIA DE FÁTIMA CARVALHO MARQUES</t>
+          <t>GABRIEL OLIVEIRA DE SOUZA</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>30</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>NATHA COFFEE</t>
-        </is>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://www.racius.com/maria-de-fatima-moveis-de-ocasiao-sociedade-unipessoal-lda/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>506289770</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Av. Marquês de Pombal, N 2, Loja Direita</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2590-041 Sobral de Monte Agraço</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>07/2025</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>07/2035</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>123456808</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>12364</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>747916</t>
+          <t>748209</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025.06.15</t>
+          <t>2025.06.20</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ANA RITA BALDINI LAU FOO</t>
+          <t>PRISMA SUPERLATIVO LDA</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>41</v>
-      </c>
-      <c r="E48" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>LÜMIS</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/prisma-superlativo-lda/</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>517975050</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua do Talho, N.º 61</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>4755-491 Rio Côvo</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456817</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12373</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>747918</t>
+          <t>748213</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025.06.15</t>
+          <t>2025.06.20</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DONIZETTI DE LIMA JUNIOR</t>
+          <t>SCIVATION INC.</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>39</v>
-      </c>
-      <c r="E49" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>XTEND</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://www.racius.com/j-baptista-de-lima-junior-herdeiros-lda-em-liquidacao/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>500143641</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Rua Agostinho Landolt, Nº 89</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>4490-457 Póvoa de Varzim</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>07/2025</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>07/2035</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0</v>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>123456809</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>12365</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>747919</t>
+          <t>748218</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025.06.15</t>
+          <t>2025.06.22</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>FERNANDES RICCIOPPO - IMOBILIÁRIA E DECORAÇÃO, UNIPESSOAL LDA</t>
+          <t>VERA LÚCIA DA SILVA TORRES</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>41</v>
-      </c>
-      <c r="E50" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ALMA ESTELAR TERAPIAS</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://www.racius.com/fernandes-riccioppo-imobiliaria-e-decoracao-unipessoal-lda/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>515832960</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Rua Conde Alto de Mearim, 1133, 5º, Sala 55</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>4450-036 Matosinhos</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>07/2025</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>07/2035</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0</v>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>123456810</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>12366</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>747920</t>
+          <t>748219</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025.06.15</t>
+          <t>2025.06.22</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SOCIEDADE AGRICOLA QUINTA DO SALGUEIRÓ LDA</t>
+          <t>MOURA CONSULTING, LDA</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/moura-consulting-lda/</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>516761358</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Prof. Bento de Jesus Caraça, N.º 213, 1.º, Sala 2</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>4200-132 Porto</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456818</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12374</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>747991</t>
+          <t>748220</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025.06.16</t>
+          <t>2025.06.22</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>REGRAS FANTÁSTICAS LDA</t>
+          <t>MELANIA LESTER FERREIRA DA SILVA PT JESSE TOMAS FERREIRA DA SILVA</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>42</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>BILIBOT</t>
-        </is>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://www.racius.com/regras-fantasticas-lda/</t>
+          <t>https://www.racius.com/ferreira-da-silva-importacao-e-exportacao-s-a/</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>508684161</t>
+          <t>501967915</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Rua Dr. Gomes Leal 3 A</t>
+          <t>Vale da Murta, A dos Cunhados</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2560-331 Torres Vedras</t>
+          <t>2560-044 A dos Cunhados</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4791,7 +4691,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="M52" t="n">
@@ -4808,32 +4708,34 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>123456811</t>
+          <t>123456819</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>12367</t>
+          <t>12375</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>58224</t>
+          <t>748222</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025.06.13</t>
+          <t>2025.06.22</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>FILIPE MANUEL COELHO PEREIRA</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>JOSÉ JOÃO DE ABREU ANDRADE PIRES DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>29</v>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
@@ -4896,6 +4798,4604 @@
         </is>
       </c>
       <c r="R53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>748223</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025.06.22</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>LUIZ AUGUSTO RIBEIRO PINTO MOREIRA</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>41</v>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>748224</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025.06.22</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>FRANCISCO TORMENTA TREZENTOS</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>33</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>748229</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>GREEN BASTO VINEYARDS, LDA.</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>33</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>O RESIDENTE</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/green-basto-vineyards-lda/</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>514354070</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Lugar de Casal de Nino, Nº 816</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>4890-019 Arnoia</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>123456820</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>12376</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>748230</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>GREEN BASTO VINEYARDS, LDA.</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>33</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>CASAL DE NINO</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/green-basto-vineyards-lda/</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>514354070</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Lugar de Casal de Nino, Nº 816</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>4890-019 Arnoia</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>123456821</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>12377</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>748231</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>IU TALENT - EMPRESA DE TRABALHO TEMPORÁRIO S.A.</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>35</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/iu-talent-empresa-de-trabalho-temporario-s-a/</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>518450929</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Rua José Farinha, Nº 32, 5º Dtº.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1500-700 Lisboa</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>123456822</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>12378</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>748232</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>RICARDO JORGE HILÁRIO MADEIRA</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>41</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>COMPORTAMENTO CANINO</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>748233</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ELISÂNGELA BARBOSA DE SOUZA FELIPE</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>44</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>BRAZUCAS</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>748234</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>RICARDO JORGE HILÁRIO MADEIRA</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>41</v>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>748235</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>FILIPE MIGUEL TEODORO GUERREIRO</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>30</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>748237</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>JOÃO PEDRO BELO VAZ ALEIXO PT ANA ISABEL SILVANO CARDOSO DA ROCHA</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>25</v>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>748242</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>HIPER REAL-COMÉRCIO INTERNACIONAL ELECTRODOM.LDA.</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>35</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>OUTLET BEM BOM</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/hiper-real-comercio-internacional-de-electrodomesticos-lda/</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>504794507</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Bairro de Santa Eugenia, Lote 23, Loja 1</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>3500-034 Viseu</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>123456823</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>12379</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>748248</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ANA MARIA SARAIVA GOMES COELHO</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>16</v>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>748249</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>BATISTA &amp; CLARO - INDÚSTRIA PANIFICADORA, LDA.</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>30</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>PASTEL DE NATA DE ALFARROBA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/batista-claro-industria-panificadora-lda/</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>503148253</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Av. 16 de Junho, N.º 92, Rogil</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>8670-440 Rogil</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>123456824</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>12380</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>748255</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>UNIVERSIDADE DA BEIRA INTERIOR</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>41</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>SULNECE</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/beira-coop-cooperativa-de-consumo-da-beira-interior-crl/</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>500923280</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>R Dr.jaime Lopes Dias Lt 3 6000 Castelo Branco</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>123456825</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>12381</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>748256</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>UNIVERSIDADE DA BEIRA INTERIOR</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>41</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>SUL-NECE</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/beira-coop-cooperativa-de-consumo-da-beira-interior-crl/</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>500923280</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>R Dr.jaime Lopes Dias Lt 3 6000 Castelo Branco</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>123456826</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>12382</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>748264</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>RIVERSIDE HOTEL, S.A.</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>43</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/riverside-hotel-s-a/</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>514362529</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Rua Serpa Pinto, 60</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>4050-387 Porto</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>123456827</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>12383</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>748265</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>UNIVERSIDADE DA BEIRA INTERIOR</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>41</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>NEURONECE</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/beira-coop-cooperativa-de-consumo-da-beira-interior-crl/</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>500923280</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>R Dr.jaime Lopes Dias Lt 3 6000 Castelo Branco</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>123456828</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>12384</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>748266</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>UNIVERSIDADE DA BEIRA INTERIOR</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>41</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>NEURO-NECE</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/beira-coop-cooperativa-de-consumo-da-beira-interior-crl/</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>500923280</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>R Dr.jaime Lopes Dias Lt 3 6000 Castelo Branco</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>123456829</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>12385</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>748267</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>UNIVERSIDADE DA BEIRA INTERIOR</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>41</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>DATANECE</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/beira-coop-cooperativa-de-consumo-da-beira-interior-crl/</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>500923280</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>R Dr.jaime Lopes Dias Lt 3 6000 Castelo Branco</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>123456830</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>12386</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>748268</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>UNIVERSIDADE DA BEIRA INTERIOR</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>41</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>DATA-NECE</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/beira-coop-cooperativa-de-consumo-da-beira-interior-crl/</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>500923280</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>R Dr.jaime Lopes Dias Lt 3 6000 Castelo Branco</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>123456831</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>12387</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>748269</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>UNIVERSIDADE DA BEIRA INTERIOR</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>41</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>SDNECE</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/beira-coop-cooperativa-de-consumo-da-beira-interior-crl/</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>500923280</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>R Dr.jaime Lopes Dias Lt 3 6000 Castelo Branco</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>123456832</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>12388</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>748270</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>UNIVERSIDADE DA BEIRA INTERIOR</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>41</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>SD-NECE</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/beira-coop-cooperativa-de-consumo-da-beira-interior-crl/</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>500923280</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>R Dr.jaime Lopes Dias Lt 3 6000 Castelo Branco</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>123456833</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>12389</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>748271</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>UNIVERSIDADE DA BEIRA INTERIOR</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>41</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>MAIANECE</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/beira-coop-cooperativa-de-consumo-da-beira-interior-crl/</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>500923280</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>R Dr.jaime Lopes Dias Lt 3 6000 Castelo Branco</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>123456834</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>12390</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>748272</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>UNIVERSIDADE DA BEIRA INTERIOR</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>41</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>MAIA-NECE</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/beira-coop-cooperativa-de-consumo-da-beira-interior-crl/</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>500923280</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>R Dr.jaime Lopes Dias Lt 3 6000 Castelo Branco</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>123456835</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>12391</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>748273</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>UNIVERSIDADE DA BEIRA INTERIOR</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>41</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>NORTENECE</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/beira-coop-cooperativa-de-consumo-da-beira-interior-crl/</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>500923280</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>R Dr.jaime Lopes Dias Lt 3 6000 Castelo Branco</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>123456836</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>12392</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>748274</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>UNIVERSIDADE DA BEIRA INTERIOR</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>41</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>NORTE-NECE</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/beira-coop-cooperativa-de-consumo-da-beira-interior-crl/</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>500923280</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>R Dr.jaime Lopes Dias Lt 3 6000 Castelo Branco</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>123456837</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>12393</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>748275</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>UNIVERSIDADE DA BEIRA INTERIOR</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>41</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>NORTHNECE</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/beira-coop-cooperativa-de-consumo-da-beira-interior-crl/</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>500923280</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>R Dr.jaime Lopes Dias Lt 3 6000 Castelo Branco</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>123456838</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>12394</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>748276</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>UNIVERSIDADE DA BEIRA INTERIOR</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>41</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>NORTH-NECE</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/beira-coop-cooperativa-de-consumo-da-beira-interior-crl/</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>500923280</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>R Dr.jaime Lopes Dias Lt 3 6000 Castelo Branco</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>123456839</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>12395</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>748277</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>UNIVERSIDADE DA BEIRA INTERIOR</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>41</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>NECELAB</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/beira-coop-cooperativa-de-consumo-da-beira-interior-crl/</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>500923280</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>R Dr.jaime Lopes Dias Lt 3 6000 Castelo Branco</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>123456840</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>12396</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>748278</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>UNIVERSIDADE DA BEIRA INTERIOR</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>41</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>NECE LAB</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/beira-coop-cooperativa-de-consumo-da-beira-interior-crl/</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>500923280</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>R Dr.jaime Lopes Dias Lt 3 6000 Castelo Branco</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>123456841</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>12397</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>748280</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2025.06.21</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>MARIA INES NOVAIS AMARAL MARQUES FARIA</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>35</v>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>748281</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2025.06.22</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>MARIA ROSA BORGES SEIXAS</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>44</v>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/maria-rosa-borges-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>509699227</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Rua da Bataria , N 18</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>4450-800 Matosinhos</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>123456842</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>12398</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>748283</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>JUNGLESPORT - MANAGEMENT &amp; CONSULTING LDA</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>25</v>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/junglesport-management-consulting-lda/</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>515079260</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Avenida Miguel Torga, Nº 14, 8º Dtº, Colinas do Cruzeiro</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>2675-678 Odivelas</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>123456843</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>12399</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>748289</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>FERRADO NACOMPORTA I, UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>43</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>NA PRAIA MAR 7570</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/ferrado-nacomporta-i-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>514053038</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Rua da Madalena, Nº 139, 2.º</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>1100-319 Lisboa</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>123456844</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>12400</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>748290</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>MIGUEL ANDRE MORAIS MARCOS</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>4</v>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>748295</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>VASCO ALEXANDRE DOS SANTOS COSTA</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>33</v>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/alexandre-dos-santos-costa-lda/</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>506316025</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Rua 1º. de Dezembro, Nº 103</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>4450-281 Matosinhos</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>123456845</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>12401</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>748298</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>OPTICA FLAVIO SILVA ERICEIRA. UNIPESSOAL, LDA</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>35</v>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/optica-flavio-silva-ericeira-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>513558799</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Rua Fonte da Portela, Nº 10, Lagoa</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>2640-064 Santo Isidro Mfr</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>123456846</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>12402</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>748299</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>MÁRCIA CRISTINA MORAIS GARCIA E COSTA</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>11</v>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>748303</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>ALEXANDRE MIGUEL AREOSA DE CARVALHO ANTUNES DA CUNHA</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>29</v>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>748304</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>CÓDIGOS D'ORQUIDEA-BEBIDAS NATURAIS E FUNCIONAIS UNIPESSOAL,LDA</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>32</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>AGUA 2.0</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>748313</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>TJA CONSULTING LDA</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>36</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>JGMCREDIT</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>748315</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>BARRA E LUDOVINO, LDA</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>36</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/ludovino-cafetaria-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>L Portas de Moura 11</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>123456847</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>12403</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>748317</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>SE7EN TRAVELS - TOURISM SOLUTIONS UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>39</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>VOYGO</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/se7en-travels-tourism-solutions-lda/</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>516794132</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Rua Nova da Lage, Nº 71, 3º Traseiras</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>4470-022 Maia</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>123456848</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>12404</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>748318</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>MARIA DO CARMO LOPES RODRIGUES DE CARVALHO</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>41</v>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>748323</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>QUINTA DE SOALHEIRO, LDA.</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>33</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>6 INVERNOS</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/quinta-de-soalheiro-lda/</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>508530490</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Lugar de Charneca, Alvaredo</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>4960-010 Melgaço</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>123456849</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>12405</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>748326</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>SABORIZ COM SABOR E TRADIÇÃO, LDA</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>29</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>SABORIZ SABOR E TRADIÇÃO</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/saboriz-com-sabor-e-tradicao-lda/</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>518604691</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Avenida Alberto Fernandes-Varandas, Número 16, 3 Dir</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>3620-600 Moimenta da Beira</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>123456850</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>12406</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>748330</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ANA CRISTINA FILPE BAPTISTA</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>41</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>CASA DA YUCCA</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>748345</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>PIÑA COLADA SEXY, UNIPESSOAL, LDA</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>34</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>CUBANOS - TRUE CUBAN CIGARS</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>748353</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>GLACIAR AZUL U LDA</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>41</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>QUASI</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/glaciar-azul-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>509112412</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Rua Dr. Gama Barros, 14-B</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>1700-143 Alvalade</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>123456851</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>12407</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>748355</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>MAIS DUQUE UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>40</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>O ANTIGO PADEIRO</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/mais-duque-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>518094600</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Rua Cirilo Wolkmar Machado, Nº 12, Marisol</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>2855-168 Corroios</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>123456852</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>12408</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>748357</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>DAVID DANIEL PAULO ANTUNES</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>41</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>O SER BEM-ESTAR!</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>748384</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>BOASAFRA, LDA.</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>41</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>PSICOESTÉTICA</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/boasafra-lda/</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>509054374</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Rua 28 de Janeiro, Nº 350, Candal Park, Fracção S-19</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>4400-335 Vila Nova de Gaia</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>123456853</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>12409</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>748385</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>BOASAFRA, LDA.</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>41</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>MÉTODO PSICOESTÉTICO</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/boasafra-lda/</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>509054374</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Rua 28 de Janeiro, Nº 350, Candal Park, Fracção S-19</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>4400-335 Vila Nova de Gaia</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>123456854</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>12410</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>748386</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>INÊS MATIAS JORGE</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>14</v>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>748765</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2025.06.21</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>SEBASTIAO DE MATOS MONTEIRO</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>29</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>ALGARVE JAMS</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/matos-cruz-monteiro-industria-de-mobiliario-lda/</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>515027200</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Rua do Giestal , Nº 172</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>4590-475 Modelos - Paços de Ferreira</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>123456855</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>12411</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>58239</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2025.06.20</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>GABRIEL SANTOS CHAVES</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
         <is>
           <t>Not Found</t>
         </is>

--- a/webscrapping school/msaces/racius_links_output.xlsx
+++ b/webscrapping school/msaces/racius_links_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1591,67 +1591,59 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/orlando-junior-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>518715833</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Padre Manuel da Silva, 15, Marrazes</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2415-519 Leiria</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456799</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12355</t>
         </is>
       </c>
     </row>
@@ -1677,67 +1669,59 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/venuscosmopolita-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>516029819</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Restauradores Metropolitano de Lisboa, Sector, Loja 12</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>1250-188 Lisboa</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456800</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12356</t>
         </is>
       </c>
     </row>
@@ -1810,12 +1794,4640 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>123456799</t>
+          <t>123456801</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>12355</t>
+          <t>12357</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>748250</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>BATISTA &amp; CLARO - INDÚSTRIA PANIFICADORA, LDA.</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>30</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>PASTEL DE NATA DE BOLOTA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/batista-claro-industria-panificadora-lda/</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>503148253</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Av. 16 de Junho, N.º 92, Rogil</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>8670-440 Rogil</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>123456802</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>12358</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>748251</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ROSANA ERLO</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>30</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>748254</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>FABRÍCIO SALAZAR</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>44</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>748284</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ASSOCIAÇÃO GEOPARQUE ALGARVENSIS LOULÉ-SILVES- ALBUFEIRA</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>35</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/associacao-geoparque-algarvensis-loule-silves-albufeira/</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>517879913</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Faro - Loulé</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>123456803</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>12359</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>748285</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>BEHAVIOUR - FORMAÇÃO E CONSULTORIA, LDA.</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>16</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>CERTIFIED CLOUD COMPUTING AUDITOR (CCCA)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/behaviour-formacao-e-consultoria-lda/</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>507464770</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Avª Visconde de Valmor, Nº66, 4º</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1050-242 Lisboa</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>123456804</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>12360</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>748286</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SARA VALÉRIO DE JESUS LOURENÇO PEREIRA</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>41</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>748288</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DIOGO MIGUEL CARREIRA COSTA</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>9</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>748293</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>RICARDO RAFAEL</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>12</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>748302</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ALBERTO MOREIRA PEREIRA &amp; FILHOS, LDA.</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>19</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/alberto-moreira-pereira-filhos-lda/</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>505092549</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Rua Esteiro do Almo 65 - Brejos de Canes</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2910-315 Setúbal</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>123456805</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>12361</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>748305</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>TATIANA VISSNIEVKI VIEIRA</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>748306</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>TATIANA VISSNIEVKI VIEIRA</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>41</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>EAF - ESCOLA DE ARTE FLORAL</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>748307</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>KAROLINE DE SOUZA JUNCKES</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>41</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>748309</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PRATO SOLIDARIO LDA</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>43</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ALMADRAVA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/prato-solidario-lda/</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>518404129</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Avenida Infante D. Henrique, Nº 498, Loja, Murtal</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2775-094 Parede</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>123456806</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>12362</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>748311</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MARIA NATÁLIA DA GRAÇA DIAS</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>37</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>748312</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ELIANA SOFIA DIAS NUNES</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>44</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>748321</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PECULIAR TREASURE, LDA</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>36</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/peculiar-treasure-lda/</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>517209217</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Rua Mouzinho da Silveira, 15</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1250-166 Lisboa</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>123456807</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>12363</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>748322</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>LISBOAGÁS COMERCIALIZAÇÃO, S.A. PT LUSITANIAGÁS COMERCIALIZAÇÃO, S.A. PT SETGÁS COMERCIALIZAÇÃO, S.A. PT TRANSGÁS, S.A.</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>748331</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>MISTÉRIO DA TERRA S.A.</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/misterio-da-terra-s-a/</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>509623794</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Rua Casal Canas, 14 - 3 A</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2790-204 Carnaxide</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>123456808</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>12364</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>748332</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MARWAN BADA UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/marwan-bada-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>518565351</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Avenida 5 de Outubro, Nº 148, 3º G</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2900-309 Setubal</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>123456809</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>12365</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>748333</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NUNO MIGUEL BERNARDO SIMÕES PT DÁLIA MARIA DELGADO RATÃO SIMÕES</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>41</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>748342</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ANDREIA FILIPA LEAL BRANQUINHO</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>748349</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ANA ISABEL ALMEIDA DE MELO PT RICARDO MANUEL BLANCO PERES DE ARAÚJO RÊGO PT DAVID ALEXANDRE JESUS FERREIRA DE GOUVEIA</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>29</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>748352</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>MARIA DO CÉU MAGALHÃES DA SILVA RODRIGUES</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>25</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>748358</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ANA SOFIA MALHÓ DE ALMEIDA E SOUSA</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>39</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>TIME CAPSULE HAVEN</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>748359</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ENIGMA VIRTUAL, LDA.</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>42</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>INSPYRAL</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/enigma-virtual-lda/</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>508098092</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Rua Pedro Homem de Mello, Nº 55, Sala 5.08</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>4150-599 Porto</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>123456810</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>12366</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>748360</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PART CREATIVE STUDIO, LDA</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>9</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>O MOTIVO COMUNICAÇÃO</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/part-creative-studio-lda/</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>517492040</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Rua Pinto Ferreira, N.º 22, 3.º Andar Direito</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1300-464 Lisboa</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>123456811</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>12367</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>748361</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DIOGO RODRIGUES SEVERIANO</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>9</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>UZEE</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>748365</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>RICARDO JOÃO FERRO SILVA</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>41</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>FERRO</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>748366</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MARIA EMÍLIA TABORDA HENRIQUES DA SILVA DE SOUSA ROQUE</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>31</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>HERDADE DO MERENGAL</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>748370</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DESIDERIO &amp; LESLEY - EXPLORAÇÕES DE BARES, LDA</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>43</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>OURA BAR</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/desiderio-lesley-exploracoes-de-bares-lda/</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>508401011</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Sítio de Vale Serves, Cx Postal 209 Z, Ferreiras</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>8200-559 Ferreiras</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>123456812</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>12368</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>748376</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>SOCIEDADE AGRÍCOLA QUINTA DE SOUTELOS, LDA</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>33</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>MONTELONGO</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>748388</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>GERAÇÃO MCAR UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>35</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>GERAÇÃO MCAR</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/geracao-mcar-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>517916800</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Zona Industrial da Cocanha, Rua Júlio Santos Pereira 20B</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>5400-570 Santa Cruz/Trindade e Sanjurge</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>123456813</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>12369</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>748389</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ITALINA DA CRUZ LOPES</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>35</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>GRUPO HORIZONTE DA DIASPORA ROTTERDAM</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>748392</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>GPR GASTRONOMIA DO PRINCIPE REAL, LDA.</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>43</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>OCTO (PUS) DOG</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/gpr-gastronomia-do-principe-real-lda/</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>510698743</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Rua do Loreto, Nº21, R/C</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1200-241 Lisboa</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>123456814</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>12370</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>748393</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>GPR GASTRONOMIA DO PRINCIPE REAL, LDA.</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>43</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>SEA ME DOG</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/gpr-gastronomia-do-principe-real-lda/</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>510698743</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Rua do Loreto, Nº21, R/C</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1200-241 Lisboa</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>123456815</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>12371</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>748394</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PAULO ROGÉRIO ALVES PEREIRA</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20</v>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>748395</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ABEGOARIA COMERCIAL, S.A.</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>33</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>CASTELO DAS PIPAS</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/abegoaria-comercial-s-a/</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>513777172</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Rua do Benquerer - Zona Industrial de Mourão</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>7240-248 Mourão</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>123456816</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>12372</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>748398</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>SOCIEDAD DE EXPLOTACIÓN DE REDES ELECTRÓNICAS SUCURSAL EM PORTUGAL</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>9</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>SERES GRUPO DOCAPOSTE</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>748400</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>SOCIEDAD DE EXPLOTACION DE REDES ELECTRONICAS Y SERVICIOS S.A. SUCURSAL EM PORTUGAL</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>9</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>SERES CONNECT</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/sociedad-de-explotacion-de-redes-electronicas-y-servicios-s-a-sucursal-em-portugal/</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>980624550</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Av. da Liberdade, 36, 6º</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1250-145 Lisboa</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>123456817</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>12373</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>748401</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>SOCIEDAD DE EXPLOTACION DE REDES ELECTRONICAS Y SERVICIOS S.A. SUCURSAL EM PORTUGAL</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>9</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>SERES E-FACTURA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/sociedad-de-explotacion-de-redes-electronicas-y-servicios-s-a-sucursal-em-portugal/</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>980624550</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Av. da Liberdade, 36, 6º</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1250-145 Lisboa</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>123456818</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>12374</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>748402</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>SOCIEDAD DE EXPLOTACION DE REDES ELECTRONICAS Y SERVICIOS S.A. SUCURSAL EM PORTUGAL</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>9</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/sociedad-de-explotacion-de-redes-electronicas-y-servicios-s-a-sucursal-em-portugal/</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>980624550</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Av. da Liberdade, 36, 6º</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1250-145 Lisboa</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>123456819</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>12375</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>748403</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>WAKAI MD, LDA.</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>10</v>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/wakai-md-lda/</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>517231581</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Avenida Praia da Vitória, N.º 12-B</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1000-247 Lisboa</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>123456820</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>12376</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>748405</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>FÓRMULAS &amp; DOUTRINAS, LDA</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>35</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>BRITWELL CLINIC</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/formulas-doutrinas-lda/</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>517971135</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Rua António Nobre, Nº 1D, 3º Dtº</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2800-260 Cacilhas</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>123456821</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>12377</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>748407</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>180 GRAUS BAR LD.ª</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>43</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>TWIST &amp; SPRITZ</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>748409</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ZERO DOSAGE, LDA</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>33</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>ZERO DOSAGE</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/zero-dosage-lda/</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>518764230</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Rua Correia de Sá, Nº 349, Casa 7</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>4150-229 Lordelo do Ouro</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>123456822</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>12378</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>748413</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>TOPPERFORMANCE, LDA</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>35</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>SIMPLIFICAMENTE</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/topperformance-lda/</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>510704654</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Rua Comandante Luís Pinto da Silva, Nº 70, R/C, Loja 9</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>4830-535 Póvoa de Lanhoso</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>123456823</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>12379</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>748475</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>SOFIA DINIS ROCHETA</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>3</v>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>748476</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>SOFIA DINIS ROCHETA</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>16</v>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>748480</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>KAEWTA ARTKONGHAN</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>9</v>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>748481</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NELSON FERNANDES LOPES</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>41</v>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>748482</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PARTILHEMPATIA TECNOLOGIA LDA.</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>9</v>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/partilhempatia-tecnologia-lda/</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>518700330</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Rua da Prata, Nº 80</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>1100-420 Lisboa</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>123456824</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>12380</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>748483</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>IBRAHIMA LY</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>42</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>748489</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>INVENIO ENGENHARIA, S.A.</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>37</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>INVENIO - O FUTURO CONSTROI-SE</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/invenio-engenharia-s-a/</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>510637981</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Rua Bento Carqueja, Armazém 1, Zona Industrial da Maia, Sector X</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>4475-248 Maia</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>123456825</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>12381</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>748679</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2025.07.03</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>GOLDENPRAXIS,LDA</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>36</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>C&amp;F REALESTATE art.12º-5 do cpi</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>58240</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>TIMBREPIONEIRO, LDA.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/timbrepioneiro-lda/</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>518831051</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Rua Dr. Dinis Moreira da Mota, Nº. 68 B, 2.º Esqº.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>9600-075 Pico da Pedra</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>123456826</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>12382</t>
         </is>
       </c>
     </row>

--- a/webscrapping school/msaces/racius_links_output.xlsx
+++ b/webscrapping school/msaces/racius_links_output.xlsx
@@ -667,14 +667,20 @@
       <c r="M3" t="n">
         <v>0</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -835,14 +841,20 @@
       <c r="M5" t="n">
         <v>0</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -1003,14 +1015,20 @@
       <c r="M7" t="n">
         <v>0</v>
       </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -1081,14 +1099,20 @@
       <c r="M8" t="n">
         <v>0</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1159,14 +1183,20 @@
       <c r="M9" t="n">
         <v>0</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1237,14 +1267,20 @@
       <c r="M10" t="n">
         <v>0</v>
       </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1315,14 +1351,20 @@
       <c r="M11" t="n">
         <v>0</v>
       </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1393,14 +1435,20 @@
       <c r="M12" t="n">
         <v>0</v>
       </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1471,14 +1519,20 @@
       <c r="M13" t="n">
         <v>0</v>
       </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1549,14 +1603,20 @@
       <c r="M14" t="n">
         <v>0</v>
       </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1627,14 +1687,20 @@
       <c r="M15" t="n">
         <v>0</v>
       </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1705,14 +1771,20 @@
       <c r="M16" t="n">
         <v>0</v>
       </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1783,14 +1855,20 @@
       <c r="M17" t="n">
         <v>0</v>
       </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1865,14 +1943,20 @@
       <c r="M18" t="n">
         <v>0</v>
       </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -2111,14 +2195,20 @@
       <c r="M21" t="n">
         <v>0</v>
       </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2193,14 +2283,20 @@
       <c r="M22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2529,14 +2625,20 @@
       <c r="M26" t="n">
         <v>0</v>
       </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2873,14 +2975,20 @@
       <c r="M30" t="n">
         <v>0</v>
       </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -3123,14 +3231,20 @@
       <c r="M33" t="n">
         <v>0</v>
       </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3287,14 +3401,20 @@
       <c r="M35" t="n">
         <v>0</v>
       </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3365,14 +3485,20 @@
       <c r="M36" t="n">
         <v>0</v>
       </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3881,14 +4007,20 @@
       <c r="M42" t="n">
         <v>0</v>
       </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3963,14 +4095,20 @@
       <c r="M43" t="n">
         <v>0</v>
       </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -4315,14 +4453,20 @@
       <c r="M47" t="n">
         <v>0</v>
       </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4487,14 +4631,20 @@
       <c r="M49" t="n">
         <v>0</v>
       </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0</v>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4659,14 +4809,20 @@
       <c r="M51" t="n">
         <v>0</v>
       </c>
-      <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0</v>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4741,14 +4897,20 @@
       <c r="M52" t="n">
         <v>0</v>
       </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4909,14 +5071,20 @@
       <c r="M54" t="n">
         <v>0</v>
       </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0</v>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -5081,14 +5249,20 @@
       <c r="M56" t="n">
         <v>0</v>
       </c>
-      <c r="N56" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0</v>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5163,14 +5337,20 @@
       <c r="M57" t="n">
         <v>0</v>
       </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0</v>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -5241,14 +5421,20 @@
       <c r="M58" t="n">
         <v>0</v>
       </c>
-      <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0</v>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5319,14 +5505,20 @@
       <c r="M59" t="n">
         <v>0</v>
       </c>
-      <c r="N59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0</v>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5401,14 +5593,20 @@
       <c r="M60" t="n">
         <v>0</v>
       </c>
-      <c r="N60" t="n">
-        <v>0</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
-      </c>
-      <c r="P60" t="n">
-        <v>0</v>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5573,14 +5771,20 @@
       <c r="M62" t="n">
         <v>0</v>
       </c>
-      <c r="N62" t="n">
-        <v>0</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0</v>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5655,14 +5859,20 @@
       <c r="M63" t="n">
         <v>0</v>
       </c>
-      <c r="N63" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" t="n">
-        <v>0</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0</v>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -6077,14 +6287,20 @@
       <c r="M68" t="n">
         <v>0</v>
       </c>
-      <c r="N68" t="n">
-        <v>0</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0</v>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -6245,14 +6461,20 @@
       <c r="M70" t="n">
         <v>0</v>
       </c>
-      <c r="N70" t="n">
-        <v>0</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0</v>
-      </c>
-      <c r="P70" t="n">
-        <v>0</v>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -6411,14 +6633,20 @@
       <c r="M72" t="n">
         <v>0</v>
       </c>
-      <c r="N72" t="n">
-        <v>0</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P72" t="n">
-        <v>0</v>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>28€</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>6,44€</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>34,44€</t>
+        </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>

--- a/webscrapping school/msaces/racius_links_output.xlsx
+++ b/webscrapping school/msaces/racius_links_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -671,12 +671,12 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -847,12 +847,12 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1023,12 +1023,12 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1109,12 +1109,12 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1195,12 +1195,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1281,12 +1281,12 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1367,12 +1367,12 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1539,12 +1539,12 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1625,12 +1625,12 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1711,12 +1711,12 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1797,12 +1797,12 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1883,27 +1883,4855 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>123456801</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>12357</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>748250</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>BATISTA &amp; CLARO - INDÚSTRIA PANIFICADORA, LDA.</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>30</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>PASTEL DE NATA DE BOLOTA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/batista-claro-industria-panificadora-lda/</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>503148253</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Av. 16 de Junho, N.º 92, Rogil</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>8670-440 Rogil</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>6,44</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>34,44</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>123456801</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>12357</t>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>123456802</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>12358</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>748251</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ROSANA ERLO</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>30</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>748254</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>FABRÍCIO SALAZAR</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>44</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>748284</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ASSOCIAÇÃO GEOPARQUE ALGARVENSIS LOULÉ-SILVES- ALBUFEIRA</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>35</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/associacao-geoparque-algarvensis-loule-silves-albufeira/</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>517879913</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Faro - Loulé</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>123456803</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>12359</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>748285</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>BEHAVIOUR - FORMAÇÃO E CONSULTORIA, LDA.</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>16</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>CERTIFIED CLOUD COMPUTING AUDITOR (CCCA)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/behaviour-formacao-e-consultoria-lda/</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>507464770</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Avª Visconde de Valmor, Nº66, 4º</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1050-242 Lisboa</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>123456804</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>12360</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>748286</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SARA VALÉRIO DE JESUS LOURENÇO PEREIRA</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>41</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>748288</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DIOGO MIGUEL CARREIRA COSTA</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>9</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>748293</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>RICARDO RAFAEL</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>12</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>748302</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ALBERTO MOREIRA PEREIRA &amp; FILHOS, LDA.</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>19</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/alberto-moreira-pereira-filhos-lda/</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>505092549</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Rua Esteiro do Almo 65 - Brejos de Canes</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2910-315 Setúbal</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>123456805</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>12361</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>748305</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>TATIANA VISSNIEVKI VIEIRA</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>748306</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>TATIANA VISSNIEVKI VIEIRA</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>41</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>EAF - ESCOLA DE ARTE FLORAL</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>748307</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>KAROLINE DE SOUZA JUNCKES</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>41</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>748309</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PRATO SOLIDARIO LDA</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>43</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ALMADRAVA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/prato-solidario-lda/</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>518404129</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Avenida Infante D. Henrique, Nº 498, Loja, Murtal</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2775-094 Parede</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>123456806</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>12362</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>748311</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MARIA NATÁLIA DA GRAÇA DIAS</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>37</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>748312</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ELIANA SOFIA DIAS NUNES</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>44</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>748321</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PECULIAR TREASURE, LDA</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>36</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/peculiar-treasure-lda/</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>517209217</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Rua Mouzinho da Silveira, 15</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1250-166 Lisboa</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>123456807</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>12363</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>748322</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>LISBOAGÁS COMERCIALIZAÇÃO, S.A. PT LUSITANIAGÁS COMERCIALIZAÇÃO, S.A. PT SETGÁS COMERCIALIZAÇÃO, S.A. PT TRANSGÁS, S.A.</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>748331</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>MISTÉRIO DA TERRA S.A.</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/misterio-da-terra-s-a/</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>509623794</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Rua Casal Canas, 14 - 3 A</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2790-204 Carnaxide</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>123456808</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>12364</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>748332</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MARWAN BADA UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/marwan-bada-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>518565351</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Avenida 5 de Outubro, Nº 148, 3º G</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2900-309 Setubal</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>123456809</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>12365</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>748333</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NUNO MIGUEL BERNARDO SIMÕES PT DÁLIA MARIA DELGADO RATÃO SIMÕES</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>41</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>748342</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ANDREIA FILIPA LEAL BRANQUINHO</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>748349</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ANA ISABEL ALMEIDA DE MELO PT RICARDO MANUEL BLANCO PERES DE ARAÚJO RÊGO PT DAVID ALEXANDRE JESUS FERREIRA DE GOUVEIA</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>29</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>748352</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>MARIA DO CÉU MAGALHÃES DA SILVA RODRIGUES</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>25</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>748358</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ANA SOFIA MALHÓ DE ALMEIDA E SOUSA</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>39</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>TIME CAPSULE HAVEN</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>748359</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ENIGMA VIRTUAL, LDA.</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>42</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>INSPYRAL</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/enigma-virtual-lda/</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>508098092</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Rua Pedro Homem de Mello, Nº 55, Sala 5.08</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>4150-599 Porto</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>123456810</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>12366</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>748360</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PART CREATIVE STUDIO, LDA</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>9</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>O MOTIVO COMUNICAÇÃO</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/part-creative-studio-lda/</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>517492040</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Rua Pinto Ferreira, N.º 22, 3.º Andar Direito</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1300-464 Lisboa</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>123456811</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>12367</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>748361</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DIOGO RODRIGUES SEVERIANO</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>9</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>UZEE</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>748365</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>RICARDO JOÃO FERRO SILVA</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>41</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>FERRO</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>748366</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MARIA EMÍLIA TABORDA HENRIQUES DA SILVA DE SOUSA ROQUE</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>31</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>HERDADE DO MERENGAL</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>748370</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DESIDERIO &amp; LESLEY - EXPLORAÇÕES DE BARES, LDA</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>43</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>OURA BAR</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/desiderio-lesley-exploracoes-de-bares-lda/</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>508401011</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Sítio de Vale Serves, Cx Postal 209 Z, Ferreiras</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>8200-559 Ferreiras</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>123456812</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>12368</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>748376</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>SOCIEDADE AGRÍCOLA QUINTA DE SOUTELOS, LDA</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>33</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>MONTELONGO</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>748388</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>GERAÇÃO MCAR UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>35</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>GERAÇÃO MCAR</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/geracao-mcar-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>517916800</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Zona Industrial da Cocanha, Rua Júlio Santos Pereira 20B</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>5400-570 Santa Cruz/Trindade e Sanjurge</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>123456813</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>12369</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>748389</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ITALINA DA CRUZ LOPES</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>35</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>GRUPO HORIZONTE DA DIASPORA ROTTERDAM</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>748392</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>GPR GASTRONOMIA DO PRINCIPE REAL, LDA.</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>43</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>OCTO (PUS) DOG</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/gpr-gastronomia-do-principe-real-lda/</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>510698743</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Rua do Loreto, Nº21, R/C</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1200-241 Lisboa</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>123456814</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>12370</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>748393</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>GPR GASTRONOMIA DO PRINCIPE REAL, LDA.</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>43</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>SEA ME DOG</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/gpr-gastronomia-do-principe-real-lda/</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>510698743</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Rua do Loreto, Nº21, R/C</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1200-241 Lisboa</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>123456815</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>12371</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>748394</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PAULO ROGÉRIO ALVES PEREIRA</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20</v>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>748395</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ABEGOARIA COMERCIAL, S.A.</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>33</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>CASTELO DAS PIPAS</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/abegoaria-comercial-s-a/</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>513777172</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Rua do Benquerer - Zona Industrial de Mourão</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>7240-248 Mourão</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>123456816</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>12372</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>748398</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>SOCIEDAD DE EXPLOTACIÓN DE REDES ELECTRÓNICAS SUCURSAL EM PORTUGAL</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>9</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>SERES GRUPO DOCAPOSTE</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>748400</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>SOCIEDAD DE EXPLOTACION DE REDES ELECTRONICAS Y SERVICIOS S.A. SUCURSAL EM PORTUGAL</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>9</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>SERES CONNECT</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/sociedad-de-explotacion-de-redes-electronicas-y-servicios-s-a-sucursal-em-portugal/</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>980624550</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Av. da Liberdade, 36, 6º</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1250-145 Lisboa</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>123456817</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>12373</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>748401</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>SOCIEDAD DE EXPLOTACION DE REDES ELECTRONICAS Y SERVICIOS S.A. SUCURSAL EM PORTUGAL</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>9</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>SERES E-FACTURA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/sociedad-de-explotacion-de-redes-electronicas-y-servicios-s-a-sucursal-em-portugal/</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>980624550</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Av. da Liberdade, 36, 6º</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1250-145 Lisboa</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>123456818</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>12374</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>748402</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>SOCIEDAD DE EXPLOTACION DE REDES ELECTRONICAS Y SERVICIOS S.A. SUCURSAL EM PORTUGAL</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>9</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/sociedad-de-explotacion-de-redes-electronicas-y-servicios-s-a-sucursal-em-portugal/</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>980624550</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Av. da Liberdade, 36, 6º</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1250-145 Lisboa</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>123456819</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>12375</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>748403</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>WAKAI MD, LDA.</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>10</v>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/wakai-md-lda/</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>517231581</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Avenida Praia da Vitória, N.º 12-B</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1000-247 Lisboa</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>123456820</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>12376</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>748405</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>FÓRMULAS &amp; DOUTRINAS, LDA</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>35</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>BRITWELL CLINIC</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/formulas-doutrinas-lda/</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>517971135</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Rua António Nobre, Nº 1D, 3º Dtº</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2800-260 Cacilhas</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>123456821</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>12377</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>748407</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>180 GRAUS BAR LD.ª</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>43</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>TWIST &amp; SPRITZ</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>748409</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ZERO DOSAGE, LDA</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>33</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>ZERO DOSAGE</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/zero-dosage-lda/</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>518764230</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Rua Correia de Sá, Nº 349, Casa 7</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>4150-229 Lordelo do Ouro</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>123456822</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>12378</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>748413</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>TOPPERFORMANCE, LDA</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>35</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>SIMPLIFICAMENTE</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/topperformance-lda/</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>510704654</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Rua Comandante Luís Pinto da Silva, Nº 70, R/C, Loja 9</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>4830-535 Póvoa de Lanhoso</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>123456823</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>12379</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>748475</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>SOFIA DINIS ROCHETA</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>3</v>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>748476</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>SOFIA DINIS ROCHETA</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>16</v>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>748480</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>KAEWTA ARTKONGHAN</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>9</v>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>748481</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NELSON FERNANDES LOPES</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>41</v>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>748482</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PARTILHEMPATIA TECNOLOGIA LDA.</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>9</v>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/partilhempatia-tecnologia-lda/</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>518700330</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Rua da Prata, Nº 80</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>1100-420 Lisboa</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>123456824</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>12380</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>748483</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>IBRAHIMA LY</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>42</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>748489</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>INVENIO ENGENHARIA, S.A.</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>37</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>INVENIO - O FUTURO CONSTROI-SE</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/invenio-engenharia-s-a/</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>510637981</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Rua Bento Carqueja, Armazém 1, Zona Industrial da Maia, Sector X</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>4475-248 Maia</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>123456825</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>12381</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>748679</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2025.07.03</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>GOLDENPRAXIS,LDA</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>36</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>C&amp;F REALESTATE art.12º-5 do cpi</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>58240</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>TIMBREPIONEIRO, LDA.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/timbrepioneiro-lda/</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>518831051</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Rua Dr. Dinis Moreira da Mota, Nº. 68 B, 2.º Esqº.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>9600-075 Pico da Pedra</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>123456826</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>12382</t>
         </is>
       </c>
     </row>

--- a/webscrapping school/msaces/racius_links_output.xlsx
+++ b/webscrapping school/msaces/racius_links_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:R106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,475 +616,483 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>747351</t>
+          <t>747615</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025.06.05</t>
+          <t>2025.06.11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MUNICIPIO DE OEIRAS</t>
+          <t>RAQUEL NAZARIO MOTTA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.racius.com/municipio-de-oeiras/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>500745943</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2780-288 Oeiras</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>07/2025</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>07/2035</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t xml:space="preserve">28 </t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>123456789</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>747353</t>
+          <t>748008</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025.06.05</t>
+          <t>2025.06.17</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NELSON DEODATO VALADÃO FURTADO PT SARA FILIPA NETO DO ROSÁRIO PT ADRIANA PINHEIRO VIVEIROS</t>
+          <t>HVP INVEST, UNIPESSOAL, LDA.</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>35</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NAL DE MARCAS idos ade Industrial, a seguir se publicam os pedidos de registo de a contar-se o prazo de dois meses para a apresentação de ncessão dos mesmos, em conformidade com o artigo 17.º do</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/hvp-invest-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>518180352</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Centro Comercial Vale do Sousa, Loja N.º 137, Avenida Comendador Abílio Seabra, 5-7</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>4580-029 Paredes</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t xml:space="preserve">28 </t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456789</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12345</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>747471</t>
+          <t>748120</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025.06.06</t>
+          <t>2025.06.19</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CALÇADANÓMADA, LDA</t>
+          <t>FREGUESIA SÃO JOÃO DE FOUTOURA FREGUESIA DA CEREJA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>36</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ROTA DOS CEREJAIS</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.racius.com/calcadanomada-lda/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>518816923</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Avenida Dr. António Tenreiro da Cruz, Nº 10, R/C Frt. Esq.</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3460-522 Tondela</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>07/2025</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>07/2035</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t xml:space="preserve">28 </t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>123456790</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>12346</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>747953</t>
+          <t>748279</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025.06.17</t>
+          <t>2025.06.20</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GABRIEL KEHLER SILVA DE SOUZA</t>
+          <t>SILVESTRERAZÃO, LDA.</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>43</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>INFINITY AÇAÍ</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/silvestrerazao-lda/</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>518082717</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua de São José, Nº 663</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2750-136 Cascais</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t xml:space="preserve">28 </t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456790</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12346</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>748157</t>
+          <t>748368</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025.06.20</t>
+          <t>2025.06.25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NEST4PROSPERITY - CONSULTORIA, LDA</t>
+          <t>ANA DANIELA FERREIRA SANTOS</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>35</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>GRAPHIUM PAPELARIA</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.racius.com/nest4prosperity-consultoria-lda/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>518605248</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rua Dom Pedro Cristo, Nº 81, 8º B</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3030-394 Coimbra</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>07/2025</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>07/2035</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t xml:space="preserve">28 </t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>123456791</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>12347</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>748215</t>
+          <t>748369</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025.06.21</t>
+          <t>2025.06.25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PRADA &amp; PRADA, LDA.</t>
+          <t>ZABELE, LDA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>43</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ANTÓNIO ZAMBUJO 1975</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.racius.com/prada-prada-lda/</t>
+          <t>https://www.racius.com/zabele-lda/</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>518728463</t>
+          <t>516438336</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Forte São João de Deus - Mercado Municipal - Rota dos Sabores L-207/208</t>
+          <t>Rua Ernesto Melo Antunes, Nº 3</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>5300-263 Bragança</t>
+          <t>7800-591 Beja</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1099,7 +1107,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1124,139 +1132,139 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>123456792</t>
+          <t>123456791</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>12348</t>
+          <t>12347</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>748216</t>
+          <t>748373</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025.06.21</t>
+          <t>2025.06.25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CREATIVE CIRCLE - GESTÃO DE PORTAIS UNIPESSOAL LDA.</t>
+          <t>PEDRO MIGUEL PESTANA GOMES DE CASTRO</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.racius.com/creative-circle-gestao-de-portais-unipessoal-lda/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>510874487</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rua Artur Napoleão, N.º 196, 2.º Esq</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>4460-246 Senhora da Hora</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>07/2025</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>07/2035</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t xml:space="preserve">28 </t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>123456793</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>12349</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>748217</t>
+          <t>748374</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025.06.21</t>
+          <t>2025.06.25</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NEWPRESS, COMUNICAÇÃO E INFORMAÇÃO, LDA</t>
+          <t>DA CONCEIÇÃO &amp; SALDANHA - SOLUÇÕES AMBIENTAIS E CIRCULARES, LDA</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.racius.com/newpress-comunicacao-e-informacao-lda/</t>
+          <t>https://www.racius.com/da-conceicao-saldanha-solucoes-ambientais-e-circulares-lda/</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>518834727</t>
+          <t>516664735</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Avenida D. João II, Nº.98 A</t>
+          <t>Parque Empresarial da Baía do Tejo, Rua 2, Edifício N.º 23</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1990-100 Lisboa</t>
+          <t>2830-302 Barreiro</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1271,7 +1279,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1296,55 +1304,51 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>123456794</t>
+          <t>123456792</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>12350</t>
+          <t>12348</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>748226</t>
+          <t>748377</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025.06.23</t>
+          <t>2025.06.25</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RISO FUGAZ - MEDICINA DENTÁRIA, LDA</t>
+          <t>RICHEMONT INTERNATIONAL SA</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.racius.com/riso-fugaz-medicina-dentaria-lda/</t>
+          <t>https://www.racius.com/richemont-international-sa/</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>508681006</t>
+          <t>980363748</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Rua Alfredo Soares, Nº 2, 2º Andar</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1400-006 Lisboa</t>
-        </is>
-      </c>
+          <t>Route Des Biches 10, Villars-Sur-Glâne, Suiça</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
           <t>07/2025</t>
@@ -1357,7 +1361,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1382,53 +1386,53 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>123456795</t>
+          <t>123456793</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>12351</t>
+          <t>12349</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>748236</t>
+          <t>748379</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025.06.23</t>
+          <t>2025.06.26</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TRIÂNGULEMFESTA UNIPESSOAL LDA</t>
+          <t>RECHEIO - CASH &amp; CARRY, S.A.</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.racius.com/triangulemfesta-unipessoal-lda/</t>
+          <t>https://www.racius.com/recheio-cash-carry-s-a/</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>518613917</t>
+          <t>500145415</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Rua Dr. Francisco Robalo Guedes, Lt D8, 2º Dto</t>
+          <t>Rua Actor António Silva, Nº7</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>6000-212 Castelo Branco</t>
+          <t>1649-033 Lisboa</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1443,7 +1447,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1468,139 +1472,139 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>123456796</t>
+          <t>123456794</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>12352</t>
+          <t>12350</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>748241</t>
+          <t>748382</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025.06.23</t>
+          <t>2025.06.26</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>UNANIME EMPIRE, LDA</t>
+          <t>FRESH TRADING LIMITED</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.racius.com/unanime-empire-lda/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>517202158</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Rua Mestre Mónica, Nº 2,2 E24</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>3830-702 Ílhavo</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>07/2025</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>07/2035</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t xml:space="preserve">28 </t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>123456797</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>12353</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>748243</t>
+          <t>748383</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025.06.23</t>
+          <t>2025.06.26</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AB - AMBITIOUS BALANCE LDA</t>
+          <t>IDD - PORTUGAL DEFENCE, S.A.</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.racius.com/ab-ambitious-balance-lda/</t>
+          <t>https://www.racius.com/idd-portugal-defence-s-a/</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>518469298</t>
+          <t>503939668</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Rua de Inglaterra, Nº 3, 1º Dtº</t>
+          <t>Estrada da Luz, Nº 153/155</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2775-395 Carcavelos</t>
+          <t>1600-155 Lisboa</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1615,7 +1619,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1640,19 +1644,19 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>123456798</t>
+          <t>123456795</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>12354</t>
+          <t>12351</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>748244</t>
+          <t>748387</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1662,31 +1666,31 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ORLANDO JUNIOR</t>
+          <t>CONQUISTATRADIÇÃO, LDA</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.racius.com/orlando-junior-unipessoal-lda/</t>
+          <t>https://www.racius.com/conquistatradicao-lda/</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>518715833</t>
+          <t>510337546</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Rua Padre Manuel da Silva, 15, Marrazes</t>
+          <t>Rua Clube Atlético de Rio Tinto, Armazém, 143, Rio Tinto, Gondomar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2415-519 Leiria</t>
+          <t>4435-188 Rio Tinto</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1701,7 +1705,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1726,229 +1730,229 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>123456799</t>
+          <t>123456796</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>12355</t>
+          <t>12352</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>748246</t>
+          <t>748396</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025.06.23</t>
+          <t>2025.06.24</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>VÉNUSCOSMOPOLITA-UNIPESSOAL LDA</t>
+          <t>TEOREMENLAÇADO-UNIPESSOAL.LDA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.racius.com/venuscosmopolita-unipessoal-lda/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>516029819</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rua Restauradores Metropolitano de Lisboa, Sector, Loja 12</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1250-188 Lisboa</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>07/2025</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>07/2035</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t xml:space="preserve">28 </t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>123456800</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>12356</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>748247</t>
+          <t>748404</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025.06.23</t>
+          <t>2025.06.25</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LR ENOLOGIA UNIPESSOAL LDA</t>
+          <t>180 GRAUS BAR LD.ª</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>29</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
+        <v>43</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>BAR DO MERCADO</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.racius.com/lr-enologia-unipessoal-lda/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>508456290</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Rua da Madalena, Nº 15, Constantim, Vila Real</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>5000-081 Constantim</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>07/2025</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>07/2035</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t xml:space="preserve">28 </t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>123456801</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>12357</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>748250</t>
+          <t>748408</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025.06.23</t>
+          <t>2025.06.25</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BATISTA &amp; CLARO - INDÚSTRIA PANIFICADORA, LDA.</t>
+          <t>GRANDOCARP - MONTAGEM DE CARPINTARIAS, LDA.</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>30</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>PASTEL DE NATA DE BOLOTA</t>
-        </is>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.racius.com/batista-claro-industria-panificadora-lda/</t>
+          <t>https://www.racius.com/grandocarp-montagem-de-carpintarias-lda/</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>503148253</t>
+          <t>504939564</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Av. 16 de Junho, N.º 92, Rogil</t>
+          <t>Travessa da Amoreira, 1</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>8670-440 Rogil</t>
+          <t>7570-319 Grândola</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1963,7 +1967,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1988,119 +1992,119 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>123456802</t>
+          <t>123456797</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>12358</t>
+          <t>12353</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>748251</t>
+          <t>748417</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025.06.23</t>
+          <t>2025.06.25</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ROSANA ERLO</t>
+          <t>LOGICOGITATE LDA</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/logicogitate-lda/</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>515320790</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Travessa de São José, Lote 16</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>4730-330 Vila Verde</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t xml:space="preserve">28 </t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456798</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12354</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>748254</t>
+          <t>748418</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025.06.23</t>
+          <t>2025.06.25</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>FABRÍCIO SALAZAR</t>
+          <t>ANABELA FERREIRA DE CASTRO</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
@@ -2172,39 +2176,47 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>748284</t>
+          <t>748419</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025.06.23</t>
+          <t>2025.06.25</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ASSOCIAÇÃO GEOPARQUE ALGARVENSIS LOULÉ-SILVES- ALBUFEIRA</t>
+          <t>JOÃO GONÇALO MOREIRA, UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>35</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>INVERSU</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.racius.com/associacao-geoparque-algarvensis-loule-silves-albufeira/</t>
+          <t>https://www.racius.com/joao-goncalo-moreira-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>517879913</t>
+          <t>516928724</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Faro - Loulé</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>Rua Manuel Pedro Cardoso, Bloco B, R/C Esq.º</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2590-033 Sobral de Monte Agraço</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>07/2025</t>
@@ -2217,7 +2229,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2242,57 +2254,53 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>123456803</t>
+          <t>123456799</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>12359</t>
+          <t>12355</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>748285</t>
+          <t>748425</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025.06.23</t>
+          <t>2025.06.26</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BEHAVIOUR - FORMAÇÃO E CONSULTORIA, LDA.</t>
+          <t>DECISÃO VALENTE, LDA</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>16</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>CERTIFIED CLOUD COMPUTING AUDITOR (CCCA)</t>
-        </is>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.racius.com/behaviour-formacao-e-consultoria-lda/</t>
+          <t>https://www.racius.com/decisao-valente-lda/</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>507464770</t>
+          <t>516942603</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Avª Visconde de Valmor, Nº66, 4º</t>
+          <t>Avenida Abade Baçal, Nº 11</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1050-242 Lisboa</t>
+          <t>5300-068 Bragança</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2307,7 +2315,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2332,119 +2340,119 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>123456804</t>
+          <t>123456800</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>12360</t>
+          <t>12356</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>748286</t>
+          <t>748429</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025.06.23</t>
+          <t>2025.06.26</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SARA VALÉRIO DE JESUS LOURENÇO PEREIRA</t>
+          <t>CARINA &amp; MARCO MACHADO - AGRICULTURA REGENERATIVA, LDA</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/carina-marco-machado-agricultura-regenerativa-lda/</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>518443299</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Doutor Jerónimo Ribeiro, N.º 7</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2550-150 Cadaval</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t xml:space="preserve">28 </t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456801</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12357</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>748288</t>
+          <t>748432</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025.06.23</t>
+          <t>2025.06.26</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DIOGO MIGUEL CARREIRA COSTA</t>
+          <t>GONÇALO TAVARES GARCIA</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
@@ -2516,21 +2524,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>748293</t>
+          <t>748435</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025.06.24</t>
+          <t>2025.06.26</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>RICARDO RAFAEL</t>
+          <t>JOSÉ HENRIQUE DE PINHO GONÇALVES</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
@@ -2602,41 +2610,41 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>748302</t>
+          <t>748441</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025.06.24</t>
+          <t>2025.06.26</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ALBERTO MOREIRA PEREIRA &amp; FILHOS, LDA.</t>
+          <t>JOANA VALHELHAS, UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.racius.com/alberto-moreira-pereira-filhos-lda/</t>
+          <t>https://www.racius.com/joana-valhelhas-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>505092549</t>
+          <t>517066386</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Rua Esteiro do Almo 65 - Brejos de Canes</t>
+          <t>Rua Lagar de Freire, N.º 5</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2910-315 Setúbal</t>
+          <t>2230-180 Valhascos</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2651,7 +2659,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2676,33 +2684,33 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>123456805</t>
+          <t>123456802</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>12361</t>
+          <t>12358</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>748305</t>
+          <t>748445</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025.06.24</t>
+          <t>2025.06.26</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>TATIANA VISSNIEVKI VIEIRA</t>
+          <t>PEDRO MIGUEL SOUSA RODRIGUES DE OLIVEIRA PT MIGUEL ÂNGELO LOPES PEREIRA PT MIGUEL ÂNGELO FERNANDES POLERI MACHADO PT TIAGO ALEXANDRE FERREIRA GONÇALVES PT RUI GABRIEL DA COSTA FERREIRA PT JOSÉ PEDRO FERREIRA LEITE PT RUI EMANUEL BRAGA DO VALE</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
@@ -2774,289 +2782,293 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>748306</t>
+          <t>748448</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025.06.24</t>
+          <t>2025.06.26</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TATIANA VISSNIEVKI VIEIRA</t>
+          <t>AFONSO AZEVEDO UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>41</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>EAF - ESCOLA DE ARTE FLORAL</t>
-        </is>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/afonso-azevedo-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>518581314</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua da Lage, Nº 118</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>4710-086 Braga</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t xml:space="preserve">28 </t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456803</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12359</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>748307</t>
+          <t>748452</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025.06.24</t>
+          <t>2025.06.26</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>KAROLINE DE SOUZA JUNCKES</t>
+          <t>HORTIPOR - EXPORT, LDA.</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>41</v>
-      </c>
-      <c r="E29" t="inlineStr"/>
+        <v>31</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>SIMPLESMENTE HORTIPOR</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/hortipor-export-lda/</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>505687607</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua do Concelho, Nº 27, Pinheiro Manso</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2560-045 A dos Cunhados - Torres Vedras</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t xml:space="preserve">28 </t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456804</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12360</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>748309</t>
+          <t>748453</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025.06.24</t>
+          <t>2025.06.26</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PRATO SOLIDARIO LDA</t>
+          <t>CRG - CENTRO RENDIMENTO GUIMARAES LDA</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ALMADRAVA</t>
+          <t>PROBOX</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.racius.com/prato-solidario-lda/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>518404129</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Avenida Infante D. Henrique, Nº 498, Loja, Murtal</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2775-094 Parede</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>07/2025</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>07/2035</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t xml:space="preserve">28 </t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>123456806</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>12362</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>748311</t>
+          <t>748454</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025.06.24</t>
+          <t>2025.06.26</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MARIA NATÁLIA DA GRAÇA DIAS</t>
+          <t>ANITA COSTA CRISTINA BELEZA</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>37</v>
-      </c>
-      <c r="E31" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ANITA COSTA</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>Not Found</t>
@@ -3126,17 +3138,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>748312</t>
+          <t>748457</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025.06.24</t>
+          <t>2025.06.26</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ELIANA SOFIA DIAS NUNES</t>
+          <t>HUGO DE OLIVEIRA SANTOS</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -3212,299 +3224,311 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>748321</t>
+          <t>748460</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025.06.25</t>
+          <t>2025.06.26</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PECULIAR TREASURE, LDA</t>
+          <t>ADALIS INDUSTRIAL SOLUTIONS, S.A.U.</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>36</v>
-      </c>
-      <c r="E33" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ADALIS</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.racius.com/peculiar-treasure-lda/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>517209217</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Rua Mouzinho da Silveira, 15</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1250-166 Lisboa</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>07/2025</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>07/2035</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t xml:space="preserve">28 </t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>123456807</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>12363</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>748322</t>
+          <t>748461</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025.06.25</t>
+          <t>2025.06.26</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>LISBOAGÁS COMERCIALIZAÇÃO, S.A. PT LUSITANIAGÁS COMERCIALIZAÇÃO, S.A. PT SETGÁS COMERCIALIZAÇÃO, S.A. PT TRANSGÁS, S.A.</t>
+          <t>SOVENA PORTUGAL-CONSUMER GOODS, S.A.</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
-      </c>
-      <c r="E34" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>FULA</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/sovena-portugal-consumer-goods-s-a/</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>500833532</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Dr. António Loureiro Borges Nº 2 3º, Edifício Arquiparque, Miraflores</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>1495-131 Algés</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t xml:space="preserve">28 </t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456805</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12361</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>748331</t>
+          <t>748463</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025.06.24</t>
+          <t>2025.06.27</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MISTÉRIO DA TERRA S.A.</t>
+          <t>HEINEKEN BROUWERIJEN B.V.</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.racius.com/misterio-da-terra-s-a/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>509623794</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Rua Casal Canas, 14 - 3 A</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2790-204 Carnaxide</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>07/2025</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>07/2035</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t xml:space="preserve">28 </t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>123456808</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>12364</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>748332</t>
+          <t>748487</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025.06.24</t>
+          <t>2025.06.25</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MARWAN BADA UNIPESSOAL LDA</t>
+          <t>KAMAERT - SOLUÇÕES INFORMÁTICAS, UNIPESSOAL, LDA</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>35</v>
-      </c>
-      <c r="E36" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>MASTERMIND NEX ALLIANCE</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.racius.com/marwan-bada-unipessoal-lda/</t>
+          <t>https://www.racius.com/kamaert-solucoes-informaticas-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>518565351</t>
+          <t>503856096</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Avenida 5 de Outubro, Nº 148, 3º G</t>
+          <t>Rua da Fontinha, Nº 8 - Fala</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2900-309 Setubal</t>
+          <t>3045-398 Coimbra</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3519,7 +3543,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -3544,115 +3568,115 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>123456809</t>
+          <t>123456806</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>12365</t>
+          <t>12362</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>748333</t>
+          <t>748490</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025.06.24</t>
+          <t>2025.06.25</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NUNO MIGUEL BERNARDO SIMÕES PT DÁLIA MARIA DELGADO RATÃO SIMÕES</t>
+          <t>JOÃO LOMBARDO, UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/joao-lombardo-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>516684450</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Largo Severim de Faria, 1</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>7000-061 Évora</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t xml:space="preserve">28 </t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456807</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12363</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>748342</t>
+          <t>748502</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025.06.25</t>
+          <t>2025.06.26</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ANDREIA FILIPA LEAL BRANQUINHO</t>
+          <t>MARTINEZ MACHADO - ENGENHARIA, CONSTRUÇÃO E DESIGN LDA</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -3661,536 +3685,532 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/martinez-machado-engenharia-construcao-e-design-lda/</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>518802841</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Travessa Fernanda Alves, Nº 5, 2º Esq</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2820-549 Charneca da Caparica</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t xml:space="preserve">28 </t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456808</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12364</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>748349</t>
+          <t>748505</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025.06.25</t>
+          <t>2025.06.26</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ANA ISABEL ALMEIDA DE MELO PT RICARDO MANUEL BLANCO PERES DE ARAÚJO RÊGO PT DAVID ALEXANDRE JESUS FERREIRA DE GOUVEIA</t>
+          <t>ENSEADA FAVORITA, UNIPESSOAL, LDA.</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/enseada-favorita-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>518252744</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Melo e Sousa, Nº 395, 1º C</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2765-282 Estoril</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t xml:space="preserve">28 </t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456809</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12365</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>748352</t>
+          <t>748510</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025.06.25</t>
+          <t>2025.06.26</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MARIA DO CÉU MAGALHÃES DA SILVA RODRIGUES</t>
+          <t>FPC - PRODUTOS ALIMENTARES, UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/fpc-produtos-alimentares-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>516439456</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Pádua Correia, Nº 261</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>4400-238 Vila Nova de Gaia</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t xml:space="preserve">28 </t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456810</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12366</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>748358</t>
+          <t>748511</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025.06.25</t>
+          <t>2025.06.26</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ANA SOFIA MALHÓ DE ALMEIDA E SOUSA</t>
+          <t>MARCELINO BARROS, UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TIME CAPSULE HAVEN</t>
+          <t>MARCELINO BARROS</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/marcelino-barros-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>505137275</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua da Ponte, Nº 432</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>4905-108 Barcelos</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t xml:space="preserve">28 </t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456811</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12367</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>748359</t>
+          <t>748512</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025.06.25</t>
+          <t>2025.06.26</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ENIGMA VIRTUAL, LDA.</t>
+          <t>CARLA ALEXANDRA MARQUES GALVÃO RAMOS</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>INSPYRAL</t>
+          <t>VAMARA</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://www.racius.com/enigma-virtual-lda/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>508098092</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Rua Pedro Homem de Mello, Nº 55, Sala 5.08</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>4150-599 Porto</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>07/2025</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>07/2035</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t xml:space="preserve">28 </t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>123456810</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>12366</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>748360</t>
+          <t>748513</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025.06.25</t>
+          <t>2025.06.26</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PART CREATIVE STUDIO, LDA</t>
+          <t>FÉLIX E NOGUEIRA LDA</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>O MOTIVO COMUNICAÇÃO</t>
+          <t>TORFENCE</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.racius.com/part-creative-studio-lda/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>517492040</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Rua Pinto Ferreira, N.º 22, 3.º Andar Direito</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1300-464 Lisboa</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>07/2025</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>07/2035</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t xml:space="preserve">28 </t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>123456811</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>12367</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>748361</t>
+          <t>748514</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025.06.25</t>
+          <t>2025.06.26</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DIOGO RODRIGUES SEVERIANO</t>
+          <t>GUILHERME BRÁS DA SILVA PT JOÃO MARIA CORREIA DE BARROS SOTTO MAYOR DE CALHEIROS</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>9</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>UZEE</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
           <t>Not Found</t>
@@ -4260,27 +4280,23 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>748365</t>
+          <t>748515</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025.06.25</t>
+          <t>2025.06.26</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>RICARDO JOÃO FERRO SILVA</t>
+          <t>BRIAN MIGUEL DE AZEVEDO TEIXEIRA</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>41</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>FERRO</t>
-        </is>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
           <t>Not Found</t>
@@ -4350,27 +4366,23 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>748366</t>
+          <t>748516</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025.06.25</t>
+          <t>2025.06.26</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MARIA EMÍLIA TABORDA HENRIQUES DA SILVA DE SOUSA ROQUE</t>
+          <t>DIANA RITA GOMES BRAGA</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>31</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>HERDADE DO MERENGAL</t>
-        </is>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
           <t>Not Found</t>
@@ -4440,117 +4452,109 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>748370</t>
+          <t>748517</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025.06.25</t>
+          <t>2025.06.26</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DESIDERIO &amp; LESLEY - EXPLORAÇÕES DE BARES, LDA</t>
+          <t>PRISCILA RODRIGUES DA SILVA PT RAQUEL SILVA SANTOS</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>43</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>OURA BAR</t>
-        </is>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://www.racius.com/desiderio-lesley-exploracoes-de-bares-lda/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>508401011</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Sítio de Vale Serves, Cx Postal 209 Z, Ferreiras</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>8200-559 Ferreiras</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>07/2025</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>07/2035</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t xml:space="preserve">28 </t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>123456812</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>12368</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>748376</t>
+          <t>748519</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025.06.25</t>
+          <t>2025.06.26</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SOCIEDADE AGRÍCOLA QUINTA DE SOUTELOS, LDA</t>
+          <t>BT CLIMATIZAÇÃO UNIPESSOAL , LDA</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>33</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>MONTELONGO</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
           <t>Not Found</t>
@@ -4620,45 +4624,41 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>748388</t>
+          <t>748523</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025.06.24</t>
+          <t>2025.06.27</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GERAÇÃO MCAR UNIPESSOAL LDA</t>
+          <t>FDFVXF - UNIPESSOAL, LDA</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>35</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>GERAÇÃO MCAR</t>
-        </is>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://www.racius.com/geracao-mcar-unipessoal-lda/</t>
+          <t>https://www.racius.com/fdfvxf-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>517916800</t>
+          <t>518335194</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Zona Industrial da Cocanha, Rua Júlio Santos Pereira 20B</t>
+          <t>Avenida Curry Cabral, Nº. 16, Loja B</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>5400-570 Santa Cruz/Trindade e Sanjurge</t>
+          <t>2700-218 Amadora</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -4698,39 +4698,35 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>123456813</t>
+          <t>123456812</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>12369</t>
+          <t>12368</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>748389</t>
+          <t>748524</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025.06.24</t>
+          <t>2025.06.27</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ITALINA DA CRUZ LOPES</t>
+          <t>MARIA FERNANDA ABIAS SOARES DA SILVA</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>35</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>GRUPO HORIZONTE DA DIASPORA ROTTERDAM</t>
-        </is>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
           <t>Not Found</t>
@@ -4800,45 +4796,45 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>748392</t>
+          <t>748525</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025.06.24</t>
+          <t>2025.06.27</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GPR GASTRONOMIA DO PRINCIPE REAL, LDA.</t>
+          <t>FACETA RESILIENTE LDA</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>OCTO (PUS) DOG</t>
+          <t>ZENITH TRANSITION</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://www.racius.com/gpr-gastronomia-do-principe-real-lda/</t>
+          <t>https://www.racius.com/faceta-resiliente-lda/</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>510698743</t>
+          <t>518854019</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Rua do Loreto, Nº21, R/C</t>
+          <t>Quinta do Povo, Lote 10, São Salvador</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1200-241 Lisboa</t>
+          <t>3510-774 Viseu</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4853,7 +4849,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -4878,57 +4874,53 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>123456814</t>
+          <t>123456813</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>12370</t>
+          <t>12369</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>748393</t>
+          <t>748526</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025.06.24</t>
+          <t>2025.06.27</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GPR GASTRONOMIA DO PRINCIPE REAL, LDA.</t>
+          <t>MARGEM, FABRICANTE DE PRODUTOS DE LIMPEZA, LDA</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>43</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>SEA ME DOG</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://www.racius.com/gpr-gastronomia-do-principe-real-lda/</t>
+          <t>https://www.racius.com/margem-fabricante-de-produtos-de-limpeza-lda/</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>510698743</t>
+          <t>500612200</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Rua do Loreto, Nº21, R/C</t>
+          <t>Estrada de Sacotes, Edifício Margem</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>1200-241 Lisboa</t>
+          <t>2725-525 Sintra</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4943,7 +4935,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -4968,33 +4960,33 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>123456815</t>
+          <t>123456814</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>12371</t>
+          <t>12370</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>748394</t>
+          <t>748528</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025.06.24</t>
+          <t>2025.06.27</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PAULO ROGÉRIO ALVES PEREIRA</t>
+          <t>ADELINO FERRAZ DA SILVA</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
@@ -5066,47 +5058,39 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>748395</t>
+          <t>748529</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025.06.24</t>
+          <t>2025.06.27</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ABEGOARIA COMERCIAL, S.A.</t>
+          <t>CATIVARANIMA ASSOCIAÇÃO CULTURAL</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>33</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>CASTELO DAS PIPAS</t>
-        </is>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://www.racius.com/abegoaria-comercial-s-a/</t>
+          <t>https://www.racius.com/cativaranima-associacao-cultural/</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>513777172</t>
+          <t>513464670</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Rua do Benquerer - Zona Industrial de Mourão</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>7240-248 Mourão</t>
-        </is>
-      </c>
+          <t>Lisboa - Lisboa</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
           <t>07/2025</t>
@@ -5119,7 +5103,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -5144,237 +5128,233 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>123456816</t>
+          <t>123456815</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>12372</t>
+          <t>12371</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>748398</t>
+          <t>748538</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025.06.25</t>
+          <t>2025.06.27</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE EXPLOTACIÓN DE REDES ELECTRÓNICAS SUCURSAL EM PORTUGAL</t>
+          <t>TROUBLELINE, LDA.</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SERES GRUPO DOCAPOSTE</t>
+          <t>SEMENTE CRIATIVA</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/troubleline-lda/</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>510243754</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Avenida Infante D. Henrique, Nº 333 H, Escritório 15</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>1800-282 Lisboa</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t xml:space="preserve">28 </t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456816</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12372</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>748400</t>
+          <t>748539</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025.06.25</t>
+          <t>2025.06.27</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE EXPLOTACION DE REDES ELECTRONICAS Y SERVICIOS S.A. SUCURSAL EM PORTUGAL</t>
+          <t>ANA PAULA CABRIOT DE OLIVEIRA FONSECA</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>SERES CONNECT</t>
-        </is>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://www.racius.com/sociedad-de-explotacion-de-redes-electronicas-y-servicios-s-a-sucursal-em-portugal/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>980624550</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Av. da Liberdade, 36, 6º</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>1250-145 Lisboa</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>07/2025</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>07/2035</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t xml:space="preserve">28 </t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>123456817</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>12373</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>748401</t>
+          <t>748540</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025.06.25</t>
+          <t>2025.06.27</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE EXPLOTACION DE REDES ELECTRONICAS Y SERVICIOS S.A. SUCURSAL EM PORTUGAL</t>
+          <t>DESÍGNIOS &amp; TÁTICAS - LDA</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SERES E-FACTURA</t>
+          <t>ONE VALUE</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://www.racius.com/sociedad-de-explotacion-de-redes-electronicas-y-servicios-s-a-sucursal-em-portugal/</t>
+          <t>https://www.racius.com/designios-taticas-lda/</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>980624550</t>
+          <t>516925776</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Av. da Liberdade, 36, 6º</t>
+          <t>Rua Aquilino Ribeiro, N.º 41, 2 E</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1250-145 Lisboa</t>
+          <t>2790-028 Carnaxide</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -5389,7 +5369,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -5414,53 +5394,57 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>123456818</t>
+          <t>123456817</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>12374</t>
+          <t>12373</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>748402</t>
+          <t>748544</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025.06.25</t>
+          <t>2025.06.27</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE EXPLOTACION DE REDES ELECTRONICAS Y SERVICIOS S.A. SUCURSAL EM PORTUGAL</t>
+          <t>NXT MANAGEMENT, LDA</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
-      </c>
-      <c r="E58" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>WIDE</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://www.racius.com/sociedad-de-explotacion-de-redes-electronicas-y-servicios-s-a-sucursal-em-portugal/</t>
+          <t>https://www.racius.com/nxt-management-lda/</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>980624550</t>
+          <t>513586032</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Av. da Liberdade, 36, 6º</t>
+          <t>Avenida Sidónio Pais, Nº 24, 2º Dtº</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1250-145 Lisboa</t>
+          <t>1050-215 Lisboa</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -5475,7 +5459,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -5500,215 +5484,207 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>123456819</t>
+          <t>123456818</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>12375</t>
+          <t>12374</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>748403</t>
+          <t>748550</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025.06.25</t>
+          <t>2025.06.27</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>WAKAI MD, LDA.</t>
+          <t>ORLANDO MACEDO DO PAÇO</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://www.racius.com/wakai-md-lda/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>517231581</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Avenida Praia da Vitória, N.º 12-B</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1000-247 Lisboa</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>07/2025</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>07/2035</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t xml:space="preserve">28 </t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>123456820</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>12376</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>748405</t>
+          <t>748556</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025.06.25</t>
+          <t>2025.06.27</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>FÓRMULAS &amp; DOUTRINAS, LDA</t>
+          <t>SIMÃO PEDRO MAGALHÃES PINTO</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>35</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>BRITWELL CLINIC</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://www.racius.com/formulas-doutrinas-lda/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>517971135</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Rua António Nobre, Nº 1D, 3º Dtº</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2800-260 Cacilhas</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>07/2025</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>07/2035</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t xml:space="preserve">28 </t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>34,44</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>123456821</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>12377</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>748407</t>
+          <t>748559</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025.06.25</t>
+          <t>2025.06.27</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>180 GRAUS BAR LD.ª</t>
+          <t>PEDRO TELMO SALGUEIRO DA SILVA</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>43</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>TWIST &amp; SPRITZ</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
           <t>Not Found</t>
@@ -5778,45 +5754,45 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>748409</t>
+          <t>748560</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025.06.25</t>
+          <t>2025.06.27</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ZERO DOSAGE, LDA</t>
+          <t>CHALLENGING EXHIBITION - LDA</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ZERO DOSAGE</t>
+          <t>BEYX</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://www.racius.com/zero-dosage-lda/</t>
+          <t>https://www.racius.com/challenging-exhibition-lda/</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>518764230</t>
+          <t>518787958</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Rua Correia de Sá, Nº 349, Casa 7</t>
+          <t>Praça Nossa Senhora da Conceição, Lote 12, Entrada B, 3º Direito</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>4150-229 Lordelo do Ouro</t>
+          <t>5000-436 Vila Real</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -5831,7 +5807,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -5856,57 +5832,57 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>123456822</t>
+          <t>123456819</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>12378</t>
+          <t>12375</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>748413</t>
+          <t>748566</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025.06.25</t>
+          <t>2025.06.28</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>TOPPERFORMANCE, LDA</t>
+          <t>DESIGN &amp; DINÂMICAS, LDA</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SIMPLIFICAMENTE</t>
+          <t>MADEIRA MEANS WOOD</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://www.racius.com/topperformance-lda/</t>
+          <t>https://www.racius.com/design-dinamicas-lda/</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>510704654</t>
+          <t>514423773</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rua Comandante Luís Pinto da Silva, Nº 70, R/C, Loja 9</t>
+          <t>Rua dos Ferreiros, N.º 3</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>4830-535 Póvoa de Lanhoso</t>
+          <t>9000-082 Funchal</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -5921,7 +5897,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -5946,33 +5922,33 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>123456823</t>
+          <t>123456820</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>12379</t>
+          <t>12376</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>748475</t>
+          <t>748567</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2025.06.24</t>
+          <t>2025.06.28</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SOFIA DINIS ROCHETA</t>
+          <t>FREDERICO CAMACHO LOPES</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
@@ -6044,21 +6020,21 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>748476</t>
+          <t>748570</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2025.06.24</t>
+          <t>2025.06.28</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SOFIA DINIS ROCHETA</t>
+          <t>ALEXANDRE MIGUEL CALADO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
@@ -6130,21 +6106,21 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>748480</t>
+          <t>748576</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2025.06.24</t>
+          <t>2025.06.29</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>KAEWTA ARTKONGHAN</t>
+          <t>PEDRO FILIPE TEIXEIRA NUNES</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
@@ -6216,21 +6192,21 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>748481</t>
+          <t>748577</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2025.06.24</t>
+          <t>2025.06.29</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>NELSON FERNANDES LOPES</t>
+          <t>ASDRUBAL HERMES SATURNINO DE CARVALHO</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
@@ -6302,7 +6278,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>748482</t>
+          <t>748579</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -6312,31 +6288,31 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>PARTILHEMPATIA TECNOLOGIA LDA.</t>
+          <t>GRAVITY GLOBAL VENTURES, LDA</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://www.racius.com/partilhempatia-tecnologia-lda/</t>
+          <t>https://www.racius.com/gravity-global-ventures-lda/</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>518700330</t>
+          <t>518806502</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rua da Prata, Nº 80</t>
+          <t>Praça Nuno Rodrigues dos Santos, Nº 7</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>1100-420 Lisboa</t>
+          <t>1600-171 Lisboa</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -6351,7 +6327,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -6376,33 +6352,33 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>123456824</t>
+          <t>123456821</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>12380</t>
+          <t>12377</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>748483</t>
+          <t>748581</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2025.06.25</t>
+          <t>2025.06.27</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>IBRAHIMA LY</t>
+          <t>JAMIL RIBEIRO CADE BR ANA CAROLINA FACUNDO CASTRO DE AQUINO</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
@@ -6474,45 +6450,41 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>748489</t>
+          <t>748587</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2025.06.25</t>
+          <t>2025.06.27</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>INVENIO ENGENHARIA, S.A.</t>
+          <t>HUGO DANIEL CARNEIRO MARTINS, UNIPESSOAL, LDA.</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>37</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>INVENIO - O FUTURO CONSTROI-SE</t>
-        </is>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://www.racius.com/invenio-engenharia-s-a/</t>
+          <t>https://www.racius.com/hugo-daniel-carneiro-martins-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>510637981</t>
+          <t>518533107</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Rua Bento Carqueja, Armazém 1, Zona Industrial da Maia, Sector X</t>
+          <t>Rua São Bento da Batalha, 143, Santo Tirso</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>4475-248 Maia</t>
+          <t>4780-547 Santo Tirso</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -6527,7 +6499,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -6552,39 +6524,35 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>123456825</t>
+          <t>123456822</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>12381</t>
+          <t>12378</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>748679</t>
+          <t>748588</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2025.07.03</t>
+          <t>2025.06.27</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>GOLDENPRAXIS,LDA</t>
+          <t>PAULO CÉSAR ROCHA MOREIRA PT NUNO PHILIP CRUZ</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>36</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>C&amp;F REALESTATE art.12º-5 do cpi</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
           <t>Not Found</t>
@@ -6654,39 +6622,45 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>58240</t>
+          <t>748589</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2025.06.23</t>
+          <t>2025.06.27</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>TIMBREPIONEIRO, LDA.</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+          <t>EASY WAY PRIME CONSULTORIA EMPRESARIAL LDA</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>41</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>EWP DIGITAL</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://www.racius.com/timbrepioneiro-lda/</t>
+          <t>https://www.racius.com/easy-way-prime-consultoria-empresarial-lda/</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>518831051</t>
+          <t>506630927</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Rua Dr. Dinis Moreira da Mota, Nº. 68 B, 2.º Esqº.</t>
+          <t>Rua da Polícia de Segurança Pública, Lote 1, R/C Esqº</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>9600-075 Pico da Pedra</t>
+          <t>8000-204 Faro</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -6701,7 +6675,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -6726,12 +6700,2952 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
+          <t>123456823</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>12379</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>748591</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>REX FORTIS SA</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>33</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>QUINTA DAS AGUAS</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/rex-fortis-s-a/</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>513806369</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Rua D. Nuno Álvares Pereira, Nº 357</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>4760-480 Vila Nova de Famalicão</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>123456824</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>12380</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>748592</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>X-EVOLUTION, SOLUÇÕES INFORMÁTICAS LDA.</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>39</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>EVOROUTECHECK</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/x-evolution-solucoes-informaticas-lda/</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>515271853</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Estrada de Paço de Arcos, Nº 66</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2735-336 Agualva</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>123456825</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>12381</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>748593</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>ANA FILIPA MARTINS CORREIA</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>41</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>FILIPA MARTINS</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>748594</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>SANTOSOM - COMÉRCIO E INDÚSTRIA DE AUDIOVISUAL LDA.</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>20</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>GEARDOCK</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/santosom-comercio-e-industria-de-audiovisual-lda/</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>504734075</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Rua da Gândara, Nº 334, Fracção W</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>3885-246 Cortegaça Ovr</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
           <t>123456826</t>
         </is>
       </c>
-      <c r="R72" t="inlineStr">
+      <c r="R76" t="inlineStr">
         <is>
           <t>12382</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>748606</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2025.06.28</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>RAFAEL CARVALHO SIMÕES</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>41</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>THE HANGOVER BAND</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>748607</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2025.06.28</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>EUGÉNIO MIGUEL MADEIRA</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>29</v>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>748618</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>ALICE DA CONCEIÇÃO DE MAGALHÃES ALVES</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>30</v>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>748620</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>SOCIEDADE AGRICOLA JORGE ROSA SANTOS E FILHOS LDA</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>33</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>NOTÁVEL VILA</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>748621</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ALTHUM.COM - EDIÇÕES ESPECIAIS LDA</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>35</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>MÝTHOS.COM</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/althum-com-edicoes-especiais-lda/</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>507600649</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Rua Conde de Sabugosa, Nº 7, 1º Direito</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>1700-115 Lisboa</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>123456827</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>12383</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>748624</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>REBECA FILIPA CARDOSO E NOBRE PINHEIRO GOMES</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>25</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>TICX</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>748634</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>MAÇANITA VINHOS, LDA</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>33</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>CASSETE PIRATA DA MAÇANITA</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/macanita-vinhos-lda/</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>509711715</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Quinta de Sequeirós, Sequeirós</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>5050-312 Loureiro Prg</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>123456828</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>12384</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>748635</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ANDRÉ BERNARDINO CARVALHO DE SOUSA</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>10</v>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>748646</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>INOVA MEDICAL &amp; SURGICAL, LDA</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>41</v>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/inova-medical-surgical-lda/</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>515466093</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Rua de Rebouça, Nº 35, Troporiz</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>4950-800 Troporiz</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>123456829</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>12385</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>748693</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>PINTO ASCENSÃO - UNIPLESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>44</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>LEZEN</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>748694</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>MAFALDA CLETO</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>44</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>CLETO CLINIC</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/mafalda-cleto-lda/</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>516356550</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Rua Infantaria 16, Nº 64, 5º Frt</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>1350-169 Lisboa</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>123456830</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>12386</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>748736</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2025.07.07</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>TELMO FILIPE TEIXEIRA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>36</v>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>748777</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>JOAO CARLOS MOUTINHO DA COSTA OLIVEIRA, UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>33</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>PÉ DE CHINELO</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/joao-carlos-moutinho-da-costa-oliveira-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>515464163</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Rua Virgílio Ferreira, 50, 1 Esq</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>4430-686 Mafamude</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>123456831</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>12387</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>748836</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2025.07.03</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ILHA DOS REFÚGIOS - LDA.</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>9</v>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/ilha-dos-refugios-lda/</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>518819558</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Rua Imperatriz Dona Amélia, N.º 65, 2.º Pestana Casino Park - Administração</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>9004-513 Funchal</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>123456832</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>12388</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>58243</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ZEUS VIRTUAL UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/zeus-virtual-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>517707039</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Largo Almirante Gago Coutinho, Nº 6, 6A</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2780-245 Oeiras</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>123456833</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>12389</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>58244</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>PHPEEL LDA</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>LOGÓTIPOS idos ade Industrial, a seguir se publicam os pedidos de registo de a contar-se o prazo de dois meses para a apresentação de ncessão dos mesmos, em conformidade com o artigo 17.º do</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/phpeel-lda/</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>518009394</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Rua 1º de Agosto O Paivense, Nº 16-C, Alto do Seixalinho</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2830-048 Barreiro</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>123456834</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>12390</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>58247</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>ANÍBAL SANTOS &amp; RODRIGUES, LDA</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>58248</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>GERAÇÃO MCAR UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/geracao-mcar-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>517916800</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Zona Industrial da Cocanha, Rua Júlio Santos Pereira 20B</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>5400-570 Santa Cruz/Trindade e Sanjurge</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>123456835</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>12391</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>58249</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>JOSÉ FREITAS GONÇALVES, LDA</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/jose-freitas-goncalves-lda/</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>504056190</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Rua de Santana, Nº 167, Pavilhão A</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>4620-510 Pias Lsd</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>123456836</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>12392</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>58250</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>IGREJA EVANGÉLICA ASSEMBLEIA DE DEUS</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>58252</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>LEGUAS FRANZINAS UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/leguas-franzinas-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>517307243</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Rua Padre Giesteira, N.º 225, Apart. 55 - Clube de Férias Atlanta</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>4740-283 Esposende</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>123456837</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>12393</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>58253</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ANTONIO MANUEL AMARO CARVALHO LARGUESA</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>58254</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>CLÍNICA DE REABILITAÇÃO DE CARNAXIDE</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/clinica-de-reabilitacao-de-carnaxide-lda/</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>503453323</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Rua 25 de Abril, Lote 6, Loja 8, Centro Cívico de Carnaxide</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>2790-129 Carnaxide</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>123456838</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>12394</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>58255</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>JOÃO ARTUR DIAS MORGADO PEREIRA</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>58256</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>MARIA ADELINA FREIRE DE MIRANDA NUNES</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>58257</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>@AZORES EXPLORE YOUR SENSES LDA</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>58258</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>MARTINEZ MACHADO - ENGENHARIA, CONSTRUÇÃO E DESIGN LDA</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/martinez-machado-engenharia-construcao-e-design-lda/</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>518802841</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Travessa Fernanda Alves, Nº 5, 2º Esq</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>2820-549 Charneca da Caparica</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>123456839</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>12395</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>58259</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>ASSUNTOS TRANQUILOS, LDA.</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/assuntos-tranquilos-lda/</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>515967238</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Rua Nova de São Pedro, Lote 8, Esculca</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>3500-051 Viseu</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>123456840</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>12396</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>58260</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>IVO DANIEL PIRES LOPES</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>58268</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>SOCIEDADE PORTUGUESA DE PNEUMOLOGIA</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/sociedade-portuguesa-de-pneumologia/</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>501109021</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Lisboa - Lisboa</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>123456841</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>12397</t>
         </is>
       </c>
     </row>

--- a/webscrapping school/msaces/racius_links_output.xlsx
+++ b/webscrapping school/msaces/racius_links_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R106"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9649,6 +9649,356 @@
         </is>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Número</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Nome do requerente, nacionalidade, profissão, morada.</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Reprodução do sinal.</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>747615</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2025.06.11</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>RAQUEL NAZARIO MOTTA</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>44</v>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>748008</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2025.06.17</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>HVP INVEST, UNIPESSOAL, LDA.</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>35</v>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/hvp-invest-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>518180352</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Centro Comercial Vale do Sousa, Loja N.º 137, Avenida Comendador Abílio Seabra, 5-7</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>4580-029 Paredes</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>123456894</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>12450</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>748120</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2025.06.19</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>FREGUESIA SÃO JOÃO DE FOUTOURA FREGUESIA DA CEREJA</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>39</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>ROTA DOS CEREJAIS</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/webscrapping school/msaces/racius_links_output.xlsx
+++ b/webscrapping school/msaces/racius_links_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R110"/>
+  <dimension ref="A1:R210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9999,6 +9999,8690 @@
         </is>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>748279</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2025.06.20</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>SILVESTRERAZÃO, LDA.</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>43</v>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/silvestrerazao-lda/</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>518082717</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Rua de São José, Nº 663</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>2750-136 Cascais</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>123456895</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>12451</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>748368</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>ANA DANIELA FERREIRA SANTOS</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>16</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>GRAPHIUM PAPELARIA</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>748369</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>ZABELE, LDA</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>33</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>ANTÓNIO ZAMBUJO 1975</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/zabele-lda/</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>516438336</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Rua Ernesto Melo Antunes, Nº 3</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>7800-591 Beja</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>123456896</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>12452</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>748373</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>PEDRO MIGUEL PESTANA GOMES DE CASTRO</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>43</v>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>748374</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>DA CONCEIÇÃO &amp; SALDANHA - SOLUÇÕES AMBIENTAIS E CIRCULARES, LDA</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>35</v>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/da-conceicao-saldanha-solucoes-ambientais-e-circulares-lda/</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>516664735</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Parque Empresarial da Baía do Tejo, Rua 2, Edifício N.º 23</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>2830-302 Barreiro</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>123456897</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>12453</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>748377</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>RICHEMONT INTERNATIONAL SA</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>14</v>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/richemont-international-sa/</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>980363748</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Route Des Biches 10, Villars-Sur-Glâne, Suiça</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>123456898</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>12454</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>748379</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>RECHEIO - CASH &amp; CARRY, S.A.</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>16</v>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/recheio-cash-carry-s-a/</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>500145415</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Rua Actor António Silva, Nº7</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>1649-033 Lisboa</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>123456899</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>12455</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>748382</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>FRESH TRADING LIMITED</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>29</v>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>748383</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>IDD - PORTUGAL DEFENCE, S.A.</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>35</v>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/idd-portugal-defence-s-a/</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>503939668</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Estrada da Luz, Nº 153/155</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>1600-155 Lisboa</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>123456900</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>12456</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>748387</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>CONQUISTATRADIÇÃO, LDA</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>33</v>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/conquistatradicao-lda/</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>510337546</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Rua Clube Atlético de Rio Tinto, Armazém, 143, Rio Tinto, Gondomar</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>4435-188 Rio Tinto</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>123456901</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>12457</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>748396</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>TEOREMENLAÇADO-UNIPESSOAL.LDA</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>25</v>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>748404</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>180 GRAUS BAR LD.ª</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>43</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>BAR DO MERCADO</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>748408</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>GRANDOCARP - MONTAGEM DE CARPINTARIAS, LDA.</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>19</v>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/grandocarp-montagem-de-carpintarias-lda/</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>504939564</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Travessa da Amoreira, 1</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>7570-319 Grândola</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>123456902</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>12458</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>748417</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>LOGICOGITATE LDA</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>9</v>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/logicogitate-lda/</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>515320790</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Travessa de São José, Lote 16</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>4730-330 Vila Verde</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>123456903</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>12459</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>748418</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>ANABELA FERREIRA DE CASTRO</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>36</v>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>748419</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>JOÃO GONÇALO MOREIRA, UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>33</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>INVERSU</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/joao-goncalo-moreira-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>516928724</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Rua Manuel Pedro Cardoso, Bloco B, R/C Esq.º</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>2590-033 Sobral de Monte Agraço</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>123456904</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>12460</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>748425</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>DECISÃO VALENTE, LDA</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>44</v>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/decisao-valente-lda/</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>516942603</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Avenida Abade Baçal, Nº 11</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>5300-068 Bragança</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>123456905</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>12461</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>748429</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>CARINA &amp; MARCO MACHADO - AGRICULTURA REGENERATIVA, LDA</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>29</v>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/carina-marco-machado-agricultura-regenerativa-lda/</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>518443299</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Rua Doutor Jerónimo Ribeiro, N.º 7</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>2550-150 Cadaval</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>123456906</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>12462</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>748432</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>GONÇALO TAVARES GARCIA</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>37</v>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>748435</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>JOSÉ HENRIQUE DE PINHO GONÇALVES</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>25</v>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>748441</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>JOANA VALHELHAS, UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>9</v>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/joana-valhelhas-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>517066386</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Rua Lagar de Freire, N.º 5</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>2230-180 Valhascos</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>123456907</t>
+        </is>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>12463</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>748445</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>PEDRO MIGUEL SOUSA RODRIGUES DE OLIVEIRA PT MIGUEL ÂNGELO LOPES PEREIRA PT MIGUEL ÂNGELO FERNANDES POLERI MACHADO PT TIAGO ALEXANDRE FERREIRA GONÇALVES PT RUI GABRIEL DA COSTA FERREIRA PT JOSÉ PEDRO FERREIRA LEITE PT RUI EMANUEL BRAGA DO VALE</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>24</v>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>748448</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>AFONSO AZEVEDO UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>25</v>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/afonso-azevedo-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>518581314</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Rua da Lage, Nº 118</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>4710-086 Braga</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>123456908</t>
+        </is>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>12464</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>748452</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>HORTIPOR - EXPORT, LDA.</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>31</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>SIMPLESMENTE HORTIPOR</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/hortipor-export-lda/</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>505687607</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Rua do Concelho, Nº 27, Pinheiro Manso</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>2560-045 A dos Cunhados - Torres Vedras</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>123456909</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>12465</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>748453</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>CRG - CENTRO RENDIMENTO GUIMARAES LDA</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>39</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>PROBOX</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>748454</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>ANITA COSTA CRISTINA BELEZA</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>9</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>ANITA COSTA</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>748457</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>HUGO DE OLIVEIRA SANTOS</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>44</v>
+      </c>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>748460</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>ADALIS INDUSTRIAL SOLUTIONS, S.A.U.</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>35</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>ADALIS</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>748461</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>SOVENA PORTUGAL-CONSUMER GOODS, S.A.</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>30</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>FULA</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/sovena-portugal-consumer-goods-s-a/</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>500833532</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Rua Dr. António Loureiro Borges Nº 2 3º, Edifício Arquiparque, Miraflores</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>1495-131 Algés</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>123456910</t>
+        </is>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>12466</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>748463</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>HEINEKEN BROUWERIJEN B.V.</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>32</v>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>748487</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>KAMAERT - SOLUÇÕES INFORMÁTICAS, UNIPESSOAL, LDA</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>41</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>MASTERMIND NEX ALLIANCE</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/kamaert-solucoes-informaticas-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>503856096</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Rua da Fontinha, Nº 8 - Fala</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>3045-398 Coimbra</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>123456911</t>
+        </is>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>12467</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>748490</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>JOÃO LOMBARDO, UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>35</v>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/joao-lombardo-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>516684450</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Largo Severim de Faria, 1</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>7000-061 Évora</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>123456912</t>
+        </is>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>12468</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>748502</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>MARTINEZ MACHADO - ENGENHARIA, CONSTRUÇÃO E DESIGN LDA</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>37</v>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/martinez-machado-engenharia-construcao-e-design-lda/</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>518802841</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Travessa Fernanda Alves, Nº 5, 2º Esq</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>2820-549 Charneca da Caparica</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>123456913</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>12469</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>748505</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>ENSEADA FAVORITA, UNIPESSOAL, LDA.</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>36</v>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/enseada-favorita-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>518252744</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Rua Melo e Sousa, Nº 395, 1º C</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>2765-282 Estoril</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>123456914</t>
+        </is>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>12470</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>748510</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>FPC - PRODUTOS ALIMENTARES, UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>35</v>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/fpc-produtos-alimentares-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>516439456</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Rua Pádua Correia, Nº 261</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>4400-238 Vila Nova de Gaia</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>123456915</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>12471</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>748511</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>MARCELINO BARROS, UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>37</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>MARCELINO BARROS</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/marcelino-barros-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>505137275</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Rua da Ponte, Nº 432</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>4905-108 Barcelos</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>123456916</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>12472</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>748512</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>CARLA ALEXANDRA MARQUES GALVÃO RAMOS</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>4</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>VAMARA</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>748513</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>FÉLIX E NOGUEIRA LDA</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>6</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>TORFENCE</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>748514</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>GUILHERME BRÁS DA SILVA PT JOÃO MARIA CORREIA DE BARROS SOTTO MAYOR DE CALHEIROS</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>9</v>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>748515</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>BRIAN MIGUEL DE AZEVEDO TEIXEIRA</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>33</v>
+      </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>748516</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>DIANA RITA GOMES BRAGA</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>25</v>
+      </c>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>748517</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>PRISCILA RODRIGUES DA SILVA PT RAQUEL SILVA SANTOS</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>26</v>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>748519</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>BT CLIMATIZAÇÃO UNIPESSOAL , LDA</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>37</v>
+      </c>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>748523</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>FDFVXF - UNIPESSOAL, LDA</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>6</v>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/fdfvxf-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>518335194</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Avenida Curry Cabral, Nº. 16, Loja B</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>2700-218 Amadora</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>123456917</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>12473</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>748524</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>MARIA FERNANDA ABIAS SOARES DA SILVA</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>25</v>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>748525</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>FACETA RESILIENTE LDA</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>10</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>ZENITH TRANSITION</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/faceta-resiliente-lda/</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>518854019</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Quinta do Povo, Lote 10, São Salvador</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>3510-774 Viseu</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>123456918</t>
+        </is>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>12474</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>748526</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>MARGEM, FABRICANTE DE PRODUTOS DE LIMPEZA, LDA</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>5</v>
+      </c>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/margem-fabricante-de-produtos-de-limpeza-lda/</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>500612200</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Estrada de Sacotes, Edifício Margem</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>2725-525 Sintra</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>123456919</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>12475</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>748528</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>ADELINO FERRAZ DA SILVA</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>37</v>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>748529</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>CATIVARANIMA ASSOCIAÇÃO CULTURAL</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>41</v>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/cativaranima-associacao-cultural/</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>513464670</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Lisboa - Lisboa</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>123456920</t>
+        </is>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>12476</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>748539</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>ANA PAULA CABRIOT DE OLIVEIRA FONSECA</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>36</v>
+      </c>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>748540</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>DESÍGNIOS &amp; TÁTICAS - LDA</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>36</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>ONE VALUE</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/designios-taticas-lda/</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>516925776</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Rua Aquilino Ribeiro, N.º 41, 2 E</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>2790-028 Carnaxide</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>123456921</t>
+        </is>
+      </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>12477</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>748544</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>NXT MANAGEMENT, LDA</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>35</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>WIDE</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/nxt-management-lda/</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>513586032</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Avenida Sidónio Pais, Nº 24, 2º Dtº</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>1050-215 Lisboa</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>123456922</t>
+        </is>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>12478</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>748550</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>ORLANDO MACEDO DO PAÇO</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>36</v>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>748556</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>SIMÃO PEDRO MAGALHÃES PINTO</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>37</v>
+      </c>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>748559</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>PEDRO TELMO SALGUEIRO DA SILVA</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>35</v>
+      </c>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>748560</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>CHALLENGING EXHIBITION - LDA</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>9</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>BEYX</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/challenging-exhibition-lda/</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>518787958</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Praça Nossa Senhora da Conceição, Lote 12, Entrada B, 3º Direito</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>5000-436 Vila Real</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>123456923</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>12479</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>748566</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2025.06.28</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>DESIGN &amp; DINÂMICAS, LDA</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>25</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>MADEIRA MEANS WOOD</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/design-dinamicas-lda/</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>514423773</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Rua dos Ferreiros, N.º 3</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>9000-082 Funchal</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>123456924</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>12480</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>748567</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2025.06.28</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>FREDERICO CAMACHO LOPES</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>41</v>
+      </c>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>748570</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2025.06.28</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>ALEXANDRE MIGUEL CALADO DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>41</v>
+      </c>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>748576</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2025.06.29</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>PEDRO FILIPE TEIXEIRA NUNES</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>14</v>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>748577</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2025.06.29</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>ASDRUBAL HERMES SATURNINO DE CARVALHO</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>25</v>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>748579</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>GRAVITY GLOBAL VENTURES, LDA</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>36</v>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/gravity-global-ventures-lda/</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>518806502</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Praça Nuno Rodrigues dos Santos, Nº 7</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>1600-171 Lisboa</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>123456925</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>12481</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>748581</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>JAMIL RIBEIRO CADE BR ANA CAROLINA FACUNDO CASTRO DE AQUINO</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>41</v>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>748587</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>HUGO DANIEL CARNEIRO MARTINS, UNIPESSOAL, LDA.</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>11</v>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/hugo-daniel-carneiro-martins-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>518533107</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Rua São Bento da Batalha, 143, Santo Tirso</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>4780-547 Santo Tirso</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>123456926</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>12482</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>748588</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>PAULO CÉSAR ROCHA MOREIRA PT NUNO PHILIP CRUZ</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>3</v>
+      </c>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>748589</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>EASY WAY PRIME CONSULTORIA EMPRESARIAL LDA</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>41</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>EWP DIGITAL</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/easy-way-prime-consultoria-empresarial-lda/</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>506630927</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Rua da Polícia de Segurança Pública, Lote 1, R/C Esqº</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>8000-204 Faro</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>123456927</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>12483</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>748591</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>REX FORTIS SA</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>33</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>QUINTA DAS AGUAS</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/rex-fortis-s-a/</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>513806369</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Rua D. Nuno Álvares Pereira, Nº 357</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>4760-480 Vila Nova de Famalicão</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>123456928</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>12484</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>748592</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>X-EVOLUTION, SOLUÇÕES INFORMÁTICAS LDA.</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>39</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>EVOROUTECHECK</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/x-evolution-solucoes-informaticas-lda/</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>515271853</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Estrada de Paço de Arcos, Nº 66</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>2735-336 Agualva</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>123456929</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>12485</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>748593</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>ANA FILIPA MARTINS CORREIA</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>41</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>FILIPA MARTINS</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>748594</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>SANTOSOM - COMÉRCIO E INDÚSTRIA DE AUDIOVISUAL LDA.</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>20</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>GEARDOCK</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/santosom-comercio-e-industria-de-audiovisual-lda/</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>504734075</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Rua da Gândara, Nº 334, Fracção W</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>3885-246 Cortegaça Ovr</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>123456930</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>12486</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>748606</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2025.06.28</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>RAFAEL CARVALHO SIMÕES</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>41</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>THE HANGOVER BAND</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>748607</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2025.06.28</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>EUGÉNIO MIGUEL MADEIRA</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>29</v>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>748618</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>ALICE DA CONCEIÇÃO DE MAGALHÃES ALVES</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>30</v>
+      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>748620</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>SOCIEDADE AGRICOLA JORGE ROSA SANTOS E FILHOS LDA</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>33</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>NOTÁVEL VILA</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>748621</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>ALTHUM.COM - EDIÇÕES ESPECIAIS LDA</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>35</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>MÝTHOS.COM</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/althum-com-edicoes-especiais-lda/</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>507600649</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Rua Conde de Sabugosa, Nº 7, 1º Direito</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>1700-115 Lisboa</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>123456931</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>12487</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>748624</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>REBECA FILIPA CARDOSO E NOBRE PINHEIRO GOMES</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>25</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>TICX</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>748634</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>MAÇANITA VINHOS, LDA</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>33</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>CASSETE PIRATA DA MAÇANITA</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/macanita-vinhos-lda/</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>509711715</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Quinta de Sequeirós, Sequeirós</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>5050-312 Loureiro Prg</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>123456932</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>12488</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>748635</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>ANDRÉ BERNARDINO CARVALHO DE SOUSA</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>10</v>
+      </c>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>748646</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>INOVA MEDICAL &amp; SURGICAL, LDA</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>41</v>
+      </c>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/inova-medical-surgical-lda/</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>515466093</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Rua de Rebouça, Nº 35, Troporiz</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>4950-800 Troporiz</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>123456933</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>12489</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>748693</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>PINTO ASCENSÃO - UNIPLESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>44</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>LEZEN</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>748694</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>MAFALDA CLETO</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>44</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>CLETO CLINIC</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/mafalda-cleto-lda/</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>516356550</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Rua Infantaria 16, Nº 64, 5º Frt</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>1350-169 Lisboa</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>123456934</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>12490</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>748736</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2025.07.07</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>TELMO FILIPE TEIXEIRA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>36</v>
+      </c>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>748777</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>JOAO CARLOS MOUTINHO DA COSTA OLIVEIRA, UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>33</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>PÉ DE CHINELO</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/joao-carlos-moutinho-da-costa-oliveira-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>515464163</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Rua Virgílio Ferreira, 50, 1 Esq</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>4430-686 Mafamude</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>123456935</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>12491</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>748836</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2025.07.03</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>ILHA DOS REFÚGIOS - LDA.</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>9</v>
+      </c>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/ilha-dos-refugios-lda/</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>518819558</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Rua Imperatriz Dona Amélia, N.º 65, 2.º Pestana Casino Park - Administração</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>9004-513 Funchal</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>123456936</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>12492</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>58243</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>ZEUS VIRTUAL UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/zeus-virtual-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>517707039</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Largo Almirante Gago Coutinho, Nº 6, 6A</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>2780-245 Oeiras</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>123456937</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>12493</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>58244</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>PHPEEL LDA</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>LOGÓTIPOS idos ade Industrial, a seguir se publicam os pedidos de registo de a contar-se o prazo de dois meses para a apresentação de ncessão dos mesmos, em conformidade com o artigo 17.º do</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/phpeel-lda/</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>518009394</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Rua 1º de Agosto O Paivense, Nº 16-C, Alto do Seixalinho</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>2830-048 Barreiro</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>123456938</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>12494</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>58247</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>ANÍBAL SANTOS &amp; RODRIGUES, LDA</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>58248</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>GERAÇÃO MCAR UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/geracao-mcar-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>517916800</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Zona Industrial da Cocanha, Rua Júlio Santos Pereira 20B</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>5400-570 Santa Cruz/Trindade e Sanjurge</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>123456939</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>12495</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>58249</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>JOSÉ FREITAS GONÇALVES, LDA</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/jose-freitas-goncalves-lda/</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>504056190</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Rua de Santana, Nº 167, Pavilhão A</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>4620-510 Pias Lsd</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>123456940</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>12496</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>58250</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>IGREJA EVANGÉLICA ASSEMBLEIA DE DEUS</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>58252</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>LEGUAS FRANZINAS UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/leguas-franzinas-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>517307243</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Rua Padre Giesteira, N.º 225, Apart. 55 - Clube de Férias Atlanta</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>4740-283 Esposende</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>123456941</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>12497</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>58253</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>ANTONIO MANUEL AMARO CARVALHO LARGUESA</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>58254</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>CLÍNICA DE REABILITAÇÃO DE CARNAXIDE</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/clinica-de-reabilitacao-de-carnaxide-lda/</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>503453323</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Rua 25 de Abril, Lote 6, Loja 8, Centro Cívico de Carnaxide</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>2790-129 Carnaxide</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>123456942</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>12498</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>58255</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>JOÃO ARTUR DIAS MORGADO PEREIRA</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>58256</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>MARIA ADELINA FREIRE DE MIRANDA NUNES</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>58257</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>@AZORES EXPLORE YOUR SENSES LDA</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>58258</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>MARTINEZ MACHADO - ENGENHARIA, CONSTRUÇÃO E DESIGN LDA</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/martinez-machado-engenharia-construcao-e-design-lda/</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>518802841</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Travessa Fernanda Alves, Nº 5, 2º Esq</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>2820-549 Charneca da Caparica</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>123456943</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>12499</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>58259</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>ASSUNTOS TRANQUILOS, LDA.</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/assuntos-tranquilos-lda/</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>515967238</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Rua Nova de São Pedro, Lote 8, Esculca</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>3500-051 Viseu</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>123456944</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>12500</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>58260</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>IVO DANIEL PIRES LOPES</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>58268</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>SOCIEDADE PORTUGUESA DE PNEUMOLOGIA</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/sociedade-portuguesa-de-pneumologia/</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>501109021</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Lisboa - Lisboa</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>123456945</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>12501</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/webscrapping school/msaces/racius_links_output.xlsx
+++ b/webscrapping school/msaces/racius_links_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R210"/>
+  <dimension ref="A1:R211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18683,6 +18683,94 @@
         </is>
       </c>
     </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Número</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Nome do requerente, nacionalidade, profissão, morada.</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Reprodução do sinal.</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/webscrapping school/msaces/racius_links_output.xlsx
+++ b/webscrapping school/msaces/racius_links_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R211"/>
+  <dimension ref="A1:R315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18771,6 +18771,9042 @@
         </is>
       </c>
     </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>747615</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2025.06.11</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>RAQUEL NAZARIO MOTTA</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>44</v>
+      </c>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>748008</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2025.06.17</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>HVP INVEST, UNIPESSOAL, LDA.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>35</v>
+      </c>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/hvp-invest-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>518180352</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Centro Comercial Vale do Sousa, Loja N.º 137, Avenida Comendador Abílio Seabra, 5-7</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>4580-029 Paredes</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>123456998</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>12554</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>748120</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2025.06.19</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>FREGUESIA SÃO JOÃO DE FOUTOURA FREGUESIA DA CEREJA</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>39</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>ROTA DOS CEREJAIS</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>748279</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2025.06.20</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>SILVESTRERAZÃO, LDA.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>43</v>
+      </c>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/silvestrerazao-lda/</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>518082717</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Rua de São José, Nº 663</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>2750-136 Cascais</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>123456999</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>12555</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>748368</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>ANA DANIELA FERREIRA SANTOS</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>16</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>GRAPHIUM PAPELARIA</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>748369</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>ZABELE, LDA</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>33</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>ANTÓNIO ZAMBUJO 1975</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/zabele-lda/</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>516438336</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Rua Ernesto Melo Antunes, Nº 3</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>7800-591 Beja</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>123457000</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>12556</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>748373</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>PEDRO MIGUEL PESTANA GOMES DE CASTRO</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>43</v>
+      </c>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>748374</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>DA CONCEIÇÃO &amp; SALDANHA - SOLUÇÕES AMBIENTAIS E CIRCULARES, LDA</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>35</v>
+      </c>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/da-conceicao-saldanha-solucoes-ambientais-e-circulares-lda/</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>516664735</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Parque Empresarial da Baía do Tejo, Rua 2, Edifício N.º 23</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>2830-302 Barreiro</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>123457001</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>12557</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>748377</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>RICHEMONT INTERNATIONAL SA</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>14</v>
+      </c>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/richemont-international-sa/</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>980363748</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Route Des Biches 10, Villars-Sur-Glâne, Suiça</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>123457002</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>12558</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>748379</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>RECHEIO - CASH &amp; CARRY, S.A.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>16</v>
+      </c>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/recheio-cash-carry-s-a/</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>500145415</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Rua Actor António Silva, Nº7</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>1649-033 Lisboa</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>123457003</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>12559</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>748382</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>FRESH TRADING LIMITED</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>29</v>
+      </c>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>748383</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>IDD - PORTUGAL DEFENCE, S.A.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>35</v>
+      </c>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/idd-portugal-defence-s-a/</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>503939668</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Estrada da Luz, Nº 153/155</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>1600-155 Lisboa</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>123457004</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>12560</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>748387</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>CONQUISTATRADIÇÃO, LDA</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>33</v>
+      </c>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/conquistatradicao-lda/</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>510337546</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Rua Clube Atlético de Rio Tinto, Armazém, 143, Rio Tinto, Gondomar</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>4435-188 Rio Tinto</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>123457005</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>12561</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>748396</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>TEOREMENLAÇADO-UNIPESSOAL.LDA</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>25</v>
+      </c>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>748404</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>180 GRAUS BAR LD.ª</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>43</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>BAR DO MERCADO</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>748408</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>GRANDOCARP - MONTAGEM DE CARPINTARIAS, LDA.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>19</v>
+      </c>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/grandocarp-montagem-de-carpintarias-lda/</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>504939564</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Travessa da Amoreira, 1</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>7570-319 Grândola</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>123457006</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>12562</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>748417</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>LOGICOGITATE LDA</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>9</v>
+      </c>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/logicogitate-lda/</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>515320790</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Travessa de São José, Lote 16</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>4730-330 Vila Verde</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>123457007</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>12563</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>748418</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>ANABELA FERREIRA DE CASTRO</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>36</v>
+      </c>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>748419</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>JOÃO GONÇALO MOREIRA, UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>33</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>INVERSU</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/joao-goncalo-moreira-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>516928724</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Rua Manuel Pedro Cardoso, Bloco B, R/C Esq.º</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>2590-033 Sobral de Monte Agraço</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>123457008</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>12564</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>748425</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>DECISÃO VALENTE, LDA</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>44</v>
+      </c>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/decisao-valente-lda/</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>516942603</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Avenida Abade Baçal, Nº 11</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>5300-068 Bragança</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>123457009</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>12565</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>748429</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>CARINA &amp; MARCO MACHADO - AGRICULTURA REGENERATIVA, LDA</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>29</v>
+      </c>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/carina-marco-machado-agricultura-regenerativa-lda/</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>518443299</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Rua Doutor Jerónimo Ribeiro, N.º 7</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>2550-150 Cadaval</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>123457010</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>12566</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>748432</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>GONÇALO TAVARES GARCIA</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>37</v>
+      </c>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>748435</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>JOSÉ HENRIQUE DE PINHO GONÇALVES</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>25</v>
+      </c>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>748441</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>JOANA VALHELHAS, UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>9</v>
+      </c>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/joana-valhelhas-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>517066386</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Rua Lagar de Freire, N.º 5</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>2230-180 Valhascos</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>123457011</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>12567</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>748445</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>PEDRO MIGUEL SOUSA RODRIGUES DE OLIVEIRA PT MIGUEL ÂNGELO LOPES PEREIRA PT MIGUEL ÂNGELO FERNANDES POLERI MACHADO PT TIAGO ALEXANDRE FERREIRA GONÇALVES PT RUI GABRIEL DA COSTA FERREIRA PT JOSÉ PEDRO FERREIRA LEITE PT RUI EMANUEL BRAGA DO VALE</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>24</v>
+      </c>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>748448</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>AFONSO AZEVEDO UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>25</v>
+      </c>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/afonso-azevedo-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>518581314</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Rua da Lage, Nº 118</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>4710-086 Braga</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>123457012</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>12568</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>748452</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>HORTIPOR - EXPORT, LDA.</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>31</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>SIMPLESMENTE HORTIPOR</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/hortipor-export-lda/</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>505687607</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Rua do Concelho, Nº 27, Pinheiro Manso</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>2560-045 A dos Cunhados - Torres Vedras</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>123457013</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>12569</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>748453</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>CRG - CENTRO RENDIMENTO GUIMARAES LDA</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>39</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>PROBOX</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>748454</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>ANITA COSTA CRISTINA BELEZA</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>9</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>ANITA COSTA</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>748457</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>HUGO DE OLIVEIRA SANTOS</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>44</v>
+      </c>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>748460</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>ADALIS INDUSTRIAL SOLUTIONS, S.A.U.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>35</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>ADALIS</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>748461</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>SOVENA PORTUGAL-CONSUMER GOODS, S.A.</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>30</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>FULA</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/sovena-portugal-consumer-goods-s-a/</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>500833532</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Rua Dr. António Loureiro Borges Nº 2 3º, Edifício Arquiparque, Miraflores</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>1495-131 Algés</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>123457014</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>12570</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>748463</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>HEINEKEN BROUWERIJEN B.V.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>32</v>
+      </c>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>748487</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>KAMAERT - SOLUÇÕES INFORMÁTICAS, UNIPESSOAL, LDA</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>41</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>MASTERMIND NEX ALLIANCE</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/kamaert-solucoes-informaticas-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>503856096</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Rua da Fontinha, Nº 8 - Fala</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>3045-398 Coimbra</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>123457015</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>12571</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>748490</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>JOÃO LOMBARDO, UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>35</v>
+      </c>
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/joao-lombardo-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>516684450</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Largo Severim de Faria, 1</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>7000-061 Évora</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>123457016</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>12572</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>748502</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>MARTINEZ MACHADO - ENGENHARIA, CONSTRUÇÃO E DESIGN LDA</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>37</v>
+      </c>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/martinez-machado-engenharia-construcao-e-design-lda/</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>518802841</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Travessa Fernanda Alves, Nº 5, 2º Esq</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>2820-549 Charneca da Caparica</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>123457017</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>12573</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>748505</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>ENSEADA FAVORITA, UNIPESSOAL, LDA.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>36</v>
+      </c>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/enseada-favorita-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>518252744</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Rua Melo e Sousa, Nº 395, 1º C</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>2765-282 Estoril</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>123457018</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>12574</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>748510</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>FPC - PRODUTOS ALIMENTARES, UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>35</v>
+      </c>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/fpc-produtos-alimentares-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>516439456</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Rua Pádua Correia, Nº 261</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>4400-238 Vila Nova de Gaia</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>123457019</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>12575</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>748511</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>MARCELINO BARROS, UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>37</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>MARCELINO BARROS</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/marcelino-barros-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>505137275</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Rua da Ponte, Nº 432</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>4905-108 Barcelos</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>123457020</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>12576</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>748512</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>CARLA ALEXANDRA MARQUES GALVÃO RAMOS</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>4</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>VAMARA</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>748513</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>FÉLIX E NOGUEIRA LDA</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>6</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>TORFENCE</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>748514</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>GUILHERME BRÁS DA SILVA PT JOÃO MARIA CORREIA DE BARROS SOTTO MAYOR DE CALHEIROS</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>9</v>
+      </c>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>748515</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>BRIAN MIGUEL DE AZEVEDO TEIXEIRA</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>33</v>
+      </c>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>748516</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>DIANA RITA GOMES BRAGA</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>25</v>
+      </c>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>748517</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>PRISCILA RODRIGUES DA SILVA PT RAQUEL SILVA SANTOS</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>26</v>
+      </c>
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>748519</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>BT CLIMATIZAÇÃO UNIPESSOAL , LDA</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>37</v>
+      </c>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>748523</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>FDFVXF - UNIPESSOAL, LDA</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>6</v>
+      </c>
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/fdfvxf-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>518335194</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Avenida Curry Cabral, Nº. 16, Loja B</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>2700-218 Amadora</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>123457021</t>
+        </is>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>12577</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>748524</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>MARIA FERNANDA ABIAS SOARES DA SILVA</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>25</v>
+      </c>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>748525</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>FACETA RESILIENTE LDA</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>10</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>ZENITH TRANSITION</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/faceta-resiliente-lda/</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>518854019</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Quinta do Povo, Lote 10, São Salvador</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>3510-774 Viseu</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>123457022</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>12578</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>748526</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>MARGEM, FABRICANTE DE PRODUTOS DE LIMPEZA, LDA</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>5</v>
+      </c>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/margem-fabricante-de-produtos-de-limpeza-lda/</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>500612200</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Estrada de Sacotes, Edifício Margem</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>2725-525 Sintra</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>123457023</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>12579</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>748528</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>ADELINO FERRAZ DA SILVA</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>37</v>
+      </c>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>748529</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>CATIVARANIMA ASSOCIAÇÃO CULTURAL</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>41</v>
+      </c>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/cativaranima-associacao-cultural/</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>513464670</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Lisboa - Lisboa</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>123457024</t>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>12580</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>748538</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>TROUBLELINE, LDA.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>35</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>SEMENTE CRIATIVA</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/troubleline-lda/</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>510243754</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Avenida Infante D. Henrique, Nº 333 H, Escritório 15</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>1800-282 Lisboa</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>123457025</t>
+        </is>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>12581</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>748539</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>ANA PAULA CABRIOT DE OLIVEIRA FONSECA</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>36</v>
+      </c>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>748540</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>DESÍGNIOS &amp; TÁTICAS - LDA</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>36</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>ONE VALUE</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/designios-taticas-lda/</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>516925776</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Rua Aquilino Ribeiro, N.º 41, 2 E</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>2790-028 Carnaxide</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>123457026</t>
+        </is>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>12582</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>748544</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>NXT MANAGEMENT, LDA</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>35</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>WIDE</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/nxt-management-lda/</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>513586032</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Avenida Sidónio Pais, Nº 24, 2º Dtº</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>1050-215 Lisboa</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>123457027</t>
+        </is>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>12583</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>748550</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>ORLANDO MACEDO DO PAÇO</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>36</v>
+      </c>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>748556</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>SIMÃO PEDRO MAGALHÃES PINTO</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>37</v>
+      </c>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>748559</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>PEDRO TELMO SALGUEIRO DA SILVA</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>35</v>
+      </c>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>748560</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>CHALLENGING EXHIBITION - LDA</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>9</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>BEYX</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/challenging-exhibition-lda/</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>518787958</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Praça Nossa Senhora da Conceição, Lote 12, Entrada B, 3º Direito</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>5000-436 Vila Real</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>123457028</t>
+        </is>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>12584</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>748566</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>2025.06.28</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>DESIGN &amp; DINÂMICAS, LDA</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>25</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>MADEIRA MEANS WOOD</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/design-dinamicas-lda/</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>514423773</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Rua dos Ferreiros, N.º 3</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>9000-082 Funchal</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>123457029</t>
+        </is>
+      </c>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>12585</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>748567</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>2025.06.28</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>FREDERICO CAMACHO LOPES</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>41</v>
+      </c>
+      <c r="E273" t="inlineStr"/>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>748570</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>2025.06.28</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>ALEXANDRE MIGUEL CALADO DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>41</v>
+      </c>
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>748576</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>2025.06.29</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>PEDRO FILIPE TEIXEIRA NUNES</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>14</v>
+      </c>
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>748577</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>2025.06.29</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>ASDRUBAL HERMES SATURNINO DE CARVALHO</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>25</v>
+      </c>
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R276" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>748579</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>GRAVITY GLOBAL VENTURES, LDA</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>36</v>
+      </c>
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/gravity-global-ventures-lda/</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>518806502</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Praça Nuno Rodrigues dos Santos, Nº 7</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>1600-171 Lisboa</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N277" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>123457030</t>
+        </is>
+      </c>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>12586</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>748581</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>JAMIL RIBEIRO CADE BR ANA CAROLINA FACUNDO CASTRO DE AQUINO</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>41</v>
+      </c>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>748587</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>HUGO DANIEL CARNEIRO MARTINS, UNIPESSOAL, LDA.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>11</v>
+      </c>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/hugo-daniel-carneiro-martins-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>518533107</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Rua São Bento da Batalha, 143, Santo Tirso</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>4780-547 Santo Tirso</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>123457031</t>
+        </is>
+      </c>
+      <c r="R279" t="inlineStr">
+        <is>
+          <t>12587</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>748588</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>PAULO CÉSAR ROCHA MOREIRA PT NUNO PHILIP CRUZ</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>3</v>
+      </c>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>748589</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>EASY WAY PRIME CONSULTORIA EMPRESARIAL LDA</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>41</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>EWP DIGITAL</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/easy-way-prime-consultoria-empresarial-lda/</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>506630927</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Rua da Polícia de Segurança Pública, Lote 1, R/C Esqº</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>8000-204 Faro</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>123457032</t>
+        </is>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>12588</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>748591</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>REX FORTIS SA</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>33</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>QUINTA DAS AGUAS</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/rex-fortis-s-a/</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>513806369</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Rua D. Nuno Álvares Pereira, Nº 357</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>4760-480 Vila Nova de Famalicão</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>123457033</t>
+        </is>
+      </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>12589</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>748592</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>X-EVOLUTION, SOLUÇÕES INFORMÁTICAS LDA.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>39</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>EVOROUTECHECK</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/x-evolution-solucoes-informaticas-lda/</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>515271853</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Estrada de Paço de Arcos, Nº 66</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>2735-336 Agualva</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>123457034</t>
+        </is>
+      </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>12590</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>748593</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>ANA FILIPA MARTINS CORREIA</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>41</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>FILIPA MARTINS</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N284" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>748594</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>SANTOSOM - COMÉRCIO E INDÚSTRIA DE AUDIOVISUAL LDA.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>20</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>GEARDOCK</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/santosom-comercio-e-industria-de-audiovisual-lda/</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>504734075</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Rua da Gândara, Nº 334, Fracção W</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>3885-246 Cortegaça Ovr</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>123457035</t>
+        </is>
+      </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>12591</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>748606</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>2025.06.28</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>RAFAEL CARVALHO SIMÕES</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>41</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>THE HANGOVER BAND</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N286" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>748607</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>2025.06.28</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>EUGÉNIO MIGUEL MADEIRA</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>29</v>
+      </c>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>748618</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>ALICE DA CONCEIÇÃO DE MAGALHÃES ALVES</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>30</v>
+      </c>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R288" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>748620</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>SOCIEDADE AGRICOLA JORGE ROSA SANTOS E FILHOS LDA</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>33</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>NOTÁVEL VILA</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>748621</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>ALTHUM.COM - EDIÇÕES ESPECIAIS LDA</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>35</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>MÝTHOS.COM</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/althum-com-edicoes-especiais-lda/</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>507600649</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Rua Conde de Sabugosa, Nº 7, 1º Direito</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>1700-115 Lisboa</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>123457036</t>
+        </is>
+      </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>12592</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>748624</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>REBECA FILIPA CARDOSO E NOBRE PINHEIRO GOMES</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>25</v>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>TICX</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>748634</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>MAÇANITA VINHOS, LDA</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>33</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>CASSETE PIRATA DA MAÇANITA</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/macanita-vinhos-lda/</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>509711715</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Quinta de Sequeirós, Sequeirós</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>5050-312 Loureiro Prg</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>123457037</t>
+        </is>
+      </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>12593</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>748635</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>ANDRÉ BERNARDINO CARVALHO DE SOUSA</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>10</v>
+      </c>
+      <c r="E293" t="inlineStr"/>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>748646</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>INOVA MEDICAL &amp; SURGICAL, LDA</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>41</v>
+      </c>
+      <c r="E294" t="inlineStr"/>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/inova-medical-surgical-lda/</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>515466093</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Rua de Rebouça, Nº 35, Troporiz</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>4950-800 Troporiz</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>123457038</t>
+        </is>
+      </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>12594</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>748693</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>PINTO ASCENSÃO - UNIPLESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>44</v>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>LEZEN</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>748694</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>MAFALDA CLETO</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>44</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>CLETO CLINIC</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/mafalda-cleto-lda/</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>516356550</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Rua Infantaria 16, Nº 64, 5º Frt</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>1350-169 Lisboa</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N296" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>123457039</t>
+        </is>
+      </c>
+      <c r="R296" t="inlineStr">
+        <is>
+          <t>12595</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>748736</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>2025.07.07</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>TELMO FILIPE TEIXEIRA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>36</v>
+      </c>
+      <c r="E297" t="inlineStr"/>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R297" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>748777</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>JOAO CARLOS MOUTINHO DA COSTA OLIVEIRA, UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>33</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>PÉ DE CHINELO</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/joao-carlos-moutinho-da-costa-oliveira-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>515464163</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Rua Virgílio Ferreira, 50, 1 Esq</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>4430-686 Mafamude</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>123457040</t>
+        </is>
+      </c>
+      <c r="R298" t="inlineStr">
+        <is>
+          <t>12596</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>748836</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>2025.07.03</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>ILHA DOS REFÚGIOS - LDA.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>9</v>
+      </c>
+      <c r="E299" t="inlineStr"/>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/ilha-dos-refugios-lda/</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>518819558</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Rua Imperatriz Dona Amélia, N.º 65, 2.º Pestana Casino Park - Administração</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>9004-513 Funchal</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>123457041</t>
+        </is>
+      </c>
+      <c r="R299" t="inlineStr">
+        <is>
+          <t>12597</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>58243</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>ZEUS VIRTUAL UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr"/>
+      <c r="E300" t="inlineStr"/>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/zeus-virtual-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>517707039</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Largo Almirante Gago Coutinho, Nº 6, 6A</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>2780-245 Oeiras</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>123457042</t>
+        </is>
+      </c>
+      <c r="R300" t="inlineStr">
+        <is>
+          <t>12598</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>58244</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>PHPEEL LDA</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr"/>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>LOGÓTIPOS idos ade Industrial, a seguir se publicam os pedidos de registo de a contar-se o prazo de dois meses para a apresentação de ncessão dos mesmos, em conformidade com o artigo 17.º do</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/phpeel-lda/</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>518009394</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Rua 1º de Agosto O Paivense, Nº 16-C, Alto do Seixalinho</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>2830-048 Barreiro</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N301" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q301" t="inlineStr">
+        <is>
+          <t>123457043</t>
+        </is>
+      </c>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>12599</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>58247</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>ANÍBAL SANTOS &amp; RODRIGUES, LDA</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr"/>
+      <c r="E302" t="inlineStr"/>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N302" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P302" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R302" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>58248</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>GERAÇÃO MCAR UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr"/>
+      <c r="E303" t="inlineStr"/>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/geracao-mcar-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>517916800</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>Zona Industrial da Cocanha, Rua Júlio Santos Pereira 20B</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>5400-570 Santa Cruz/Trindade e Sanjurge</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N303" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P303" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q303" t="inlineStr">
+        <is>
+          <t>123457044</t>
+        </is>
+      </c>
+      <c r="R303" t="inlineStr">
+        <is>
+          <t>12600</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>58249</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>JOSÉ FREITAS GONÇALVES, LDA</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr"/>
+      <c r="E304" t="inlineStr"/>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/jose-freitas-goncalves-lda/</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>504056190</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Rua de Santana, Nº 167, Pavilhão A</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>4620-510 Pias Lsd</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N304" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P304" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>123457045</t>
+        </is>
+      </c>
+      <c r="R304" t="inlineStr">
+        <is>
+          <t>12601</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>58250</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>IGREJA EVANGÉLICA ASSEMBLEIA DE DEUS</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr"/>
+      <c r="E305" t="inlineStr"/>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>58252</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>LEGUAS FRANZINAS UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr"/>
+      <c r="E306" t="inlineStr"/>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/leguas-franzinas-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>517307243</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Rua Padre Giesteira, N.º 225, Apart. 55 - Clube de Férias Atlanta</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>4740-283 Esposende</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q306" t="inlineStr">
+        <is>
+          <t>123457046</t>
+        </is>
+      </c>
+      <c r="R306" t="inlineStr">
+        <is>
+          <t>12602</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>58253</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>ANTONIO MANUEL AMARO CARVALHO LARGUESA</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr"/>
+      <c r="E307" t="inlineStr"/>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R307" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>58254</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>CLÍNICA DE REABILITAÇÃO DE CARNAXIDE</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr"/>
+      <c r="E308" t="inlineStr"/>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/clinica-de-reabilitacao-de-carnaxide-lda/</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>503453323</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Rua 25 de Abril, Lote 6, Loja 8, Centro Cívico de Carnaxide</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>2790-129 Carnaxide</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>123457047</t>
+        </is>
+      </c>
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>12603</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>58255</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>JOÃO ARTUR DIAS MORGADO PEREIRA</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr"/>
+      <c r="E309" t="inlineStr"/>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N309" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q309" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R309" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>58256</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>MARIA ADELINA FREIRE DE MIRANDA NUNES</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr"/>
+      <c r="E310" t="inlineStr"/>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R310" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>58257</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>@AZORES EXPLORE YOUR SENSES LDA</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr"/>
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R311" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>58258</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>MARTINEZ MACHADO - ENGENHARIA, CONSTRUÇÃO E DESIGN LDA</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr"/>
+      <c r="E312" t="inlineStr"/>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/martinez-machado-engenharia-construcao-e-design-lda/</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>518802841</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Travessa Fernanda Alves, Nº 5, 2º Esq</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>2820-549 Charneca da Caparica</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>123457048</t>
+        </is>
+      </c>
+      <c r="R312" t="inlineStr">
+        <is>
+          <t>12604</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>58259</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>ASSUNTOS TRANQUILOS, LDA.</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr"/>
+      <c r="E313" t="inlineStr"/>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/assuntos-tranquilos-lda/</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>515967238</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Rua Nova de São Pedro, Lote 8, Esculca</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>3500-051 Viseu</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N313" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>123457049</t>
+        </is>
+      </c>
+      <c r="R313" t="inlineStr">
+        <is>
+          <t>12605</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>58260</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>IVO DANIEL PIRES LOPES</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr"/>
+      <c r="E314" t="inlineStr"/>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>58268</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>SOCIEDADE PORTUGUESA DE PNEUMOLOGIA</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr"/>
+      <c r="E315" t="inlineStr"/>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/sociedade-portuguesa-de-pneumologia/</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>501109021</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Lisboa - Lisboa</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>123457050</t>
+        </is>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>12606</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/webscrapping school/msaces/racius_links_output.xlsx
+++ b/webscrapping school/msaces/racius_links_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R315"/>
+  <dimension ref="A1:R420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27807,6 +27807,9130 @@
         </is>
       </c>
     </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Número</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Nome do requerente, nacionalidade, profissão, morada.</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr"/>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>Reprodução do sinal.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>747615</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>2025.06.11</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>RAQUEL NAZARIO MOTTA</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>44</v>
+      </c>
+      <c r="E317" t="inlineStr"/>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P317" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>748008</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>2025.06.17</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>HVP INVEST, UNIPESSOAL, LDA.</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>35</v>
+      </c>
+      <c r="E318" t="inlineStr"/>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/hvp-invest-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>518180352</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Centro Comercial Vale do Sousa, Loja N.º 137, Avenida Comendador Abílio Seabra, 5-7</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>4580-029 Paredes</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P318" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>123457103</t>
+        </is>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>12659</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>748120</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>2025.06.19</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>FREGUESIA SÃO JOÃO DE FOUTOURA FREGUESIA DA CEREJA</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>39</v>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>ROTA DOS CEREJAIS</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P319" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q319" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R319" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>748279</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>2025.06.20</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>SILVESTRERAZÃO, LDA.</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>43</v>
+      </c>
+      <c r="E320" t="inlineStr"/>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/silvestrerazao-lda/</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>518082717</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Rua de São José, Nº 663</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>2750-136 Cascais</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>123457104</t>
+        </is>
+      </c>
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>12660</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>748368</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>ANA DANIELA FERREIRA SANTOS</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>16</v>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>GRAPHIUM PAPELARIA</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q321" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>748369</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>ZABELE, LDA</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>33</v>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>ANTÓNIO ZAMBUJO 1975</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/zabele-lda/</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>516438336</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Rua Ernesto Melo Antunes, Nº 3</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>7800-591 Beja</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P322" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q322" t="inlineStr">
+        <is>
+          <t>123457105</t>
+        </is>
+      </c>
+      <c r="R322" t="inlineStr">
+        <is>
+          <t>12661</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>748373</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>PEDRO MIGUEL PESTANA GOMES DE CASTRO</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>43</v>
+      </c>
+      <c r="E323" t="inlineStr"/>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P323" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q323" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R323" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>748374</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>DA CONCEIÇÃO &amp; SALDANHA - SOLUÇÕES AMBIENTAIS E CIRCULARES, LDA</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>35</v>
+      </c>
+      <c r="E324" t="inlineStr"/>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/da-conceicao-saldanha-solucoes-ambientais-e-circulares-lda/</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>516664735</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Parque Empresarial da Baía do Tejo, Rua 2, Edifício N.º 23</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>2830-302 Barreiro</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P324" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q324" t="inlineStr">
+        <is>
+          <t>123457106</t>
+        </is>
+      </c>
+      <c r="R324" t="inlineStr">
+        <is>
+          <t>12662</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>748377</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>RICHEMONT INTERNATIONAL SA</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>14</v>
+      </c>
+      <c r="E325" t="inlineStr"/>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/richemont-international-sa/</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>980363748</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Route Des Biches 10, Villars-Sur-Glâne, Suiça</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P325" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q325" t="inlineStr">
+        <is>
+          <t>123457107</t>
+        </is>
+      </c>
+      <c r="R325" t="inlineStr">
+        <is>
+          <t>12663</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>748379</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>RECHEIO - CASH &amp; CARRY, S.A.</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>16</v>
+      </c>
+      <c r="E326" t="inlineStr"/>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/recheio-cash-carry-s-a/</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>500145415</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Rua Actor António Silva, Nº7</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>1649-033 Lisboa</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P326" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q326" t="inlineStr">
+        <is>
+          <t>123457108</t>
+        </is>
+      </c>
+      <c r="R326" t="inlineStr">
+        <is>
+          <t>12664</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>748382</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>FRESH TRADING LIMITED</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>29</v>
+      </c>
+      <c r="E327" t="inlineStr"/>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P327" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q327" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R327" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>748383</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>IDD - PORTUGAL DEFENCE, S.A.</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>35</v>
+      </c>
+      <c r="E328" t="inlineStr"/>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/idd-portugal-defence-s-a/</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>503939668</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>Estrada da Luz, Nº 153/155</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>1600-155 Lisboa</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P328" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q328" t="inlineStr">
+        <is>
+          <t>123457109</t>
+        </is>
+      </c>
+      <c r="R328" t="inlineStr">
+        <is>
+          <t>12665</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>748387</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>CONQUISTATRADIÇÃO, LDA</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>33</v>
+      </c>
+      <c r="E329" t="inlineStr"/>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/conquistatradicao-lda/</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>510337546</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Rua Clube Atlético de Rio Tinto, Armazém, 143, Rio Tinto, Gondomar</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>4435-188 Rio Tinto</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P329" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q329" t="inlineStr">
+        <is>
+          <t>123457110</t>
+        </is>
+      </c>
+      <c r="R329" t="inlineStr">
+        <is>
+          <t>12666</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>748396</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>TEOREMENLAÇADO-UNIPESSOAL.LDA</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>25</v>
+      </c>
+      <c r="E330" t="inlineStr"/>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P330" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R330" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>748404</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>180 GRAUS BAR LD.ª</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>43</v>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>BAR DO MERCADO</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q331" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R331" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>748408</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>GRANDOCARP - MONTAGEM DE CARPINTARIAS, LDA.</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>19</v>
+      </c>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/grandocarp-montagem-de-carpintarias-lda/</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>504939564</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Travessa da Amoreira, 1</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>7570-319 Grândola</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q332" t="inlineStr">
+        <is>
+          <t>123457111</t>
+        </is>
+      </c>
+      <c r="R332" t="inlineStr">
+        <is>
+          <t>12667</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>748417</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>LOGICOGITATE LDA</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>9</v>
+      </c>
+      <c r="E333" t="inlineStr"/>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/logicogitate-lda/</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>515320790</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Travessa de São José, Lote 16</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>4730-330 Vila Verde</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q333" t="inlineStr">
+        <is>
+          <t>123457112</t>
+        </is>
+      </c>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>12668</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>748418</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>ANABELA FERREIRA DE CASTRO</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>36</v>
+      </c>
+      <c r="E334" t="inlineStr"/>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q334" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R334" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>748419</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>JOÃO GONÇALO MOREIRA, UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>33</v>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>INVERSU</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/joao-goncalo-moreira-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>516928724</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Rua Manuel Pedro Cardoso, Bloco B, R/C Esq.º</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>2590-033 Sobral de Monte Agraço</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>123457113</t>
+        </is>
+      </c>
+      <c r="R335" t="inlineStr">
+        <is>
+          <t>12669</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>748425</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>DECISÃO VALENTE, LDA</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>44</v>
+      </c>
+      <c r="E336" t="inlineStr"/>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/decisao-valente-lda/</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>516942603</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>Avenida Abade Baçal, Nº 11</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>5300-068 Bragança</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>123457114</t>
+        </is>
+      </c>
+      <c r="R336" t="inlineStr">
+        <is>
+          <t>12670</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>748429</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>CARINA &amp; MARCO MACHADO - AGRICULTURA REGENERATIVA, LDA</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>29</v>
+      </c>
+      <c r="E337" t="inlineStr"/>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/carina-marco-machado-agricultura-regenerativa-lda/</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>518443299</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>Rua Doutor Jerónimo Ribeiro, N.º 7</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>2550-150 Cadaval</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q337" t="inlineStr">
+        <is>
+          <t>123457115</t>
+        </is>
+      </c>
+      <c r="R337" t="inlineStr">
+        <is>
+          <t>12671</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>748432</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>GONÇALO TAVARES GARCIA</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>37</v>
+      </c>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q338" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R338" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>748435</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>JOSÉ HENRIQUE DE PINHO GONÇALVES</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>25</v>
+      </c>
+      <c r="E339" t="inlineStr"/>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q339" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R339" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>748441</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>JOANA VALHELHAS, UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>9</v>
+      </c>
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/joana-valhelhas-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>517066386</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Rua Lagar de Freire, N.º 5</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>2230-180 Valhascos</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q340" t="inlineStr">
+        <is>
+          <t>123457116</t>
+        </is>
+      </c>
+      <c r="R340" t="inlineStr">
+        <is>
+          <t>12672</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>748445</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>PEDRO MIGUEL SOUSA RODRIGUES DE OLIVEIRA PT MIGUEL ÂNGELO LOPES PEREIRA PT MIGUEL ÂNGELO FERNANDES POLERI MACHADO PT TIAGO ALEXANDRE FERREIRA GONÇALVES PT RUI GABRIEL DA COSTA FERREIRA PT JOSÉ PEDRO FERREIRA LEITE PT RUI EMANUEL BRAGA DO VALE</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>24</v>
+      </c>
+      <c r="E341" t="inlineStr"/>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q341" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R341" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>748448</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>AFONSO AZEVEDO UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>25</v>
+      </c>
+      <c r="E342" t="inlineStr"/>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/afonso-azevedo-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>518581314</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Rua da Lage, Nº 118</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>4710-086 Braga</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P342" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q342" t="inlineStr">
+        <is>
+          <t>123457117</t>
+        </is>
+      </c>
+      <c r="R342" t="inlineStr">
+        <is>
+          <t>12673</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>748452</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>HORTIPOR - EXPORT, LDA.</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>31</v>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>SIMPLESMENTE HORTIPOR</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/hortipor-export-lda/</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>505687607</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>Rua do Concelho, Nº 27, Pinheiro Manso</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>2560-045 A dos Cunhados - Torres Vedras</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P343" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q343" t="inlineStr">
+        <is>
+          <t>123457118</t>
+        </is>
+      </c>
+      <c r="R343" t="inlineStr">
+        <is>
+          <t>12674</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>748453</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>CRG - CENTRO RENDIMENTO GUIMARAES LDA</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>39</v>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>PROBOX</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P344" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>748454</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>ANITA COSTA CRISTINA BELEZA</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>9</v>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>ANITA COSTA</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P345" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q345" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>748457</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>HUGO DE OLIVEIRA SANTOS</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>44</v>
+      </c>
+      <c r="E346" t="inlineStr"/>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P346" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>748460</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>ADALIS INDUSTRIAL SOLUTIONS, S.A.U.</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>35</v>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>ADALIS</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P347" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q347" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>748461</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>SOVENA PORTUGAL-CONSUMER GOODS, S.A.</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>30</v>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>FULA</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/sovena-portugal-consumer-goods-s-a/</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>500833532</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>Rua Dr. António Loureiro Borges Nº 2 3º, Edifício Arquiparque, Miraflores</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>1495-131 Algés</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P348" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q348" t="inlineStr">
+        <is>
+          <t>123457119</t>
+        </is>
+      </c>
+      <c r="R348" t="inlineStr">
+        <is>
+          <t>12675</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>748463</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>HEINEKEN BROUWERIJEN B.V.</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>32</v>
+      </c>
+      <c r="E349" t="inlineStr"/>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P349" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>748487</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>KAMAERT - SOLUÇÕES INFORMÁTICAS, UNIPESSOAL, LDA</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>41</v>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>MASTERMIND NEX ALLIANCE</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/kamaert-solucoes-informaticas-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>503856096</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Rua da Fontinha, Nº 8 - Fala</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>3045-398 Coimbra</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P350" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q350" t="inlineStr">
+        <is>
+          <t>123457120</t>
+        </is>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>12676</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>748490</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>JOÃO LOMBARDO, UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>35</v>
+      </c>
+      <c r="E351" t="inlineStr"/>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/joao-lombardo-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>516684450</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>Largo Severim de Faria, 1</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>7000-061 Évora</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N351" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P351" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q351" t="inlineStr">
+        <is>
+          <t>123457121</t>
+        </is>
+      </c>
+      <c r="R351" t="inlineStr">
+        <is>
+          <t>12677</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>748502</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>MARTINEZ MACHADO - ENGENHARIA, CONSTRUÇÃO E DESIGN LDA</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>37</v>
+      </c>
+      <c r="E352" t="inlineStr"/>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/martinez-machado-engenharia-construcao-e-design-lda/</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>518802841</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Travessa Fernanda Alves, Nº 5, 2º Esq</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>2820-549 Charneca da Caparica</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P352" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q352" t="inlineStr">
+        <is>
+          <t>123457122</t>
+        </is>
+      </c>
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>12678</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>748505</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>ENSEADA FAVORITA, UNIPESSOAL, LDA.</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>36</v>
+      </c>
+      <c r="E353" t="inlineStr"/>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/enseada-favorita-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>518252744</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>Rua Melo e Sousa, Nº 395, 1º C</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>2765-282 Estoril</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N353" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P353" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q353" t="inlineStr">
+        <is>
+          <t>123457123</t>
+        </is>
+      </c>
+      <c r="R353" t="inlineStr">
+        <is>
+          <t>12679</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>748510</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>FPC - PRODUTOS ALIMENTARES, UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>35</v>
+      </c>
+      <c r="E354" t="inlineStr"/>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/fpc-produtos-alimentares-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>516439456</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>Rua Pádua Correia, Nº 261</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>4400-238 Vila Nova de Gaia</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N354" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P354" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q354" t="inlineStr">
+        <is>
+          <t>123457124</t>
+        </is>
+      </c>
+      <c r="R354" t="inlineStr">
+        <is>
+          <t>12680</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>748511</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>MARCELINO BARROS, UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>37</v>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>MARCELINO BARROS</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/marcelino-barros-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>505137275</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>Rua da Ponte, Nº 432</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>4905-108 Barcelos</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P355" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q355" t="inlineStr">
+        <is>
+          <t>123457125</t>
+        </is>
+      </c>
+      <c r="R355" t="inlineStr">
+        <is>
+          <t>12681</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>748512</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>CARLA ALEXANDRA MARQUES GALVÃO RAMOS</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>4</v>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>VAMARA</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M356" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N356" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P356" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q356" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R356" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>748513</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>FÉLIX E NOGUEIRA LDA</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>6</v>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>TORFENCE</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N357" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P357" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q357" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R357" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>748514</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>GUILHERME BRÁS DA SILVA PT JOÃO MARIA CORREIA DE BARROS SOTTO MAYOR DE CALHEIROS</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>9</v>
+      </c>
+      <c r="E358" t="inlineStr"/>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M358" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N358" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P358" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q358" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R358" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>748515</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>BRIAN MIGUEL DE AZEVEDO TEIXEIRA</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>33</v>
+      </c>
+      <c r="E359" t="inlineStr"/>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M359" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N359" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P359" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q359" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R359" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>748516</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>DIANA RITA GOMES BRAGA</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>25</v>
+      </c>
+      <c r="E360" t="inlineStr"/>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M360" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N360" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O360" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P360" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q360" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R360" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>748517</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>PRISCILA RODRIGUES DA SILVA PT RAQUEL SILVA SANTOS</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>26</v>
+      </c>
+      <c r="E361" t="inlineStr"/>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M361" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N361" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O361" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P361" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q361" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R361" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>748519</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>BT CLIMATIZAÇÃO UNIPESSOAL , LDA</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>37</v>
+      </c>
+      <c r="E362" t="inlineStr"/>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M362" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N362" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O362" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P362" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q362" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R362" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>748523</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>FDFVXF - UNIPESSOAL, LDA</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>6</v>
+      </c>
+      <c r="E363" t="inlineStr"/>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/fdfvxf-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>518335194</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>Avenida Curry Cabral, Nº. 16, Loja B</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>2700-218 Amadora</t>
+        </is>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M363" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N363" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P363" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q363" t="inlineStr">
+        <is>
+          <t>123457126</t>
+        </is>
+      </c>
+      <c r="R363" t="inlineStr">
+        <is>
+          <t>12682</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>748524</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>MARIA FERNANDA ABIAS SOARES DA SILVA</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>25</v>
+      </c>
+      <c r="E364" t="inlineStr"/>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M364" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N364" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O364" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P364" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q364" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R364" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>748525</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>FACETA RESILIENTE LDA</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>10</v>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>ZENITH TRANSITION</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/faceta-resiliente-lda/</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>518854019</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>Quinta do Povo, Lote 10, São Salvador</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>3510-774 Viseu</t>
+        </is>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M365" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N365" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O365" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P365" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q365" t="inlineStr">
+        <is>
+          <t>123457127</t>
+        </is>
+      </c>
+      <c r="R365" t="inlineStr">
+        <is>
+          <t>12683</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>748526</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>MARGEM, FABRICANTE DE PRODUTOS DE LIMPEZA, LDA</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>5</v>
+      </c>
+      <c r="E366" t="inlineStr"/>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/margem-fabricante-de-produtos-de-limpeza-lda/</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>500612200</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>Estrada de Sacotes, Edifício Margem</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>2725-525 Sintra</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M366" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N366" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P366" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q366" t="inlineStr">
+        <is>
+          <t>123457128</t>
+        </is>
+      </c>
+      <c r="R366" t="inlineStr">
+        <is>
+          <t>12684</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>748528</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>ADELINO FERRAZ DA SILVA</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>37</v>
+      </c>
+      <c r="E367" t="inlineStr"/>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M367" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N367" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P367" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q367" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R367" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>748529</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>CATIVARANIMA ASSOCIAÇÃO CULTURAL</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>41</v>
+      </c>
+      <c r="E368" t="inlineStr"/>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/cativaranima-associacao-cultural/</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>513464670</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>Lisboa - Lisboa</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M368" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N368" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O368" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P368" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q368" t="inlineStr">
+        <is>
+          <t>123457129</t>
+        </is>
+      </c>
+      <c r="R368" t="inlineStr">
+        <is>
+          <t>12685</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>748538</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>TROUBLELINE, LDA.</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>35</v>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>SEMENTE CRIATIVA</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/troubleline-lda/</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>510243754</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>Avenida Infante D. Henrique, Nº 333 H, Escritório 15</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>1800-282 Lisboa</t>
+        </is>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M369" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N369" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O369" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P369" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q369" t="inlineStr">
+        <is>
+          <t>123457130</t>
+        </is>
+      </c>
+      <c r="R369" t="inlineStr">
+        <is>
+          <t>12686</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>748539</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>ANA PAULA CABRIOT DE OLIVEIRA FONSECA</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>36</v>
+      </c>
+      <c r="E370" t="inlineStr"/>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M370" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N370" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O370" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P370" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q370" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R370" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>748540</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>DESÍGNIOS &amp; TÁTICAS - LDA</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>36</v>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>ONE VALUE</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/designios-taticas-lda/</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>516925776</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>Rua Aquilino Ribeiro, N.º 41, 2 E</t>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>2790-028 Carnaxide</t>
+        </is>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M371" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N371" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O371" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P371" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q371" t="inlineStr">
+        <is>
+          <t>123457131</t>
+        </is>
+      </c>
+      <c r="R371" t="inlineStr">
+        <is>
+          <t>12687</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>748544</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>NXT MANAGEMENT, LDA</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>35</v>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>WIDE</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/nxt-management-lda/</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>513586032</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>Avenida Sidónio Pais, Nº 24, 2º Dtº</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>1050-215 Lisboa</t>
+        </is>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M372" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N372" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O372" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P372" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q372" t="inlineStr">
+        <is>
+          <t>123457132</t>
+        </is>
+      </c>
+      <c r="R372" t="inlineStr">
+        <is>
+          <t>12688</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>748550</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>ORLANDO MACEDO DO PAÇO</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>36</v>
+      </c>
+      <c r="E373" t="inlineStr"/>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M373" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N373" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O373" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P373" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q373" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R373" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>748556</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>SIMÃO PEDRO MAGALHÃES PINTO</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>37</v>
+      </c>
+      <c r="E374" t="inlineStr"/>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M374" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N374" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O374" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P374" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q374" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R374" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>748559</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>PEDRO TELMO SALGUEIRO DA SILVA</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>35</v>
+      </c>
+      <c r="E375" t="inlineStr"/>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M375" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N375" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O375" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P375" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q375" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R375" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>748560</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>CHALLENGING EXHIBITION - LDA</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>9</v>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>BEYX</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/challenging-exhibition-lda/</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>518787958</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>Praça Nossa Senhora da Conceição, Lote 12, Entrada B, 3º Direito</t>
+        </is>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>5000-436 Vila Real</t>
+        </is>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M376" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N376" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O376" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P376" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q376" t="inlineStr">
+        <is>
+          <t>123457133</t>
+        </is>
+      </c>
+      <c r="R376" t="inlineStr">
+        <is>
+          <t>12689</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>748566</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>2025.06.28</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>DESIGN &amp; DINÂMICAS, LDA</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>25</v>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>MADEIRA MEANS WOOD</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/design-dinamicas-lda/</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>514423773</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>Rua dos Ferreiros, N.º 3</t>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>9000-082 Funchal</t>
+        </is>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M377" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N377" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O377" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P377" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q377" t="inlineStr">
+        <is>
+          <t>123457134</t>
+        </is>
+      </c>
+      <c r="R377" t="inlineStr">
+        <is>
+          <t>12690</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>748567</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>2025.06.28</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>FREDERICO CAMACHO LOPES</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>41</v>
+      </c>
+      <c r="E378" t="inlineStr"/>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M378" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N378" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O378" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P378" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q378" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R378" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>748570</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>2025.06.28</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>ALEXANDRE MIGUEL CALADO DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>41</v>
+      </c>
+      <c r="E379" t="inlineStr"/>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M379" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N379" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O379" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P379" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q379" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R379" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>748576</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>2025.06.29</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>PEDRO FILIPE TEIXEIRA NUNES</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>14</v>
+      </c>
+      <c r="E380" t="inlineStr"/>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M380" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N380" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O380" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P380" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q380" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R380" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>748577</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>2025.06.29</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>ASDRUBAL HERMES SATURNINO DE CARVALHO</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>25</v>
+      </c>
+      <c r="E381" t="inlineStr"/>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M381" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N381" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O381" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P381" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q381" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R381" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>748579</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>GRAVITY GLOBAL VENTURES, LDA</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>36</v>
+      </c>
+      <c r="E382" t="inlineStr"/>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/gravity-global-ventures-lda/</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>518806502</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>Praça Nuno Rodrigues dos Santos, Nº 7</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>1600-171 Lisboa</t>
+        </is>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M382" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N382" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O382" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P382" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q382" t="inlineStr">
+        <is>
+          <t>123457135</t>
+        </is>
+      </c>
+      <c r="R382" t="inlineStr">
+        <is>
+          <t>12691</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>748581</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>JAMIL RIBEIRO CADE BR ANA CAROLINA FACUNDO CASTRO DE AQUINO</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>41</v>
+      </c>
+      <c r="E383" t="inlineStr"/>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M383" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N383" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O383" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P383" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q383" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R383" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>748587</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>HUGO DANIEL CARNEIRO MARTINS, UNIPESSOAL, LDA.</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>11</v>
+      </c>
+      <c r="E384" t="inlineStr"/>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/hugo-daniel-carneiro-martins-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>518533107</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>Rua São Bento da Batalha, 143, Santo Tirso</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>4780-547 Santo Tirso</t>
+        </is>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M384" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N384" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O384" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P384" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q384" t="inlineStr">
+        <is>
+          <t>123457136</t>
+        </is>
+      </c>
+      <c r="R384" t="inlineStr">
+        <is>
+          <t>12692</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>748588</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>PAULO CÉSAR ROCHA MOREIRA PT NUNO PHILIP CRUZ</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>3</v>
+      </c>
+      <c r="E385" t="inlineStr"/>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M385" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N385" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O385" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P385" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q385" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R385" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>748589</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>EASY WAY PRIME CONSULTORIA EMPRESARIAL LDA</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>41</v>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>EWP DIGITAL</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/easy-way-prime-consultoria-empresarial-lda/</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>506630927</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>Rua da Polícia de Segurança Pública, Lote 1, R/C Esqº</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>8000-204 Faro</t>
+        </is>
+      </c>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M386" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N386" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O386" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P386" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q386" t="inlineStr">
+        <is>
+          <t>123457137</t>
+        </is>
+      </c>
+      <c r="R386" t="inlineStr">
+        <is>
+          <t>12693</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>748591</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>REX FORTIS SA</t>
+        </is>
+      </c>
+      <c r="D387" t="n">
+        <v>33</v>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>QUINTA DAS AGUAS</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/rex-fortis-s-a/</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>513806369</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>Rua D. Nuno Álvares Pereira, Nº 357</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>4760-480 Vila Nova de Famalicão</t>
+        </is>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M387" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N387" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O387" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P387" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q387" t="inlineStr">
+        <is>
+          <t>123457138</t>
+        </is>
+      </c>
+      <c r="R387" t="inlineStr">
+        <is>
+          <t>12694</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>748592</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>X-EVOLUTION, SOLUÇÕES INFORMÁTICAS LDA.</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>39</v>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>EVOROUTECHECK</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/x-evolution-solucoes-informaticas-lda/</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>515271853</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Estrada de Paço de Arcos, Nº 66</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>2735-336 Agualva</t>
+        </is>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M388" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N388" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O388" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P388" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q388" t="inlineStr">
+        <is>
+          <t>123457139</t>
+        </is>
+      </c>
+      <c r="R388" t="inlineStr">
+        <is>
+          <t>12695</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>748593</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>ANA FILIPA MARTINS CORREIA</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>41</v>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>FILIPA MARTINS</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M389" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N389" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O389" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P389" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q389" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R389" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>748594</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>SANTOSOM - COMÉRCIO E INDÚSTRIA DE AUDIOVISUAL LDA.</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>20</v>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>GEARDOCK</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/santosom-comercio-e-industria-de-audiovisual-lda/</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>504734075</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Rua da Gândara, Nº 334, Fracção W</t>
+        </is>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>3885-246 Cortegaça Ovr</t>
+        </is>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M390" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N390" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O390" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P390" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q390" t="inlineStr">
+        <is>
+          <t>123457140</t>
+        </is>
+      </c>
+      <c r="R390" t="inlineStr">
+        <is>
+          <t>12696</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>748606</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>2025.06.28</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>RAFAEL CARVALHO SIMÕES</t>
+        </is>
+      </c>
+      <c r="D391" t="n">
+        <v>41</v>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>THE HANGOVER BAND</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M391" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N391" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O391" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P391" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q391" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R391" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>748607</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>2025.06.28</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>EUGÉNIO MIGUEL MADEIRA</t>
+        </is>
+      </c>
+      <c r="D392" t="n">
+        <v>29</v>
+      </c>
+      <c r="E392" t="inlineStr"/>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M392" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N392" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O392" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P392" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q392" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R392" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>748618</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>ALICE DA CONCEIÇÃO DE MAGALHÃES ALVES</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>30</v>
+      </c>
+      <c r="E393" t="inlineStr"/>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M393" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N393" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O393" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P393" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q393" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R393" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>748620</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>SOCIEDADE AGRICOLA JORGE ROSA SANTOS E FILHOS LDA</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>33</v>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>NOTÁVEL VILA</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M394" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N394" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O394" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P394" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q394" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R394" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>748621</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>ALTHUM.COM - EDIÇÕES ESPECIAIS LDA</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>35</v>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>MÝTHOS.COM</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/althum-com-edicoes-especiais-lda/</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>507600649</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>Rua Conde de Sabugosa, Nº 7, 1º Direito</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>1700-115 Lisboa</t>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M395" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N395" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O395" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P395" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q395" t="inlineStr">
+        <is>
+          <t>123457141</t>
+        </is>
+      </c>
+      <c r="R395" t="inlineStr">
+        <is>
+          <t>12697</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>748624</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>REBECA FILIPA CARDOSO E NOBRE PINHEIRO GOMES</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>25</v>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>TICX</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M396" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N396" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O396" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P396" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q396" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R396" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>748634</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>MAÇANITA VINHOS, LDA</t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>33</v>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>CASSETE PIRATA DA MAÇANITA</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/macanita-vinhos-lda/</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>509711715</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>Quinta de Sequeirós, Sequeirós</t>
+        </is>
+      </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>5050-312 Loureiro Prg</t>
+        </is>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M397" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N397" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O397" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P397" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q397" t="inlineStr">
+        <is>
+          <t>123457142</t>
+        </is>
+      </c>
+      <c r="R397" t="inlineStr">
+        <is>
+          <t>12698</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>748635</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>ANDRÉ BERNARDINO CARVALHO DE SOUSA</t>
+        </is>
+      </c>
+      <c r="D398" t="n">
+        <v>10</v>
+      </c>
+      <c r="E398" t="inlineStr"/>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M398" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N398" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O398" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P398" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q398" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R398" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>748646</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>INOVA MEDICAL &amp; SURGICAL, LDA</t>
+        </is>
+      </c>
+      <c r="D399" t="n">
+        <v>41</v>
+      </c>
+      <c r="E399" t="inlineStr"/>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/inova-medical-surgical-lda/</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>515466093</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>Rua de Rebouça, Nº 35, Troporiz</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>4950-800 Troporiz</t>
+        </is>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N399" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O399" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P399" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q399" t="inlineStr">
+        <is>
+          <t>123457143</t>
+        </is>
+      </c>
+      <c r="R399" t="inlineStr">
+        <is>
+          <t>12699</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>748693</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>PINTO ASCENSÃO - UNIPLESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D400" t="n">
+        <v>44</v>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>LEZEN</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M400" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N400" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O400" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P400" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q400" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R400" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>748694</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>MAFALDA CLETO</t>
+        </is>
+      </c>
+      <c r="D401" t="n">
+        <v>44</v>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>CLETO CLINIC</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/mafalda-cleto-lda/</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>516356550</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>Rua Infantaria 16, Nº 64, 5º Frt</t>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>1350-169 Lisboa</t>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M401" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N401" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O401" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P401" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q401" t="inlineStr">
+        <is>
+          <t>123457144</t>
+        </is>
+      </c>
+      <c r="R401" t="inlineStr">
+        <is>
+          <t>12700</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>748736</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>2025.07.07</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>TELMO FILIPE TEIXEIRA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D402" t="n">
+        <v>36</v>
+      </c>
+      <c r="E402" t="inlineStr"/>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M402" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N402" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O402" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P402" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q402" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R402" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>748777</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>JOAO CARLOS MOUTINHO DA COSTA OLIVEIRA, UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D403" t="n">
+        <v>33</v>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>PÉ DE CHINELO</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/joao-carlos-moutinho-da-costa-oliveira-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>515464163</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>Rua Virgílio Ferreira, 50, 1 Esq</t>
+        </is>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>4430-686 Mafamude</t>
+        </is>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M403" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N403" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O403" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P403" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q403" t="inlineStr">
+        <is>
+          <t>123457145</t>
+        </is>
+      </c>
+      <c r="R403" t="inlineStr">
+        <is>
+          <t>12701</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>748836</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>2025.07.03</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>ILHA DOS REFÚGIOS - LDA.</t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>9</v>
+      </c>
+      <c r="E404" t="inlineStr"/>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/ilha-dos-refugios-lda/</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>518819558</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>Rua Imperatriz Dona Amélia, N.º 65, 2.º Pestana Casino Park - Administração</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>9004-513 Funchal</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M404" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N404" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O404" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P404" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q404" t="inlineStr">
+        <is>
+          <t>123457146</t>
+        </is>
+      </c>
+      <c r="R404" t="inlineStr">
+        <is>
+          <t>12702</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>58243</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>ZEUS VIRTUAL UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr"/>
+      <c r="E405" t="inlineStr"/>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/zeus-virtual-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>517707039</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>Largo Almirante Gago Coutinho, Nº 6, 6A</t>
+        </is>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>2780-245 Oeiras</t>
+        </is>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M405" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N405" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O405" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P405" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q405" t="inlineStr">
+        <is>
+          <t>123457147</t>
+        </is>
+      </c>
+      <c r="R405" t="inlineStr">
+        <is>
+          <t>12703</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>58244</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>PHPEEL LDA</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr"/>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>LOGÓTIPOS idos ade Industrial, a seguir se publicam os pedidos de registo de a contar-se o prazo de dois meses para a apresentação de ncessão dos mesmos, em conformidade com o artigo 17.º do</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/phpeel-lda/</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>518009394</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>Rua 1º de Agosto O Paivense, Nº 16-C, Alto do Seixalinho</t>
+        </is>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>2830-048 Barreiro</t>
+        </is>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M406" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N406" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O406" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P406" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q406" t="inlineStr">
+        <is>
+          <t>123457148</t>
+        </is>
+      </c>
+      <c r="R406" t="inlineStr">
+        <is>
+          <t>12704</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>58247</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>ANÍBAL SANTOS &amp; RODRIGUES, LDA</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr"/>
+      <c r="E407" t="inlineStr"/>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M407" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N407" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O407" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P407" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q407" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R407" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>58248</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>GERAÇÃO MCAR UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr"/>
+      <c r="E408" t="inlineStr"/>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/geracao-mcar-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>517916800</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>Zona Industrial da Cocanha, Rua Júlio Santos Pereira 20B</t>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>5400-570 Santa Cruz/Trindade e Sanjurge</t>
+        </is>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M408" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N408" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O408" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P408" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q408" t="inlineStr">
+        <is>
+          <t>123457149</t>
+        </is>
+      </c>
+      <c r="R408" t="inlineStr">
+        <is>
+          <t>12705</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>58249</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>JOSÉ FREITAS GONÇALVES, LDA</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr"/>
+      <c r="E409" t="inlineStr"/>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/jose-freitas-goncalves-lda/</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>504056190</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>Rua de Santana, Nº 167, Pavilhão A</t>
+        </is>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>4620-510 Pias Lsd</t>
+        </is>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M409" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N409" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O409" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P409" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q409" t="inlineStr">
+        <is>
+          <t>123457150</t>
+        </is>
+      </c>
+      <c r="R409" t="inlineStr">
+        <is>
+          <t>12706</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>58250</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>IGREJA EVANGÉLICA ASSEMBLEIA DE DEUS</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr"/>
+      <c r="E410" t="inlineStr"/>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M410" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N410" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O410" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P410" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q410" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R410" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>58252</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>LEGUAS FRANZINAS UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr"/>
+      <c r="E411" t="inlineStr"/>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/leguas-franzinas-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>517307243</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>Rua Padre Giesteira, N.º 225, Apart. 55 - Clube de Férias Atlanta</t>
+        </is>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>4740-283 Esposende</t>
+        </is>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M411" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N411" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O411" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P411" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q411" t="inlineStr">
+        <is>
+          <t>123457151</t>
+        </is>
+      </c>
+      <c r="R411" t="inlineStr">
+        <is>
+          <t>12707</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>58253</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>ANTONIO MANUEL AMARO CARVALHO LARGUESA</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr"/>
+      <c r="E412" t="inlineStr"/>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M412" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N412" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O412" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P412" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q412" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R412" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>58254</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>CLÍNICA DE REABILITAÇÃO DE CARNAXIDE</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr"/>
+      <c r="E413" t="inlineStr"/>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/clinica-de-reabilitacao-de-carnaxide-lda/</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>503453323</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>Rua 25 de Abril, Lote 6, Loja 8, Centro Cívico de Carnaxide</t>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>2790-129 Carnaxide</t>
+        </is>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N413" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O413" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P413" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q413" t="inlineStr">
+        <is>
+          <t>123457152</t>
+        </is>
+      </c>
+      <c r="R413" t="inlineStr">
+        <is>
+          <t>12708</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>58255</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>JOÃO ARTUR DIAS MORGADO PEREIRA</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr"/>
+      <c r="E414" t="inlineStr"/>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M414" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N414" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O414" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P414" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q414" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R414" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>58256</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>MARIA ADELINA FREIRE DE MIRANDA NUNES</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr"/>
+      <c r="E415" t="inlineStr"/>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M415" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N415" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O415" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P415" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q415" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R415" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>58257</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>@AZORES EXPLORE YOUR SENSES LDA</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr"/>
+      <c r="E416" t="inlineStr"/>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M416" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N416" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O416" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P416" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q416" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R416" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>58258</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>MARTINEZ MACHADO - ENGENHARIA, CONSTRUÇÃO E DESIGN LDA</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr"/>
+      <c r="E417" t="inlineStr"/>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/martinez-machado-engenharia-construcao-e-design-lda/</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>518802841</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>Travessa Fernanda Alves, Nº 5, 2º Esq</t>
+        </is>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>2820-549 Charneca da Caparica</t>
+        </is>
+      </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M417" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N417" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O417" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P417" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q417" t="inlineStr">
+        <is>
+          <t>123457153</t>
+        </is>
+      </c>
+      <c r="R417" t="inlineStr">
+        <is>
+          <t>12709</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>58259</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>ASSUNTOS TRANQUILOS, LDA.</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr"/>
+      <c r="E418" t="inlineStr"/>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/assuntos-tranquilos-lda/</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>515967238</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>Rua Nova de São Pedro, Lote 8, Esculca</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>3500-051 Viseu</t>
+        </is>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M418" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N418" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O418" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P418" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q418" t="inlineStr">
+        <is>
+          <t>123457154</t>
+        </is>
+      </c>
+      <c r="R418" t="inlineStr">
+        <is>
+          <t>12710</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>58260</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>IVO DANIEL PIRES LOPES</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr"/>
+      <c r="E419" t="inlineStr"/>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M419" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N419" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O419" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P419" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q419" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R419" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>58268</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>SOCIEDADE PORTUGUESA DE PNEUMOLOGIA</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr"/>
+      <c r="E420" t="inlineStr"/>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/sociedade-portuguesa-de-pneumologia/</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>501109021</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>Lisboa - Lisboa</t>
+        </is>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="M420" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N420" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O420" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P420" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q420" t="inlineStr">
+        <is>
+          <t>123457155</t>
+        </is>
+      </c>
+      <c r="R420" t="inlineStr">
+        <is>
+          <t>12711</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/webscrapping school/msaces/racius_links_output.xlsx
+++ b/webscrapping school/msaces/racius_links_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,11 @@
           <t>CapitalSocial</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Forma Jurídica</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -622,6 +627,11 @@
           <t>Not Found</t>
         </is>
       </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -717,6 +727,11 @@
           <t>Not Found</t>
         </is>
       </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -812,6 +827,11 @@
           <t>Not Found</t>
         </is>
       </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -903,6 +923,11 @@
           <t>Not Found</t>
         </is>
       </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -994,6 +1019,11 @@
           <t>€ 2.500,00</t>
         </is>
       </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1085,6 +1115,11 @@
           <t>Not Found</t>
         </is>
       </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1176,6 +1211,11 @@
           <t>€ 2.000,00</t>
         </is>
       </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1267,6 +1307,11 @@
           <t>Not Found</t>
         </is>
       </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1358,6 +1403,11 @@
           <t>€ 50.184,00</t>
         </is>
       </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1449,6 +1499,11 @@
           <t>€ 1.000,00</t>
         </is>
       </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1540,6 +1595,11 @@
           <t>Not Found</t>
         </is>
       </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1631,6 +1691,11 @@
           <t>Not Found</t>
         </is>
       </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1722,6 +1787,11 @@
           <t>€ 47.000.000,00</t>
         </is>
       </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Sociedade Anónima</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1809,6 +1879,3967 @@
         </is>
       </c>
       <c r="S15" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>749228</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025.07.09</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ILUMILED, LDA</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>9</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/ilumiled-lda/</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>518543960</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Avenida António Sérgio, Nº 438, R/C</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>4730-709 Vila Verde</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>123456794</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>12350</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>€ 5.000,00</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>749239</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025.07.10</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>RAFAEL CANDREVA CUNHA NACIF</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>25</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>749244</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025.07.10</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>EDUARDO MANUEL PEREIRA DE SOUSA</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>41</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>749245</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025.07.10</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>COLDSISTEMAS AVAC, LDA</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/coldsistemas-avac-lda/</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>504713817</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Rua do Seminário, Nº 132</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>4660-210 Resende</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>123456795</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>12351</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Não disponível</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>749248</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025.07.10</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ANA CRISTINA LOBO PEREIRA PT MAFALDA ALEXANDRA LOBO PEREIRA</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>14</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>LOBO BROWN</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>749252</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025.07.10</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>RICARDO FILIPE DOS SANTOS FERREIRA</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>35</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>749274</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025.07.10</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>INVENTIS S.A.</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>35</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/inventis-s-a/</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>508958270</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Rua Barata Salgueiro, Nº 37, 3º Esquerdo</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1250-042 Lisboa</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>123456796</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>12352</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>€ 50.000,00</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Sociedade Anónima</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>749277</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025.07.10</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>TIMEPEOPLE - TRABALHO TEMPORÁRIO E GESTÃO DE RECURSOS HUMANOS, LDA.</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>35</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/timepeople-trabalho-temporario-e-gestao-de-recursos-humanos-lda/</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>513391690</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Rua de Azevedo Coutinho, Nº 39, Porto</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>4100-100 Porto</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>123456797</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>12353</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>€ 35.000,00</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>749305</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025.07.09</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>BASTOS &amp; BARREIROS, LDA</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>41</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>749308</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025.07.09</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MUNICÍPIO DE S. JOÃO DA PESQUEIRA</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>35</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>VILA MAIS ANTIGA DE PORTUGAL</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>749315</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025.07.10</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ALEXANDRA MARIA FERNANDES PIRES NUNES RICCIARDI</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>41</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>LISBON WEEK</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>749327</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025.07.10</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MSA CABELEIREIRO E ESTÉTICA UNIPESSOAL, LDA</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>VITALITÉ CABELEIREIRO E ESTÉTICA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/msa-cabeleireiro-e-estetica-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>518854485</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Praceta Cónego Francisco P Pereira, N.º 24Lj</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>4715-287 São Victor</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>123456798</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>12354</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>€ 2.000,00</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Sociedade Unipessoal</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>749337</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025.07.10</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>LUIS FILIPE DOS SANTOS VENTURA</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>30</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>749339</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ABSTRATO E AUTÊNTICO LDA</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/abstrato-e-autentico-lda/</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>516383116</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Rua da Mata, N.º 956</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>4535-289 Paços de Brandão</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>123456799</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>12355</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>€ 5.000,00</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>749340</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>VICTOR HUGO ARAUJO</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>35</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>749343</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CRUZ DE OITO- ENGENHARIA SOCIEDADE UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>37</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/cruz-de-oito-engenharia-sociedade-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>509645267</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Avenida Central de Milheirós, Nº 500C</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>4475-330 Maia</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>123456800</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>12356</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>€ 25.000,00</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Sociedade Unipessoal</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>749348</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>FERNANDO CARVALHO TEIXEIRA</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>32</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>749349</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ANA PATRÍCIA MENDES</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>44</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>749352</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ALÍVIO EM RESPIRAR - REABILITAÇÃO RESPIRATÓRIA LDA</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>41</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/alivio-em-respirar-reabilitacao-respiratoria-lda/</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>518159051</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Rua Mateus Vicente, Nº 3, R/Ch Dtº</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1500-445 Lisboa</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>123456801</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>12357</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>€ 2.000,00</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>749354</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NUNO MIGUEL DA SILVA VENDA</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>41</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>749356</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>LUÍS FILIPE COSTA GAMITO</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>25</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>749360</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DAVID EMANUEL MATIAS DE SOUSA PAULO</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>25</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>749362</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>INÊS RAMOS MOREIRA</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>44</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>749368</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>RICARDO JORGE MESQUITA AREAL</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>36</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>749380</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>MARIA DE MORAIS SEABRA DA SILVA E SOUSA</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>749382</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>VÍTOR HUGO ESPIRITO SANTO SOUSA</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>39</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>749383</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ORVALHO COSMICO, UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>LIL - LISBON INSTITUTE OF LANGUAGES</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>749385</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ISA MILENA SOUSA RODRIGUES</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>18</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>749386</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>PATRÍCIA DANIELA CORREIA COUTO ALVES</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>35</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>749388</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>WIDE TRAVEL - VIAGENS E TURISMO, LDA.</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>39</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>WIDE DMC PORTUGAL</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/wide-travel-viagens-e-turismo-lda/</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>508773911</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Rua Margarida de Abreu, Nº 11-D Areeiro Lisboa</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>1900-314 Lisboa</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>123456802</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>12358</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>€ 200.000,00</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>749391</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DÉBORA PAREDES</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>44</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>749397</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CLÁUDIA MARGARIDA MELGADA DE ANDRADE BAETA</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>16</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>749402</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025.07.12</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CARDINALDRAGON UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>37</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/cardinaldragon-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>515121657</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Caminho dos Eucaliptos, Nº 504, Almancil</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>8135-027 Almancil</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>123456803</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>12359</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>€ 10.000,00</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Sociedade Unipessoal</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>749404</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025.07.12</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>SUELEN FIDELIS BARROTE PT FILIPE VASCONCELOS BARROTE</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>4</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>749427</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CHONGQING CHANGAN AUTOMOBILE CO., LTD.</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>12</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>749489</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025.07.10</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>HIAGO FERREIRA STUQUI</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>3</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>749553</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ALEXANDRE EMANUEL FONSECA RODRIGUES</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>35</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>58286</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025.07.09</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>MARIA E JOÃO CENTRO MÉDICO E DE ENFERMAGEM, LDA</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>58287</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025.07.09</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>READYBENEFIT, UNIPESSOAL, LDA.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/readybenefit-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>515166650</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Avenida Corvo Marinho, N.º 362</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2890-342 Alchochte</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>123456804</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>12360</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>€ 20.000,00</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Sociedade Unipessoal</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>58289</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025.07.10</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>MARCO ROMEU BAPTISTA DE ALMEIDA</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>58290</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025.07.10</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>SANDRA MARIA FERNANDES GONÇALVES</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
         <is>
           <t>Not Found</t>
         </is>

--- a/webscrapping school/msaces/racius_links_output.xlsx
+++ b/webscrapping school/msaces/racius_links_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,200 +636,6724 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>749025</t>
+          <t>749124</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025.07.07</t>
+          <t>2025.07.09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GILDA MANUEL</t>
+          <t>RPRITE GEST, LDA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CASA DE SEDA</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/rprite-gest-lda/</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>513834460</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Fialho de Almeida, Nº14 - 2º Esq., Escritório Dk 10, Avenidas Novas</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>1070-129 Lisboa</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t xml:space="preserve">28 </t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>34,44</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456789</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12345</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>€ 202.500,00</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Sociedade por Quotas</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>749028</t>
+          <t>749196</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025.07.07</t>
+          <t>2025.07.09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DINIS RIBEIRO ANTUNES</t>
+          <t>TRANSPORTES CARLOS JORGE DA SILVA FAUSTINO LDA</t>
         </is>
       </c>
       <c r="D4" t="n">
+        <v>39</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>TRANSFAUSTINO</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/transportes-carlos-jorge-da-silva-faustino-lda/</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>502011629</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Caldelas</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2420-063 Caranguejeira</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>123456790</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>12346</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Não disponível</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>749247</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025.07.10</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ASSOCIAÇÃO DE PAIS E ENCARREGADOS DE EDUCAÇÃO DOS ALUNOS DO INSTITUTO MILITAR PUPILOS DO EXÉRCITO</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>749268</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025.07.10</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>FORDESIGN SC LDA</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>35</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>749276</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025.07.10</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>RIVERSIDE HOTEL, S.A.</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/riverside-hotel-s-a/</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>514362529</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Rua Serpa Pinto, 60</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>4050-387 Porto</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>123456791</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>12347</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>€ 50.000,00</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Sociedade Anónima</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>749280</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>VITALITY &amp; LONGEVITY, LDA</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>44</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/vitality-longevity-lda/</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>517421461</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Rua David de Sousa, Nº 17</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1000-105 Lisboa</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>123456792</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>12348</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>€ 1.000,00</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>749281</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>VITALITY &amp; LONGEVITY, LDA</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>35</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/vitality-longevity-lda/</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>517421461</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Rua David de Sousa, Nº 17</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1000-105 Lisboa</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>123456793</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>12349</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>€ 1.000,00</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>749282</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>OFFICETOTAL- FOOD BRANDS, LDA.</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>30</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/officetotal-food-brands-lda/</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>508483000</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Rua Conselheiro Pedro de Brito, Nº 15, 1ºAndar Letra B</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>4970-445 Arcos de Valdevez</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>123456794</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>12350</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>€ 10.000,00</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>749333</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025.07.10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>WENERGIA, LDA.</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>37</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/wenergia-lda/</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>513047514</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Urbanização Poço do Lobo, Lote 51, Loja B, Póvoa de Sobrinhos</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>3505-485 Viseu</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>123456795</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>12351</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>€ 170.000,00</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>749335</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025.07.10</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>EPOCA AMENA LDA</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>43</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/epoca-amena-lda/</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>516963384</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Rua do Bicalho, N.º 108</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>4150-138 Porto</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>123456796</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>12352</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>€ 3.000,00</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>749342</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PELICANDECADE UNIPESSOAL LDA.</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>36</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/pelicandecade-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>515037044</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Avenida Marechal Craveiro Lopes, 8-D, 1º C, Lisboa</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1700-097 Lisboa</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>123456797</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>12353</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>€ 1.500,00</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Sociedade Unipessoal</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>749347</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ANDREIA HELENA DA SILVA MOREIRA</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>42</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>749377</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PEDRO MIGUEL DE OLIVEIRA GUIMARÃES</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>749379</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>BERNARDO FILIPE RODRIGUES MACHADO</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>31</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>749389</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MONICA PINTO DE ALMEIDA</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>11</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MOKKI DESIGN</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>749390</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CARLOS FILIPE SALVADOR MARTINS</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>37</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>749392</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ELISABETE SANTOS VIEIRA UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/elisabete-santos-vieira-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>516800272</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Rua da Nascente, Nº 14, 3º Dto</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>6300-421 Guarda</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>123456798</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>12354</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>€ 5.000,00</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Sociedade Unipessoal</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>749393</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MARIA JOANA ÁLVARES RIBEIRO DE SOUSA COUTINHO</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>30</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>749395</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CRISTIANO JOSE ABREU SILVA</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>25</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>749400</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>RICARDO CARREIRA MIGUEL, UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>6</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/ricardo-carreira-miguel-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>518581241</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Rua Vale das Servas, Número 251A</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2400-489 Sobreiro</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>123456799</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>12355</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>€ 1.000,00</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Sociedade Unipessoal</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>749401</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DIOGO RAFAEL MARTINS FERREIRA</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>749406</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025.07.12</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NUNO MIGUEL DUARTE PEREIRA</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>35</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>749407</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025.07.12</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MAGNIFICA DIVERSÃO LDA</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>39</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NICKITRAVEL</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/magnifica-diversao-lda/</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>509933815</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Avenida São Tomé e Príncipe, Vivenda Hilário, Lote 38</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2605-860 Casal de Cambra</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>123456800</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>12356</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>€ 200,00</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>749410</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025.07.12</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CHARMING SEASON, LDA</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>43</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>OLD PRESA COTTAGE - RUSTIC LUXURY</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/charming-season-lda/</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>514053178</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Rua S. João, 85 - Sala A, Vilarelho</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>4910-145 Caminha</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>123456801</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>12357</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>€ 200,00</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>749412</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025.07.13</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>JOEL FILIPE RALEIRA BRINQUETE</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>11</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>749418</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025.07.13</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>LUNES EXPERIENCE, LDA</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>39</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>LUNES EXPERIENCE</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/lunes-experience-lda/</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>518855252</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Quinta da Alegria, Sítio do Sobral, Estrada Municipal 529-1 Nº 394L</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>8400-492 Porches</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>123456802</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>12358</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>€ 5.000,00</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>749429</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ELO</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>35</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>749430</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025.07.10</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>TRAÇOS EXEQUÍVEIS ESTOFOS LDA</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/tracos-exequiveis-estofos-lda/</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>517923068</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Rua do Carreirinho, 48</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2400-765 Amor</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>123456803</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>12359</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>€ 26.200,00</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>749433</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>VIGORÉPRECISO - UNIPESSOAL, LDA</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>37</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/vigorepreciso-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>518100871</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Estrada de Santiago, Nº 2705</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>4905-261 Viana do Castelo</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>123456804</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>12360</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>€ 1.000,00</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Sociedade Unipessoal</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>749434</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CRISTIANO DUARTE DA SILVA MAGALHÃES</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>41</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>749442</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025.07.13</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>BENJAMIN LUCAS BRAEUTIGAM</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>41</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>749446</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SUELI ALEIDA LOPES FORTES</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>749448</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>SOFIA SA PEREIRA UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>41</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1 PETABYTE DE PEDAGOGIA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/sofia-sa-pereira-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>517752131</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Rua Pintor Alves Cardoso, Nº 15, 2º Esquerdo</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1685-092 Caneças</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>123456805</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>12361</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>€ 5.000,00</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Sociedade Unipessoal</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>749450</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>SOFIA SA PEREIRA UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>41</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1 SHOT DE PEDAGOGIA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/sofia-sa-pereira-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>517752131</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Rua Pintor Alves Cardoso, Nº 15, 2º Esquerdo</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1685-092 Caneças</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>123456806</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>12362</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>€ 5.000,00</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Sociedade Unipessoal</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>749451</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>SOFIA SA PEREIRA UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>41</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ACADEMIA DE PEDAGOGIA DO ENSINO SUPERIOR</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/sofia-sa-pereira-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>517752131</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Rua Pintor Alves Cardoso, Nº 15, 2º Esquerdo</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1685-092 Caneças</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>123456807</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>12363</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>€ 5.000,00</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Sociedade Unipessoal</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>749452</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CARLOS NASCIMENTO SILVA FERREIRA</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>749453</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>LUÍS ANES &amp; ANES LDA</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>10</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>FLY DIGITAL</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/luis-anes-anes-lda/</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>516778889</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Rua do Chafariz Velho, N.º 116</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>6005-036 Alcains</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>123456808</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>12364</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>€ 500,00</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>749456</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>REINALDO VINHA CAMPANIÇO</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>25</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>749460</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>AXEVAIN, LDA</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>33</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>TINY FLAP</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/axevain-lda/</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>515458864</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Rua Samuel Gonçalves Sanches, 19 A</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2765-280 Estoril</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>123456809</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>12365</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>€ 50.000,00</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>749462</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CARLOS ALONSO - DOURO WINE COMPANY, LDA</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>33</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>TERRA ALTA NINE 9</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/carlos-alonso-douro-wine-company-lda/</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>516209370</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Parque Industrial de Alijó, Lote 24</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>5070-072 Alijó</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>123456810</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>12366</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>€ 250.000,00</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>749463</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>RPS UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>44</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>BEAUTY BRIDAL</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>749465</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DAVID MIGUEL MARIANO MEIRELES</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>9</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>749466</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ARLETE LEONOR FERREIRA DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>36</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>749468</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>FÁTIMA CRISTINA DA COSTA PEREIRA RAMALHO, UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>37</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>QLAVA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/fatima-cristina-da-costa-pereira-ramalho-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>517832496</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Rua Manuel Silva, N.º 18</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>4490-657 Póvoa de Varzim</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>123456811</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>12367</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>€ 1.000,00</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Sociedade Unipessoal</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>749469</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>AMANDA FERREIRA DE CASTRO</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>44</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>749470</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>BRUNO MIGUEL DE MELO ARAUJO BARBOSA</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>35</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>749471</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>JOANA ISABEL &amp; ANA CRISTINA, LDA</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>41</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>EDUCONNECT</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/joana-isabel-ana-cristina-lda/</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>518592030</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Rua Santo André, Bloco A, A</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>4620-122 Lousada</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>123456812</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>12368</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>€ 250,00</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>749477</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>MARIA AURÉLIA VERÍSSIMO CONSTANTINO</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>41</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>749478</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PEDRO CREATIVE STUDIO, UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>16</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>PEDRO EYESHOT</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/pedro-creative-studio-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>518638723</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Rua de São Filipe, N.º 14 - Fonte Santa</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2670-554 Loures</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>123456813</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>12369</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>€ 5.000,00</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Sociedade Unipessoal</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>749488</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>JÚDICE - RESOLUÇÃO DE LITÍGIOS E CONSULTORIA, S.A.</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>43</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/judice-resolucao-de-litigios-e-consultoria-s-a/</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>503001490</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Calçada do Galvão, 99, R/C</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1400-165 Lisboa</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>123456814</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>12370</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>€ 110.000,00</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Sociedade Anónima</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>749501</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>VITACEUTICS, LDA.</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>PLANTADOL VITACEUTICS</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/vitaceutics-lda/</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>515464996</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Edifício Vitaceutics, Queimadas - Sernada</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>3505-330 Santos Evos</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>123456815</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>12371</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>€ 1.000,00</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>749513</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>HIT - HOME INVESTMENT TEAM, LDA</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>42</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>SKYLINE STUDIO</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/hit-home-investment-team-lda/</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>518157008</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Rua Doutor Ulisses Pardal, Nº 17</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>6000-382 Castelo Branco</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>123456816</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>12372</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>€ 5.000,00</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>749514</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025.07.15</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CLAUDIA PACHECO</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
         <v>32</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>AGUA DOM DINIS NAL DE MARCAS idos ade Industrial, a seguir se publicam os pedidos de registo de a contar-se o prazo de dois meses para a apresentação de ncessão dos mesmos, em conformidade com o artigo 17.º do</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Not Found</t>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>749525</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025.07.15</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CS FINANZA, UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>36</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>CS FINANZA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/cs-finanza-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>517345536</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Rua Sacadura Cabral, N.º 28, R/C Dto</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2580-371 Alenquer</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>123456817</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>12373</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>€ 5.000,00</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Sociedade Unipessoal</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>749528</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025.07.15</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CENTRO TECNOLÓGICO DA CORTIÇA</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>SYMBIOS</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/centro-tecnologico-da-cortica/</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>501804609</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Rua Amélia Camossa</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>4535-368 Santa Maria de Lamas</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>123456818</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>12374</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Não disponível</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Pessoa Colectiva de Utilidade Pública</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>749535</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025.07.15</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>MARIO SILVA</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>24</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>LOJA DO ADEPTO</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>749536</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025.07.15</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>JOÃO GONÇALO MOREIRA UNIPESSOAL, LDA</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>33</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>PATO BICHO</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/joao-goncalo-moreira-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>516928724</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Rua Manuel Pedro Cardoso, Bloco B, R/C Esq.º</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2590-033 Sobral de Monte Agraço</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>123456819</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>12375</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>€ 3.000,00</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Sociedade Unipessoal</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>749537</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025.07.15</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ASTERISCO INSPIRADOR UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>43</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>PIMPINELA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/asterisco-inspirador-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>517631547</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Rua Manuel Vaz, 884, Quinta do Loureiro, Ferreira do Zêzere</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2240-383 Ferreira do Zêzere</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>123456820</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>12376</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>€ 500,00</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Sociedade Unipessoal</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>749542</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025.07.15</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>APIMIGOR, LDA</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>33</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>DARK VILLAGE</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/apimigor-lda/</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>510335047</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Zona Industrial, Lote 8</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>7700-999 Almodôvar</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>123456821</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>12377</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>€ 10.000,00</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>749554</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PARRAS WINES, UNIPESSOAL, LDA.</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>33</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>MONGO</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/parras-wines-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>509486908</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Estrada Nacional 8-5-Km 2,3, Fervença</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2460-526 Maiorga</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>123456822</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>12378</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>€ 155.000,00</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Sociedade Unipessoal</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>749555</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>RICARDO ANDRÉ MAGALHÃES DE FREITAS</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>9</v>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>749563</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>CO&amp;K, LDA</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>33</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1591</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/co-k-lda/</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>514853611</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Rua Capitão Matos Ribeiro, Nº 33, Corredoura</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2480-402 Porto de Mos</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>123456823</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>12379</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>€ 5.000,00</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>749564</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CO&amp;K, LDA</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>33</v>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/co-k-lda/</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>514853611</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Rua Capitão Matos Ribeiro, Nº 33, Corredoura</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2480-402 Porto de Mos</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>123456824</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>12380</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>€ 5.000,00</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>749565</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>PEDROSCILANTE LDA</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>19</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>MUROS MF</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/pedroscilante-lda/</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>517570688</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Beco do Rato, N.º 45, Casal da Quinta</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2415-013 Leiria</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>123456825</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>12381</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>€ 25.000,00</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>749566</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CO&amp;K, LDA</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>44</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>ACADEMIA DOS SONHOS</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/co-k-lda/</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>514853611</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Rua Capitão Matos Ribeiro, Nº 33, Corredoura</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2480-402 Porto de Mos</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>123456826</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>12382</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>€ 5.000,00</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>58288</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2025.07.10</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PEFICLIMA, LDA</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/peficlima-lda/</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>508825288</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Rua Álvaro Ferreira Alves, Nº 39-C, Santa Marta de Corroios</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2855-591 Corroios</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>123456827</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>12383</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>€ 75.000,00</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>58294</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>FRANCISCO NUNO LEITE FERREIRA</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>LOGÓTIPOS idos ade Industrial, a seguir se publicam os pedidos de registo de a contar-se o prazo de dois meses para a apresentação de ncessão dos mesmos, em conformidade com o artigo 17.º do</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>58295</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>MARIA JOANA ÁLVARES RIBEIRO DE SOUSA COUTINHO</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>58297</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2025.07.12</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>WILSON SILVA</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/wilson-silva-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>506437809</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>R da Negide, N 336 4415 Vila Nova de Gaia</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>123456828</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>12384</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>Não disponível</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>Sociedade Unipessoal</t>
         </is>
       </c>
     </row>

--- a/webscrapping school/msaces/racius_links_output.xlsx
+++ b/webscrapping school/msaces/racius_links_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,45 +538,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>748732</t>
+          <t>749718</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025.07.02</t>
+          <t>2025.07.17</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>POLSKAR, SOCIEDADE UNIPESSOAL LDA.</t>
+          <t>MOURETECTOS - TECTOS FALSOS E DIVISÓRIAS LDA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>39</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>POLKAR</t>
-        </is>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.racius.com/polskar-sociedade-unipessoal-lda/</t>
+          <t>https://www.racius.com/mouretectos-tectos-falsos-e-divisorias-lda/</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>518438015</t>
+          <t>505626837</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Avenida do Brasil, Nº 92C</t>
+          <t>Avenida Central, Nº 20</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1700-073 Lisboa</t>
+          <t>4730-283 Marrancos</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -591,7 +587,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -626,57 +622,53 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>€ 1.000,00</t>
+          <t>€ 250.000,00</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Sociedade Unipessoal</t>
+          <t>Sociedade por Quotas</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>749590</t>
+          <t>749721</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025.07.16</t>
+          <t>2025.07.17</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ECCENTRIC FOUNDER ECOSYSTEM &amp; PLATFORM LABS, LDA</t>
+          <t>DAUD &amp; IRMÃOS - CASA DE HÓSPEDES LDA.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>42</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ECCENTRIC LABS SOFTWARE</t>
-        </is>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.racius.com/eccentric-founder-ecosystem-platform-labs-lda/</t>
+          <t>https://www.racius.com/daud-irmaos-casa-de-hospedes-lda/</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>518680576</t>
+          <t>508521386</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Travessa Moinho Velho, N.º 20, 3º Esq</t>
+          <t>Rua da Palma, Nº 177, 3º Direito e 4º Direito</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1300-421 Lisboa</t>
+          <t>1100-391 Lisboa</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -691,7 +683,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -726,7 +718,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>€ 500,00</t>
+          <t>€ 5.000,00</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -738,45 +730,41 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>749593</t>
+          <t>749761</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025.07.16</t>
+          <t>2025.07.18</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NICHENVOLVENTE LDA</t>
+          <t>DENTES SORRIDENTES - MEDICINA DENTÁRIA, LDA.</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>35</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>JPCAVACORE</t>
-        </is>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.racius.com/nichenvolvente-lda/</t>
+          <t>https://www.racius.com/dentes-sorridentes-medicina-dentaria-lda/</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>518563502</t>
+          <t>516521004</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Rua 25 de Abril, Nº 14, 1º A, Pero Negro</t>
+          <t>Rua Teixeira de Pascoais, Nº 551, 4º Esq.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2590-425 Sapataria</t>
+          <t>4800-073 Guimarães</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -791,7 +779,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -826,7 +814,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>€ 40.000,00</t>
+          <t>€ 10.000,00</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -838,41 +826,41 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>749630</t>
+          <t>749827</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025.07.16</t>
+          <t>2025.07.21</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ZERADVERSIDADES MEDIAÇÃO - IMOBILIÁRIA LDA</t>
+          <t>PRUDENTALGORITMO - LDA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.racius.com/zeradversidades-mediacao-imobiliaria-lda/</t>
+          <t>https://www.racius.com/prudentalgoritmo-lda/</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>509717446</t>
+          <t>518512347</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Praceta Manuel Fevereiro, Nº 7.f, Marisol</t>
+          <t>Rua Fundões, 151, S1 Gab 2.3</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2820-383 Charneca da Caparica</t>
+          <t>3700-121 São João da Madeira</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -887,7 +875,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -922,7 +910,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>€ 60.000,00</t>
+          <t>€ 30.000,00</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -934,41 +922,41 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>749654</t>
+          <t>749829</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025.07.17</t>
+          <t>2025.07.21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>URBANLUDIC, LDA</t>
+          <t>SNCS - SUPPORT NEW CONTRACTING SERVICES, LDA.</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.racius.com/urbanludic-lda/</t>
+          <t>https://www.racius.com/sncs-support-new-contracting-services-lda/</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>514971118</t>
+          <t>518178285</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Rua Alfredo Henriques 190</t>
+          <t>Rua Mouzinho da Silveira, Nº 32 , 2º Andar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>4520-409 Mosteirô</t>
+          <t>1250-167 Lisboa</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -983,7 +971,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1018,7 +1006,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>€ 5.000,00</t>
+          <t>€ 6.000,00</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1030,41 +1018,41 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>749669</t>
+          <t>749875</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025.07.17</t>
+          <t>2025.07.21</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>VERDADEIRO PASSO - AUTOMAÇÃO INDUSTRIAL, LDA</t>
+          <t>GRANDES CANTORIAS - ATIVIDADES HOTELEIRAS, LDA.</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.racius.com/verdadeiro-passo-automacao-industrial-lda/</t>
+          <t>https://www.racius.com/grandes-cantorias-atividades-hoteleiras-lda/</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>517633850</t>
+          <t>510144918</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rua Vale da Corte, 250</t>
+          <t>Largo de S. Miguel, Nº 2</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3465-190 Vilar de Besteiros</t>
+          <t>1100-541 Lisboa</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1079,7 +1067,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1114,7 +1102,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>€ 18.500,00</t>
+          <t>€ 1.000,00</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1126,41 +1114,41 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>749717</t>
+          <t>749886</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025.07.17</t>
+          <t>2025.07.21</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SEMANA ACLAMADA LDA</t>
+          <t>ALL IN BRAND IGNITION UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.racius.com/semana-aclamada-lda/</t>
+          <t>https://www.racius.com/all-in-brand-ignition-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>517912457</t>
+          <t>516145762</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Rua Conselheiro Nicolau Anastácio, Nº 10</t>
+          <t>Quinta dos Espargalinhos, Rua do Espargal, Nº 23, Cabriz</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>9760-440 Praia da Vitória</t>
+          <t>2710-743 Sintra</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1175,7 +1163,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1210,53 +1198,57 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>€ 10.000,00</t>
+          <t>€ 500,00</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>Sociedade por Quotas</t>
+          <t>Sociedade Unipessoal</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>749739</t>
+          <t>749889</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025.07.18</t>
+          <t>2025.07.21</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PRIMEHEAVENS INTERNATIONAL, UNIPESSOAL, LDA.</t>
+          <t>OASIS CORNER UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ELAS NAS HORAS</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.racius.com/primeheavens-international-unipessoal-lda/</t>
+          <t>https://www.racius.com/oasis-corner-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>510268307</t>
+          <t>515914240</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rua Álvaro Pedro Gomes, Nº 4 - 2º C - Urbanização Real Forte</t>
+          <t>Rua Alcino Borges da Silva, N.º 123 A</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2685-139 Sacavém</t>
+          <t>4405-924 Vila Nova de Gaia</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1271,7 +1263,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1306,7 +1298,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>€ 25.000,00</t>
+          <t>€ 6.000,00</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1318,45 +1310,41 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>749754</t>
+          <t>749900</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025.07.18</t>
+          <t>2025.07.22</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NOGUEIRA CALDAS, UNIPESSOAL LDA.</t>
+          <t>MANYSTUDIO, LDA.</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>29</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>BRUTO RESTAURANTE, FINE DINING, BISTRÔ &amp; LOUNGE</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.racius.com/nogueira-caldas-unipessoal-lda/</t>
+          <t>https://www.racius.com/manystudio-lda/</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>517165236</t>
+          <t>518804291</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Rua do Ateneu Comercial do Porto, Nº 26</t>
+          <t>Rua Lúcia Lousada, Nº. 268</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>4000-380 Porto</t>
+          <t>4620-030 Lousada</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1371,7 +1359,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1406,53 +1394,57 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>€ 5.000,00</t>
+          <t>€ 3.000,00</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>Sociedade Unipessoal</t>
+          <t>Sociedade por Quotas</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>749792</t>
+          <t>749910</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025.07.19</t>
+          <t>2025.07.22</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BALMO UNIPESSOAL LDA.</t>
+          <t>RITMOS, AGENCIAMENTO E PRODUÇÃO DE ARTISTAS E ESPECTÁCULOS, LDA.</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>37</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>FESTIVAL PAREDES DE COURA</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.racius.com/balmo-unipessoal-lda/</t>
+          <t>https://www.racius.com/ritmos-agenciamento-e-producao-de-artistas-e-espectaculos-lda/</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>514058234</t>
+          <t>504195360</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Rua Salvato Feijó, N.º 325</t>
+          <t>Rua Dr. José Gomes Moreira, Nº 25</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>4990-132 Ponte de Lima</t>
+          <t>4940-536 Paredes de Coura</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1467,7 +1459,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1502,53 +1494,53 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>€ 85.000,00</t>
+          <t>Não disponível</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Sociedade Unipessoal</t>
+          <t>Sociedade por Quotas</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>749797</t>
+          <t>749916</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025.07.20</t>
+          <t>2025.07.22</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>QUINTA DO OSORIO LDA.</t>
+          <t>AVESTRUZ APRESSADA, LDA.</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.racius.com/quinta-do-osorio-lda/</t>
+          <t>https://www.racius.com/avestruz-apressada-lda/</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>508424887</t>
+          <t>518064700</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Quinta do Osório - Vila Seca</t>
+          <t>Rua Tenente Domingos João Cardoso, Nº 16</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>5110-547 Vila Seca Amm</t>
+          <t>9060-138 São Gonçalo</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1563,7 +1555,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1598,7 +1590,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>€ 5.000,00</t>
+          <t>€ 500,00</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -1610,45 +1602,41 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>749798</t>
+          <t>749921</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025.07.20</t>
+          <t>2025.07.22</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>JORGE DANTAS - SERVIÇOS MÉDICOS - UNIPESSOAL, LDA</t>
+          <t>BENCHMARK UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>36</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>IPI INVEST</t>
-        </is>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.racius.com/jorge-dantas-servicos-medicos-unipessoal-lda/</t>
+          <t>https://www.racius.com/benchmark-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>515779539</t>
+          <t>513008039</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Rua da Carreira de Tiro, 84, Urbanização Cabanas Golf</t>
+          <t>Rua António Caixeiro, Nº 13, Lamarosa</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1400-081 Lisboa</t>
+          <t>2350-164 Olaia</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1663,7 +1651,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1698,7 +1686,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>€ 500,00</t>
+          <t>€ 5.000,00</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -1710,45 +1698,45 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>749800</t>
+          <t>749922</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025.07.20</t>
+          <t>2025.07.22</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NOTABLE OCTOPUS UNIPESSOAL LDA</t>
+          <t>CRUNCHYMETHOD - UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NEVERSKIPMONDAY</t>
+          <t>AMARE RESTAURANTE</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.racius.com/notable-octopus-unipessoal-lda/</t>
+          <t>https://www.racius.com/crunchymethod-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>518717720</t>
+          <t>518685942</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Rua Dr. Eurico José Gouveia, Nº474,1º Dto Frt</t>
+          <t>Campo Pequeno, Nº 26 A Tornejando Para A Avenida Sacadura Cabral, Nº 46 B</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>3460-580 Tondela</t>
+          <t>1000-079 Lisboa</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1763,7 +1751,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1798,7 +1786,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>€ 1.000,00</t>
+          <t>€ 5.000,00</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -1810,45 +1798,45 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>749801</t>
+          <t>749943</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025.07.20</t>
+          <t>2025.07.22</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ESCOLA DE CONDUCÃO ABS, LDA</t>
+          <t>NXT MANAGEMENT, LDA</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MOBILIDADE RODOVIÁRIA</t>
+          <t>WIDER</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.racius.com/escola-de-conducao-abs-lda/</t>
+          <t>https://www.racius.com/nxt-management-lda/</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>510922694</t>
+          <t>513586032</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Rua dos Foros da Amora, N.º 91-A .</t>
+          <t>Avenida Sidónio Pais, Nº 24, 2º Dtº</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2845-554 Amora</t>
+          <t>1050-215 Lisboa</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1863,7 +1851,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1910,45 +1898,45 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>749802</t>
+          <t>749963</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025.07.20</t>
+          <t>2025.07.22</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A. CARVALHO &amp; J. CUNHA, UNIPESSOAL LDA</t>
+          <t>SILK HILLS LDA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>LUCIMEIRA BAGS</t>
+          <t>BLUE WAVE TRAVEL AGENCY</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.racius.com/a-carvalho-j-cunha-unipessoal-lda/</t>
+          <t>https://www.racius.com/silk-hills-lda/</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>508064279</t>
+          <t>518836177</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rua da Alamela, 8, R/C</t>
+          <t>Rua Santa Justa, Nº 97, 3º C</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>4560-562 Penafiel</t>
+          <t>4705-108 Braga</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1963,7 +1951,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1998,53 +1986,57 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>€ 5.000,00</t>
+          <t>€ 7.500,00</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>Sociedade Unipessoal</t>
+          <t>Sociedade por Quotas</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>749805</t>
+          <t>749964</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025.07.21</t>
+          <t>2025.07.22</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CONVERSAS VERSÁTEIS, LDA.</t>
+          <t>LADEIRA DA SANTA, LDA</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>35</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ZOU</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.racius.com/conversas-versateis-unipessoal-lda/</t>
+          <t>https://www.racius.com/ladeira-da-santa-lda/</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>514300353</t>
+          <t>509987737</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Rua de Santa Maria Madalena, Nº 11, 2º Andar</t>
+          <t>Quinta das Corgas</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3250-121 Alvaiázere</t>
+          <t>3420-223 São João da Boavista</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2059,7 +2051,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2094,53 +2086,57 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>€ 5.000,00</t>
+          <t>€ 4.000,00</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>Sociedade Unipessoal</t>
+          <t>Sociedade por Quotas</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>749806</t>
+          <t>749983</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025.07.21</t>
+          <t>2025.07.23</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CÓDIGO NENÚFAR, LDA</t>
+          <t>SANDRA MICAELA CASINHA ARQUITETURA E DESIGN UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>25</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MAGIC HAPPENS</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.racius.com/codigo-nenufar-lda/</t>
+          <t>https://www.racius.com/sandra-micaela-casinha-arquitetura-e-design-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>514644516</t>
+          <t>514910593</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Estrada dos Romanos, Nº 9, Aldeia de São Pedro</t>
+          <t>Rua de Roma, N.º 275</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2925-614 Azeitão</t>
+          <t>4485-511 Mindelo</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2155,7 +2151,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2190,57 +2186,57 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>€ 62.500,00</t>
+          <t>€ 2.150,00</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>Sociedade por Quotas</t>
+          <t>Sociedade Unipessoal</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>749823</t>
+          <t>750046</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025.07.20</t>
+          <t>2025.07.23</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1907 SAÚDE E BEM ESTAR LDA</t>
+          <t>MESA E CASA ENCANTADA - RESTAURAÇÃO E ALOJAMENTO, LDA.</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>O FRALDÁRIO DAS FESTAS LOUSADA</t>
+          <t>MARIALVA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.racius.com/1907-saude-e-bem-estar-lda/</t>
+          <t>https://www.racius.com/mesa-e-casa-encantada-restauracao-e-alojamento-lda/</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>514694068</t>
+          <t>507902297</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Rua de Santo António, Nº 554</t>
+          <t>Avenida Elias Garcia, Nº 162, 7º B</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4620-651 Lousada</t>
+          <t>1050-102 Lisboa</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2255,7 +2251,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2290,7 +2286,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>€ 300.000,00</t>
+          <t>€ 50.000,00</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -2302,45 +2298,45 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>749831</t>
+          <t>750065</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025.07.21</t>
+          <t>2025.07.24</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>FASANO - SOCIEDADE TURÍSTICA E IMOBILIÁRIA, LDA</t>
+          <t>FOREVER FITNESS, LDA</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FASANO</t>
+          <t>MY TEMPUS</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.racius.com/fasano-sociedade-turistica-e-imobiliaria-lda/</t>
+          <t>https://www.racius.com/forever-fitness-lda/</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>516607820</t>
+          <t>514984384</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Rua de São Bento, Nº 644, 2.º Dt.</t>
+          <t>Estrada de Alcanede, N.º 42, Gato Preto</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1250-223 Lisboa</t>
+          <t>2040-352 Rio Maior</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2355,7 +2351,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2390,7 +2386,7 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>€ 5.000,00</t>
+          <t>€ 60.000,00</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2402,45 +2398,45 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>749832</t>
+          <t>750081</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025.07.21</t>
+          <t>2025.07.24</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GRUPO SAUDE NUNO MENDES LDA</t>
+          <t>OUTSPORT, LDA.</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SOMOS PESSOAS. CUIDAMOS DE PESSOAS.</t>
+          <t>OUTSPORT</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.racius.com/grupo-saude-nuno-mendes-lda/</t>
+          <t>https://www.racius.com/outsport-lda/</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>509513808</t>
+          <t>505795728</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Zona Industrial Nº 1, Lote 36</t>
+          <t>Rua Retiro dos Pacatos, Nº 50 - Pavilhão 9</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>4560-164 Penafiel</t>
+          <t>2635-224 Rio de Mouro</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2455,7 +2451,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2490,7 +2486,7 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>€ 205.000,00</t>
+          <t>€ 60.000,00</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -2502,17 +2498,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>749836</t>
+          <t>750088</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025.07.21</t>
+          <t>2025.07.24</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SERVICE+PORTUGAL INVESTE, SOCIEDADE DE MEDIAÇÃO IMOBILIÁRIA, UNIPESSOAL, LDA</t>
+          <t>BMC LDA</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -2520,25 +2516,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MAIS POUPANÇA</t>
+          <t>MITO</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.racius.com/service-portugal-investe-sociedade-de-mediacao-imobiliaria-unipessoal-lda-2/</t>
+          <t>https://www.racius.com/bmc-lda/</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>504084768</t>
+          <t>510746608</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Rua de Galileu Saúde Correia, 5-A Almada</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>Rua Mouzinho de Albuquerque, Nº 348</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>4450-201 Matosinhos</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>08/2025</t>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2586,57 +2586,57 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Não disponível</t>
+          <t>€ 3.000,00</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>Sociedade Unipessoal</t>
+          <t>Sociedade por Quotas</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>749839</t>
+          <t>750105</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025.07.21</t>
+          <t>2025.07.22</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MARIANA CARVALHO MACHADO, UNIPESSOAL LDA</t>
+          <t>MANUEL LARANJEIRA, UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>BEAUTY, PLEASE</t>
+          <t>LARSTONE</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.racius.com/mariana-carvalho-machado-unipessoal-lda/</t>
+          <t>https://www.racius.com/manuel-laranjeira-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>518882268</t>
+          <t>505652960</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Rua Bairro Afonso Costa, Nº 54, 2º Fte</t>
+          <t>Rua das Papaínhas, 85</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2910-413 Setubal</t>
+          <t>4435-768 Gondomar</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>€ 2.000,00</t>
+          <t>Não disponível</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -2698,45 +2698,45 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>749840</t>
+          <t>750133</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025.07.21</t>
+          <t>2025.07.24</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DWA - ACCOUNTING &amp; CONSULTING, LDA</t>
+          <t>ESFERAGEST - GESTÃO E EXPLORAÇÃO HOTELEIRA, LDA.</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>DWEAR-ON</t>
+          <t>GRANDE HOTEL DO TOURAL</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.racius.com/dwa-accounting-consulting-lda/</t>
+          <t>https://www.racius.com/esferagest-gestao-e-exploracao-hoteleira-lda/</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>515739405</t>
+          <t>518467449</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rua dos Manocas, Nº 21</t>
+          <t>Rua Teixeira de Pascoais, N.º 131, Sala 6C, 2.º Andar Poente</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2100-651 Biscaínho</t>
+          <t>4800-073 Guimarães</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>€ 1.000,00</t>
+          <t>€ 5.000,00</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -2798,45 +2798,45 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>749847</t>
+          <t>750134</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025.07.21</t>
+          <t>2025.07.24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SOFIA SANTOS MOREIRA UNIPESSOAL LDA</t>
+          <t>ESFERAGEST - GESTÃO E EXPLORAÇÃO HOTELEIRA, LDA.</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SOPHIA HOME</t>
+          <t>OPORTO RIVERSIDE ROOFTOP</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.racius.com/sofia-santos-moreira-unipessoal-lda/</t>
+          <t>https://www.racius.com/esferagest-gestao-e-exploracao-hoteleira-lda/</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>517319330</t>
+          <t>518467449</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Rua Fonte de Jorgim, N.º 277</t>
+          <t>Rua Teixeira de Pascoais, N.º 131, Sala 6C, 2.º Andar Poente</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>4430-403 Vila Nova de Gaia</t>
+          <t>4800-073 Guimarães</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2886,57 +2886,51 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>€ 500,00</t>
+          <t>€ 5.000,00</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>Sociedade Unipessoal</t>
+          <t>Sociedade por Quotas</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>749850</t>
+          <t>58303</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025.07.21</t>
+          <t>2025.07.17</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CRUNCHYMETHOD - UNIPESSOAL LDA</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>39</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>AMARE</t>
-        </is>
-      </c>
+          <t>FALCON POSTURE - UNIPESSOAL, LDA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.racius.com/crunchymethod-unipessoal-lda/</t>
+          <t>https://www.racius.com/falcon-posture-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>518685942</t>
+          <t>518815900</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Campo Pequeno, Nº 26 A Tornejando Para A Avenida Sacadura Cabral, Nº 46 B</t>
+          <t>Rua General Joaquim Maria Neto, N.º 4, 2.º Frente</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1000-079 Lisboa</t>
+          <t>5300-284 Bragança</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2951,7 +2945,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2986,7 +2980,7 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>€ 5.000,00</t>
+          <t>€ 500,00</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
@@ -2998,45 +2992,39 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>749872</t>
+          <t>58306</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025.07.20</t>
+          <t>2025.07.17</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SILHOUETARGET UNIPESSOAL LDA</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>35</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>6 SENTIDOS</t>
-        </is>
-      </c>
+          <t>SEMANA ACLAMADA LDA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.racius.com/silhouetarget-unipessoal-lda/</t>
+          <t>https://www.racius.com/semana-aclamada-lda/</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>517568942</t>
+          <t>517912457</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Rua Francisco Almeida Grandella, Nº 90</t>
+          <t>Rua Conselheiro Nicolau Anastácio, Nº 10</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2050-116 Aveiras de Cima</t>
+          <t>9760-440 Praia da Vitória</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3051,7 +3039,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -3086,57 +3074,51 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>€ 200,00</t>
+          <t>€ 10.000,00</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>Sociedade Unipessoal</t>
+          <t>Sociedade por Quotas</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>749873</t>
+          <t>58318</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025.07.20</t>
+          <t>2025.07.21</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SILHOUETARGET UNIPESSOAL LDA</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>25</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>TOSCANY</t>
-        </is>
-      </c>
+          <t>SHOOTING BIRDS, LDA.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.racius.com/silhouetarget-unipessoal-lda/</t>
+          <t>https://www.racius.com/shooting-birds-lda/</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>517568942</t>
+          <t>518879550</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Rua Francisco Almeida Grandella, Nº 90</t>
+          <t>Caminho do Pilar - Conjunto Habitacional Pilar I, Bloco A, Lote 1, 1º, Esq.º</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2050-116 Aveiras de Cima</t>
+          <t>9000-136 Funchal</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3151,7 +3133,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -3186,510 +3168,10 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>€ 200,00</t>
+          <t>€ 750,00</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
-        <is>
-          <t>Sociedade Unipessoal</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>749874</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2025.07.21</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>SILVA PRADO LDA</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>33</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>VIDEIRA GRANDE</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/silva-prado-lda/</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>508987008</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Quinta da Videira Grande, S/N, Nagoselo do Douro</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>5130-230 Nagoselo do Douro</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>08/2025</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>08/2035</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>2025-08-04</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">28 </t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>6,44</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>34,44</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>34,44</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>123456816</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>12372</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>€ 5.000,00</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>Sociedade por Quotas</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>749942</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2025.07.22</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>AROMAS4U, LDA.</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>33</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>AROMAS4U ESSÊNCIA</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/aromas4u-lda/</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>513218645</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Polo Industrial da Gemieira, Pavilhão 10</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>4990-645 Ponte de Lima</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>08/2025</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>08/2035</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>2025-08-04</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">28 </t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>6,44</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>34,44</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>34,44</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>123456817</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>12373</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>€ 5.000,00</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>Sociedade por Quotas</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>749956</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2025.07.22</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>ARAMDRAIN, LDA</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ARAMDRAIN</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/aramdrain-lda/</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>518876195</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Praceta José Maria Baldi, Lote 60, Cave Traseiras - Parque Industrial do Seixal</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>2840-071 Seixal</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>08/2025</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>08/2035</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>2025-08-04</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">28 </t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>6,44</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>34,44</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>34,44</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>123456818</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>12374</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>€ 10.000,00</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>Sociedade por Quotas</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>749957</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2025.07.22</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>BRANDS CAPITAL , LDA</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>30</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>ANTARTIDA</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/brands-capital-lda/</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>515215112</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Rua Campo das Oliveiras, Nº 26</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>4585-885 Paredes</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>08/2025</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>08/2035</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>2025-08-04</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">28 </t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>6,44</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>34,44</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>34,44</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>123456819</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>12375</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>€ 2.500,00</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>Sociedade por Quotas</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>749959</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2025.07.22</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>ARAMDRAIN, LDA</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>ARAM DRAIN</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/aramdrain-lda/</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>518876195</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Praceta José Maria Baldi, Lote 60, Cave Traseiras - Parque Industrial do Seixal</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>2840-071 Seixal</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>08/2025</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>08/2035</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>2025-08-04</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">28 </t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>6,44</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>34,44</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>34,44</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>123456820</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>12376</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>€ 10.000,00</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
         <is>
           <t>Sociedade por Quotas</t>
         </is>
